--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全体构建" sheetId="1" r:id="rId1"/>
     <sheet name="功能一览" sheetId="2" r:id="rId2"/>
     <sheet name="#订单管理" sheetId="3" r:id="rId3"/>
+    <sheet name="#db#" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="200">
   <si>
     <t>JK-900-200</t>
     <phoneticPr fontId="1"/>
@@ -287,6 +288,534 @@
   </si>
   <si>
     <t>通知</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顾客id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_customer_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>交货期限</t>
+  </si>
+  <si>
+    <t>责任人</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>c_order_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_ship_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_ship_dead_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_master_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vary char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顾客名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_phone</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交货时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单表 order_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_pn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_pn_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_sub_pn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_unit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位定义表 unit_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_sub_unit_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子单位ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和子单位的换算，如1箱=100个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单条目表 order_item_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半成品数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成品数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_semi_manufactured_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_reject_ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_ratio</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不良率 0-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>var char</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_made_up_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_order_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单条目ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单条目仓库表 warehouse_order_item_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM仓库表 warehouse_bom_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM定义表 bom_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_bom_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_use_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOMID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1个品番单位耗费的BOM数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASTER表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_ref_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库用户ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库种类：
+订单条目入库(0) 订单条目出库(1) BOM入库(2) BOM出库(3) 
+备件出库(4) 
+备件入库(5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单条目仓库ID/BOM仓库ID/设备仓库ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_machine_parts_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机器设备ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备备件管理表 warehouse_machine_parts_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备定义表 machine_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零件品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_supplier_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商表 supplier_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_machine_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零件ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_maitenace_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保养时间(天)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保养所需备件数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_maitenace_parts_num</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备备件一览表 machine_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_place</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用地点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上次保养时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_maitenaced_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customer_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pn_tbl::c_id</t>
+  </si>
+  <si>
+    <t>pn_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库记录表 warehouse_history_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_item_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bom_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machine_parts_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warehouse_order_item_tbl::c_id
+warehouse_bom_tbl::c_id
+warehouse_machine_parts_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machine_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顾客表 customer_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品番定义表 pn_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备-零件定义表 machine_parts_relation_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用户定义表 user_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM使用品番定义表 pn_bom_relation_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备零件定义表 machine_parts_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplier_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> machine_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> machine_parts_tbl::c_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -294,7 +823,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,8 +867,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +896,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -437,12 +978,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -460,10 +995,37 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -472,26 +1034,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -876,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -886,146 +1446,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8"/>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8"/>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8"/>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8"/>
-      <c r="AW2" s="8"/>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
     </row>
     <row r="3" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1081,14 +1641,14 @@
       <c r="BE3" s="4"/>
     </row>
     <row r="4" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="4" t="s">
         <v>22</v>
       </c>
@@ -1144,14 +1704,14 @@
       <c r="BE4" s="4"/>
     </row>
     <row r="5" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1207,18 +1767,18 @@
       <c r="BE5" s="4"/>
     </row>
     <row r="6" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="4" t="s">
         <v>56</v>
       </c>
@@ -1272,14 +1832,14 @@
       <c r="BE6" s="4"/>
     </row>
     <row r="7" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="4" t="s">
         <v>66</v>
       </c>
@@ -1333,20 +1893,20 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -1394,20 +1954,20 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
@@ -1455,22 +2015,22 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="4" t="s">
         <v>62</v>
       </c>
@@ -1520,20 +2080,20 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="4" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
       <c r="M11" s="4" t="s">
         <v>63</v>
       </c>
@@ -1595,10 +2155,10 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
       <c r="M12" s="4" t="s">
         <v>64</v>
       </c>
@@ -1779,19 +2339,23 @@
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="M3:BE3"/>
-    <mergeCell ref="M4:BE4"/>
-    <mergeCell ref="M5:BE5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="M1:BE2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:D5"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="M12:BE12"/>
+    <mergeCell ref="M13:BE13"/>
+    <mergeCell ref="M14:BE14"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="A6:D9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A10:D11"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="M7:BE7"/>
     <mergeCell ref="M8:BE8"/>
@@ -1806,23 +2370,19 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="M6:BE6"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A6:D9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="M12:BE12"/>
-    <mergeCell ref="M13:BE13"/>
-    <mergeCell ref="M14:BE14"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="M3:BE3"/>
+    <mergeCell ref="M4:BE4"/>
+    <mergeCell ref="M5:BE5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="M1:BE2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:D5"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I5:L5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1834,7 +2394,7 @@
   <dimension ref="A1:AH21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:F16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1892,199 +2452,199 @@
       <c r="AA3" s="12"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="13" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="22">
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13">
         <v>43187</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="22">
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13">
         <v>43187</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13" t="s">
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13" t="s">
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="22">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13">
         <v>43187</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="22">
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="13">
         <v>43187</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13" t="s">
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13" t="s">
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="13" t="s">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="22">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="13">
         <v>43187</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="22">
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="13">
         <v>43187</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13" t="s">
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="13" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="22">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13">
         <v>43187</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="22">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13">
         <v>43187</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13" t="s">
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13" t="s">
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="13" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="22">
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="13">
         <v>43187</v>
       </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="22">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="13">
         <v>43187</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13" t="s">
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13" t="s">
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C10" s="1" t="s">
@@ -2102,30 +2662,30 @@
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
       <c r="S15" s="12" t="s">
         <v>42</v>
       </c>
@@ -2136,36 +2696,36 @@
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="15" t="s">
+      <c r="AA15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15" t="s">
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
       <c r="S16" s="12" t="s">
         <v>15</v>
       </c>
@@ -2178,287 +2738,316 @@
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+      <c r="AH16" s="22"/>
     </row>
     <row r="17" spans="3:34" x14ac:dyDescent="0.35">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="20">
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16">
         <v>10000</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13" t="s">
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="20">
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="16">
         <v>5000</v>
       </c>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="20">
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="16">
         <v>4000</v>
       </c>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="16" t="s">
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="14">
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="21">
         <v>0.01</v>
       </c>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
     </row>
     <row r="18" spans="3:34" x14ac:dyDescent="0.35">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="20">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16">
         <v>10000</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13" t="s">
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="20">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="16">
         <v>0</v>
       </c>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="20">
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="16">
         <v>10000</v>
       </c>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="18" t="s">
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="AB18" s="19"/>
-      <c r="AC18" s="19"/>
-      <c r="AD18" s="19"/>
-      <c r="AE18" s="14">
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="21">
         <v>0</v>
       </c>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
     <row r="19" spans="3:34" x14ac:dyDescent="0.35">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="20">
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16">
         <v>10000</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13" t="s">
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="20">
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="16">
         <v>5000</v>
       </c>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="20">
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="16">
         <v>4000</v>
       </c>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="16" t="s">
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="14">
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="21">
         <v>0</v>
       </c>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
     </row>
     <row r="20" spans="3:34" x14ac:dyDescent="0.35">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="20">
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16">
         <v>10000</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13" t="s">
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="20">
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="16">
         <v>5000</v>
       </c>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="20">
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="16">
         <v>4000</v>
       </c>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="16" t="s">
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="14">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="21">
         <v>0</v>
       </c>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
     </row>
     <row r="21" spans="3:34" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="20">
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16">
         <v>10000</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13" t="s">
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="20">
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="16">
         <v>5000</v>
       </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="20">
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="16">
         <v>4000</v>
       </c>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="16" t="s">
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="14">
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="20"/>
+      <c r="AD21" s="20"/>
+      <c r="AE21" s="21">
         <v>0</v>
       </c>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="N3:Q3"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="N5:Q5"/>
-    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="W3:AA3"/>
+    <mergeCell ref="W4:AA4"/>
+    <mergeCell ref="W5:AA5"/>
+    <mergeCell ref="W6:AA6"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:J16"/>
+    <mergeCell ref="K15:N16"/>
+    <mergeCell ref="O15:R16"/>
+    <mergeCell ref="AA15:AD16"/>
+    <mergeCell ref="AE15:AH16"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="W16:Z16"/>
+    <mergeCell ref="S15:Z15"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="W18:Z18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="S19:V19"/>
     <mergeCell ref="W17:Z17"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -2475,55 +3064,1318 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="O17:R17"/>
     <mergeCell ref="S17:V17"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="W18:Z18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="O19:R19"/>
-    <mergeCell ref="S19:V19"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="AA19:AD19"/>
-    <mergeCell ref="AA20:AD20"/>
-    <mergeCell ref="AA21:AD21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="S21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="S20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="AE19:AH19"/>
-    <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="AE21:AH21"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:J16"/>
-    <mergeCell ref="K15:N16"/>
-    <mergeCell ref="O15:R16"/>
-    <mergeCell ref="AA15:AD16"/>
-    <mergeCell ref="AE15:AH16"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="W16:Z16"/>
-    <mergeCell ref="S15:Z15"/>
-    <mergeCell ref="AE17:AH17"/>
-    <mergeCell ref="AE18:AH18"/>
-    <mergeCell ref="AA17:AD17"/>
-    <mergeCell ref="W3:AA3"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="W5:AA5"/>
-    <mergeCell ref="W6:AA6"/>
-    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="R5:V5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="R4:V4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="27" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="27" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="27" customWidth="1"/>
+    <col min="6" max="6" width="23.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="27" customWidth="1"/>
+    <col min="8" max="8" width="29.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="26.375" style="27" customWidth="1"/>
+    <col min="10" max="10" width="5" style="27" customWidth="1"/>
+    <col min="11" max="11" width="13" style="27" customWidth="1"/>
+    <col min="12" max="12" width="10" style="27" customWidth="1"/>
+    <col min="13" max="13" width="24.75" style="27" customWidth="1"/>
+    <col min="14" max="14" width="15" style="27" customWidth="1"/>
+    <col min="15" max="16384" width="7.375" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F1" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="F2" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="K2" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="24"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="F4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="K4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="F5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" s="25"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="K6" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="N6" s="25"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="F7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="K7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="K8" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="25"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="F9" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="24"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="F11" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="K11" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N11" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="F12" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="K12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="F13" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="K13" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="N13" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="F14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="K15" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A16" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="F17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" s="25"/>
+      <c r="K18" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="25"/>
+      <c r="K19" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="F20" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="25"/>
+      <c r="K21" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" s="25"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="F24" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="K24" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="F26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="K26" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N26" s="25"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="K27" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N27" s="25"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="F28" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I28" s="25"/>
+      <c r="K28" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="F29" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="I29" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F30" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="I30" s="25"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="F31" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="25"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="K33" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="L33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="N33" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="K34" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="25"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="F35" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I35" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="K35" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="N35" s="25"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F36" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36" s="25"/>
+      <c r="K36" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="L36" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" s="25"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="F37" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L37" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="N37" s="25"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="F39" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:14" ht="49.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="99" x14ac:dyDescent="0.35">
+      <c r="A47" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" s="23"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="452">
   <si>
     <t>JK-900-200</t>
     <phoneticPr fontId="1"/>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c_unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>c_sub_unit_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -467,15 +463,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>c_order_item_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>订单条目ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单条目仓库表 warehouse_order_item_tbl</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -558,10 +546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>设备定义表 machine_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>设备品番</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -703,10 +687,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>用户定义表 user_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BOM使用品番定义表 pn_bom_relation_tbl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1813,6 +1793,38 @@
   </si>
   <si>
     <t>BOM品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用户定义表 user_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备定义表 machine_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单条目仓库表 warehouse_pn_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_order_item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_pn_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pn_tbl::c_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3408,7 +3420,7 @@
       <c r="M1" s="89"/>
       <c r="N1" s="90"/>
       <c r="O1" s="91" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P1" s="92"/>
       <c r="Q1" s="93"/>
@@ -3474,7 +3486,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
       <c r="I2" s="86" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J2" s="86"/>
       <c r="K2" s="86"/>
@@ -3555,7 +3567,7 @@
       <c r="P3" s="55"/>
       <c r="Q3" s="56"/>
       <c r="R3" s="79" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S3" s="79"/>
       <c r="T3" s="79"/>
@@ -3612,7 +3624,7 @@
       <c r="G4" s="71"/>
       <c r="H4" s="72"/>
       <c r="I4" s="79" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="J4" s="79"/>
       <c r="K4" s="79"/>
@@ -3623,7 +3635,7 @@
       <c r="P4" s="55"/>
       <c r="Q4" s="56"/>
       <c r="R4" s="79" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="S4" s="79"/>
       <c r="T4" s="79"/>
@@ -3680,7 +3692,7 @@
       <c r="G5" s="71"/>
       <c r="H5" s="72"/>
       <c r="I5" s="79" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J5" s="79"/>
       <c r="K5" s="79"/>
@@ -3691,7 +3703,7 @@
       <c r="P5" s="55"/>
       <c r="Q5" s="56"/>
       <c r="R5" s="79" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="S5" s="79"/>
       <c r="T5" s="79"/>
@@ -3748,7 +3760,7 @@
       <c r="G6" s="71"/>
       <c r="H6" s="72"/>
       <c r="I6" s="79" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="J6" s="79"/>
       <c r="K6" s="79"/>
@@ -3759,7 +3771,7 @@
       <c r="P6" s="55"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="79" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="S6" s="79"/>
       <c r="T6" s="79"/>
@@ -3816,7 +3828,7 @@
       <c r="G7" s="71"/>
       <c r="H7" s="72"/>
       <c r="I7" s="79" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J7" s="79"/>
       <c r="K7" s="79"/>
@@ -3884,7 +3896,7 @@
       <c r="G8" s="74"/>
       <c r="H8" s="75"/>
       <c r="I8" s="79" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="J8" s="79"/>
       <c r="K8" s="79"/>
@@ -3895,7 +3907,7 @@
       <c r="P8" s="55"/>
       <c r="Q8" s="56"/>
       <c r="R8" s="79" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="S8" s="79"/>
       <c r="T8" s="79"/>
@@ -3948,7 +3960,7 @@
       <c r="C9" s="74"/>
       <c r="D9" s="75"/>
       <c r="E9" s="83" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F9" s="84"/>
       <c r="G9" s="84"/>
@@ -3963,7 +3975,7 @@
       <c r="P9" s="81"/>
       <c r="Q9" s="82"/>
       <c r="R9" s="57" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="S9" s="57"/>
       <c r="T9" s="57"/>
@@ -4024,7 +4036,7 @@
       <c r="G10" s="68"/>
       <c r="H10" s="69"/>
       <c r="I10" s="79" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="J10" s="79"/>
       <c r="K10" s="79"/>
@@ -4090,7 +4102,7 @@
       <c r="G11" s="71"/>
       <c r="H11" s="72"/>
       <c r="I11" s="79" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="J11" s="79"/>
       <c r="K11" s="79"/>
@@ -4156,7 +4168,7 @@
       <c r="G12" s="71"/>
       <c r="H12" s="72"/>
       <c r="I12" s="79" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J12" s="79"/>
       <c r="K12" s="79"/>
@@ -4222,7 +4234,7 @@
       <c r="G13" s="71"/>
       <c r="H13" s="72"/>
       <c r="I13" s="79" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J13" s="79"/>
       <c r="K13" s="79"/>
@@ -4288,7 +4300,7 @@
       <c r="G14" s="74"/>
       <c r="H14" s="75"/>
       <c r="I14" s="79" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="J14" s="79"/>
       <c r="K14" s="79"/>
@@ -4356,7 +4368,7 @@
       <c r="G15" s="79"/>
       <c r="H15" s="79"/>
       <c r="I15" s="79" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="J15" s="79"/>
       <c r="K15" s="79"/>
@@ -4422,7 +4434,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="53"/>
       <c r="I16" s="79" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="J16" s="79"/>
       <c r="K16" s="79"/>
@@ -4488,7 +4500,7 @@
       <c r="G17" s="52"/>
       <c r="H17" s="53"/>
       <c r="I17" s="79" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="J17" s="79"/>
       <c r="K17" s="79"/>
@@ -4556,7 +4568,7 @@
       <c r="G18" s="79"/>
       <c r="H18" s="79"/>
       <c r="I18" s="79" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="J18" s="79"/>
       <c r="K18" s="79"/>
@@ -4626,7 +4638,7 @@
       <c r="G19" s="79"/>
       <c r="H19" s="79"/>
       <c r="I19" s="79" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="J19" s="79"/>
       <c r="K19" s="79"/>
@@ -4694,7 +4706,7 @@
       <c r="G20" s="79"/>
       <c r="H20" s="79"/>
       <c r="I20" s="79" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="J20" s="79"/>
       <c r="K20" s="79"/>
@@ -4705,7 +4717,7 @@
       <c r="P20" s="55"/>
       <c r="Q20" s="56"/>
       <c r="R20" s="79" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="S20" s="79"/>
       <c r="T20" s="79"/>
@@ -4762,7 +4774,7 @@
       <c r="G21" s="79"/>
       <c r="H21" s="79"/>
       <c r="I21" s="79" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="J21" s="79"/>
       <c r="K21" s="79"/>
@@ -4773,7 +4785,7 @@
       <c r="P21" s="55"/>
       <c r="Q21" s="56"/>
       <c r="R21" s="79" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="S21" s="79"/>
       <c r="T21" s="79"/>
@@ -4892,7 +4904,7 @@
     </row>
     <row r="23" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="79" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B23" s="79"/>
       <c r="C23" s="79"/>
@@ -5032,13 +5044,13 @@
       <c r="C25" s="71"/>
       <c r="D25" s="72"/>
       <c r="E25" s="58" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F25" s="59"/>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
       <c r="I25" s="51" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
@@ -5104,7 +5116,7 @@
       <c r="G26" s="62"/>
       <c r="H26" s="63"/>
       <c r="I26" s="51" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
@@ -5170,7 +5182,7 @@
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
       <c r="I27" s="51" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
@@ -5236,7 +5248,7 @@
       <c r="G28" s="65"/>
       <c r="H28" s="66"/>
       <c r="I28" s="51" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
@@ -5409,7 +5421,7 @@
   <dimension ref="A1:BG81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P65" sqref="P65:R65"/>
+      <selection activeCell="AE3" sqref="AE3:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5479,30 +5491,30 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="122" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="S3" s="122"/>
       <c r="T3" s="121" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="U3" s="121"/>
       <c r="V3" s="121"/>
       <c r="W3" s="27" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X3" s="28"/>
       <c r="Y3" s="80" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Z3" s="82"/>
       <c r="AA3" s="28"/>
       <c r="AB3" s="80" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AC3" s="82"/>
       <c r="AD3" s="28"/>
       <c r="AE3" s="80" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AF3" s="82"/>
       <c r="AG3" s="21"/>
@@ -5511,7 +5523,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="20"/>
       <c r="C4" s="29" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D4" s="22"/>
       <c r="F4" s="22"/>
@@ -5584,7 +5596,7 @@
       <c r="AA5" s="127"/>
       <c r="AB5" s="127"/>
       <c r="AC5" s="127" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="AD5" s="127"/>
       <c r="AE5" s="127"/>
@@ -5594,7 +5606,7 @@
     <row r="6" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B6" s="20"/>
       <c r="C6" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D6" s="115"/>
       <c r="E6" s="176" t="s">
@@ -5621,7 +5633,7 @@
       <c r="R6" s="120"/>
       <c r="S6" s="120"/>
       <c r="T6" s="120" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="U6" s="120"/>
       <c r="V6" s="120"/>
@@ -5634,7 +5646,7 @@
       <c r="AA6" s="120"/>
       <c r="AB6" s="120"/>
       <c r="AC6" s="120" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AD6" s="120"/>
       <c r="AE6" s="120"/>
@@ -5644,7 +5656,7 @@
     <row r="7" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B7" s="20"/>
       <c r="C7" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D7" s="115"/>
       <c r="E7" s="176" t="s">
@@ -5678,7 +5690,7 @@
       <c r="W7" s="120"/>
       <c r="X7" s="120"/>
       <c r="Y7" s="120" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Z7" s="120"/>
       <c r="AA7" s="120"/>
@@ -5692,7 +5704,7 @@
     <row r="8" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B8" s="20"/>
       <c r="C8" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D8" s="115"/>
       <c r="E8" s="176" t="s">
@@ -5702,7 +5714,7 @@
       <c r="G8" s="176"/>
       <c r="H8" s="176"/>
       <c r="I8" s="120" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J8" s="120"/>
       <c r="K8" s="120"/>
@@ -5726,7 +5738,7 @@
       <c r="W8" s="120"/>
       <c r="X8" s="120"/>
       <c r="Y8" s="120" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Z8" s="120"/>
       <c r="AA8" s="120"/>
@@ -5740,7 +5752,7 @@
     <row r="9" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B9" s="20"/>
       <c r="C9" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D9" s="115"/>
       <c r="E9" s="177" t="s">
@@ -5774,7 +5786,7 @@
       <c r="W9" s="120"/>
       <c r="X9" s="120"/>
       <c r="Y9" s="120" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Z9" s="120"/>
       <c r="AA9" s="120"/>
@@ -5788,7 +5800,7 @@
     <row r="10" spans="1:33" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B10" s="20"/>
       <c r="C10" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D10" s="115"/>
       <c r="E10" s="176" t="s">
@@ -5869,17 +5881,17 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C14" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -5889,13 +5901,13 @@
     </row>
     <row r="17" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -5914,13 +5926,13 @@
     <row r="19" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="109" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D19" s="110"/>
       <c r="E19" s="110"/>
       <c r="F19" s="111"/>
       <c r="G19" s="51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -5935,13 +5947,13 @@
     <row r="20" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="109" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D20" s="110"/>
       <c r="E20" s="110"/>
       <c r="F20" s="111"/>
       <c r="G20" s="51" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -5956,7 +5968,7 @@
     <row r="21" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B21" s="20"/>
       <c r="C21" s="109" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
@@ -5977,7 +5989,7 @@
     <row r="22" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B22" s="20"/>
       <c r="C22" s="109" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D22" s="110"/>
       <c r="E22" s="110"/>
@@ -5998,13 +6010,13 @@
     <row r="23" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="C23" s="109" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D23" s="110"/>
       <c r="E23" s="110"/>
       <c r="F23" s="111"/>
       <c r="G23" s="112" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
@@ -6019,13 +6031,13 @@
     <row r="24" spans="1:59" x14ac:dyDescent="0.35">
       <c r="B24" s="20"/>
       <c r="C24" s="109" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D24" s="110"/>
       <c r="E24" s="110"/>
       <c r="F24" s="111"/>
       <c r="G24" s="112" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
@@ -6068,7 +6080,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O26" s="113"/>
       <c r="P26" s="21"/>
@@ -6092,7 +6104,7 @@
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -6164,24 +6176,24 @@
     <row r="33" spans="2:59" x14ac:dyDescent="0.35">
       <c r="B33" s="20"/>
       <c r="C33" s="80" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D33" s="82"/>
       <c r="E33" s="28"/>
       <c r="F33" s="80" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="G33" s="81"/>
       <c r="H33" s="82"/>
       <c r="I33" s="28"/>
       <c r="J33" s="80" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K33" s="81"/>
       <c r="L33" s="82"/>
       <c r="M33" s="28"/>
       <c r="N33" s="80" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="O33" s="81"/>
       <c r="P33" s="82"/>
@@ -6308,7 +6320,7 @@
       <c r="K35" s="148"/>
       <c r="L35" s="148"/>
       <c r="M35" s="148" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="N35" s="126"/>
       <c r="O35" s="126"/>
@@ -6326,7 +6338,7 @@
       <c r="W35" s="148"/>
       <c r="X35" s="148"/>
       <c r="Y35" s="132" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Z35" s="133"/>
       <c r="AA35" s="133"/>
@@ -6337,7 +6349,7 @@
       <c r="AF35" s="133"/>
       <c r="AG35" s="134"/>
       <c r="AH35" s="148" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AI35" s="148"/>
       <c r="AJ35" s="148"/>
@@ -6348,7 +6360,7 @@
       <c r="AO35" s="148"/>
       <c r="AP35" s="148"/>
       <c r="AQ35" s="132" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="AR35" s="133"/>
       <c r="AS35" s="133"/>
@@ -6392,32 +6404,32 @@
       <c r="W36" s="148"/>
       <c r="X36" s="148"/>
       <c r="Y36" s="132" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Z36" s="133"/>
       <c r="AA36" s="134"/>
       <c r="AB36" s="132" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AC36" s="133"/>
       <c r="AD36" s="134"/>
       <c r="AE36" s="132" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AF36" s="133"/>
       <c r="AG36" s="134"/>
       <c r="AH36" s="132" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AI36" s="133"/>
       <c r="AJ36" s="134"/>
       <c r="AK36" s="132" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AL36" s="133"/>
       <c r="AM36" s="134"/>
       <c r="AN36" s="132" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AO36" s="133"/>
       <c r="AP36" s="134"/>
@@ -6450,11 +6462,11 @@
     <row r="37" spans="2:59" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20"/>
       <c r="C37" s="116" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D37" s="117"/>
       <c r="E37" s="182" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F37" s="183"/>
       <c r="G37" s="183"/>
@@ -6466,7 +6478,7 @@
       <c r="K37" s="170"/>
       <c r="L37" s="171"/>
       <c r="M37" s="147" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N37" s="147"/>
       <c r="O37" s="147"/>
@@ -6478,13 +6490,13 @@
       <c r="S37" s="189"/>
       <c r="T37" s="190"/>
       <c r="U37" s="169" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="V37" s="170"/>
       <c r="W37" s="170"/>
       <c r="X37" s="171"/>
       <c r="Y37" s="51" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="Z37" s="110"/>
       <c r="AA37" s="111"/>
@@ -6494,12 +6506,12 @@
       <c r="AC37" s="124"/>
       <c r="AD37" s="125"/>
       <c r="AE37" s="54" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="AF37" s="124"/>
       <c r="AG37" s="125"/>
       <c r="AH37" s="51" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AI37" s="110"/>
       <c r="AJ37" s="111"/>
@@ -6509,7 +6521,7 @@
       <c r="AL37" s="124"/>
       <c r="AM37" s="125"/>
       <c r="AN37" s="54" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AO37" s="124"/>
       <c r="AP37" s="125"/>
@@ -6564,7 +6576,7 @@
       <c r="W38" s="173"/>
       <c r="X38" s="174"/>
       <c r="Y38" s="51" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Z38" s="110"/>
       <c r="AA38" s="111"/>
@@ -6574,12 +6586,12 @@
       <c r="AC38" s="124"/>
       <c r="AD38" s="125"/>
       <c r="AE38" s="54" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AF38" s="124"/>
       <c r="AG38" s="125"/>
       <c r="AH38" s="51" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AI38" s="110"/>
       <c r="AJ38" s="111"/>
@@ -6589,7 +6601,7 @@
       <c r="AL38" s="124"/>
       <c r="AM38" s="125"/>
       <c r="AN38" s="54" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AO38" s="124"/>
       <c r="AP38" s="125"/>
@@ -6614,7 +6626,7 @@
     <row r="39" spans="2:59" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B39" s="20"/>
       <c r="C39" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D39" s="115"/>
       <c r="E39" s="179" t="s">
@@ -6630,7 +6642,7 @@
       <c r="K39" s="120"/>
       <c r="L39" s="120"/>
       <c r="M39" s="120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N39" s="120"/>
       <c r="O39" s="120"/>
@@ -6648,32 +6660,32 @@
       <c r="W39" s="120"/>
       <c r="X39" s="120"/>
       <c r="Y39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Z39" s="133"/>
       <c r="AA39" s="134"/>
       <c r="AB39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC39" s="133"/>
       <c r="AD39" s="134"/>
       <c r="AE39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF39" s="133"/>
       <c r="AG39" s="134"/>
       <c r="AH39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI39" s="133"/>
       <c r="AJ39" s="134"/>
       <c r="AK39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL39" s="133"/>
       <c r="AM39" s="134"/>
       <c r="AN39" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AO39" s="133"/>
       <c r="AP39" s="134"/>
@@ -6696,7 +6708,7 @@
       <c r="BA39" s="120"/>
       <c r="BB39" s="120"/>
       <c r="BC39" s="158" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="BD39" s="159"/>
       <c r="BE39" s="159"/>
@@ -6706,7 +6718,7 @@
     <row r="40" spans="2:59" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B40" s="20"/>
       <c r="C40" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D40" s="115"/>
       <c r="E40" s="179" t="s">
@@ -6722,7 +6734,7 @@
       <c r="K40" s="120"/>
       <c r="L40" s="120"/>
       <c r="M40" s="120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N40" s="120"/>
       <c r="O40" s="120"/>
@@ -6740,32 +6752,32 @@
       <c r="W40" s="120"/>
       <c r="X40" s="120"/>
       <c r="Y40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Z40" s="133"/>
       <c r="AA40" s="134"/>
       <c r="AB40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC40" s="133"/>
       <c r="AD40" s="134"/>
       <c r="AE40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF40" s="133"/>
       <c r="AG40" s="134"/>
       <c r="AH40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI40" s="133"/>
       <c r="AJ40" s="134"/>
       <c r="AK40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL40" s="133"/>
       <c r="AM40" s="134"/>
       <c r="AN40" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AO40" s="133"/>
       <c r="AP40" s="134"/>
@@ -6798,7 +6810,7 @@
     <row r="41" spans="2:59" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B41" s="20"/>
       <c r="C41" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D41" s="115"/>
       <c r="E41" s="179" t="s">
@@ -6814,7 +6826,7 @@
       <c r="K41" s="120"/>
       <c r="L41" s="120"/>
       <c r="M41" s="120" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N41" s="120"/>
       <c r="O41" s="120"/>
@@ -6832,32 +6844,32 @@
       <c r="W41" s="120"/>
       <c r="X41" s="120"/>
       <c r="Y41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Z41" s="133"/>
       <c r="AA41" s="134"/>
       <c r="AB41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC41" s="133"/>
       <c r="AD41" s="134"/>
       <c r="AE41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF41" s="133"/>
       <c r="AG41" s="134"/>
       <c r="AH41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI41" s="133"/>
       <c r="AJ41" s="134"/>
       <c r="AK41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL41" s="133"/>
       <c r="AM41" s="134"/>
       <c r="AN41" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AO41" s="133"/>
       <c r="AP41" s="134"/>
@@ -6890,7 +6902,7 @@
     <row r="42" spans="2:59" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B42" s="20"/>
       <c r="C42" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D42" s="115"/>
       <c r="E42" s="179" t="s">
@@ -6906,7 +6918,7 @@
       <c r="K42" s="120"/>
       <c r="L42" s="120"/>
       <c r="M42" s="120" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="N42" s="120"/>
       <c r="O42" s="120"/>
@@ -6924,32 +6936,32 @@
       <c r="W42" s="120"/>
       <c r="X42" s="120"/>
       <c r="Y42" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Z42" s="133"/>
       <c r="AA42" s="134"/>
       <c r="AB42" s="132" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AC42" s="133"/>
       <c r="AD42" s="134"/>
       <c r="AE42" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AF42" s="133"/>
       <c r="AG42" s="134"/>
       <c r="AH42" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AI42" s="133"/>
       <c r="AJ42" s="134"/>
       <c r="AK42" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AL42" s="133"/>
       <c r="AM42" s="134"/>
       <c r="AN42" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AO42" s="133"/>
       <c r="AP42" s="134"/>
@@ -7041,33 +7053,33 @@
     </row>
     <row r="45" spans="2:59" x14ac:dyDescent="0.35">
       <c r="C45" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="2:59" x14ac:dyDescent="0.35">
       <c r="C46" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="2:59" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="48" spans="2:59" x14ac:dyDescent="0.35">
       <c r="C48" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B51" s="16"/>
       <c r="C51" s="17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -7086,13 +7098,13 @@
     <row r="52" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B52" s="20"/>
       <c r="C52" s="109" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D52" s="110"/>
       <c r="E52" s="110"/>
       <c r="F52" s="111"/>
       <c r="G52" s="51" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H52" s="52"/>
       <c r="I52" s="52"/>
@@ -7102,23 +7114,23 @@
       <c r="M52" s="52"/>
       <c r="N52" s="53"/>
       <c r="O52" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P52" s="21"/>
       <c r="R52" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B53" s="20"/>
       <c r="C53" s="109" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D53" s="110"/>
       <c r="E53" s="110"/>
       <c r="F53" s="111"/>
       <c r="G53" s="51" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H53" s="52"/>
       <c r="I53" s="52"/>
@@ -7128,23 +7140,23 @@
       <c r="M53" s="52"/>
       <c r="N53" s="53"/>
       <c r="O53" s="14" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P53" s="21"/>
       <c r="R53" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B54" s="20"/>
       <c r="C54" s="109" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D54" s="110"/>
       <c r="E54" s="110"/>
       <c r="F54" s="111"/>
       <c r="G54" s="137" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="H54" s="52"/>
       <c r="I54" s="52"/>
@@ -7156,19 +7168,19 @@
       <c r="O54" s="53"/>
       <c r="P54" s="21"/>
       <c r="R54" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B55" s="20"/>
       <c r="C55" s="109" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D55" s="110"/>
       <c r="E55" s="110"/>
       <c r="F55" s="111"/>
       <c r="G55" s="112" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H55" s="52"/>
       <c r="I55" s="52"/>
@@ -7180,7 +7192,7 @@
       <c r="O55" s="53"/>
       <c r="P55" s="21"/>
       <c r="R55" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.35">
@@ -7214,7 +7226,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O57" s="113"/>
       <c r="P57" s="21"/>
@@ -7238,12 +7250,12 @@
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:36" x14ac:dyDescent="0.35">
@@ -7253,33 +7265,33 @@
     </row>
     <row r="63" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C63" s="99" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D63" s="100"/>
       <c r="E63" s="101"/>
       <c r="F63" s="99" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G63" s="100"/>
       <c r="H63" s="100"/>
       <c r="I63" s="101"/>
       <c r="J63" s="99" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="K63" s="100"/>
       <c r="L63" s="101"/>
       <c r="M63" s="99" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N63" s="100"/>
       <c r="O63" s="101"/>
       <c r="P63" s="99" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q63" s="100"/>
       <c r="R63" s="101"/>
       <c r="S63" s="127" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="T63" s="127"/>
       <c r="U63" s="127"/>
@@ -7293,7 +7305,7 @@
       <c r="AC63" s="127"/>
       <c r="AD63" s="127"/>
       <c r="AE63" s="126" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AF63" s="126"/>
       <c r="AG63" s="126"/>
@@ -7319,44 +7331,44 @@
       <c r="Q64" s="103"/>
       <c r="R64" s="104"/>
       <c r="S64" s="127" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="T64" s="127"/>
       <c r="U64" s="127"/>
       <c r="V64" s="127" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="W64" s="127"/>
       <c r="X64" s="127"/>
       <c r="Y64" s="127" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Z64" s="129"/>
       <c r="AA64" s="129"/>
       <c r="AB64" s="127" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AC64" s="129"/>
       <c r="AD64" s="129"/>
       <c r="AE64" s="126" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="AF64" s="126"/>
       <c r="AG64" s="126"/>
       <c r="AH64" s="127" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AI64" s="127"/>
       <c r="AJ64" s="127"/>
     </row>
     <row r="65" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C65" s="67" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D65" s="68"/>
       <c r="E65" s="69"/>
       <c r="F65" s="79" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G65" s="79"/>
       <c r="H65" s="79"/>
@@ -7367,7 +7379,7 @@
       <c r="K65" s="120"/>
       <c r="L65" s="120"/>
       <c r="M65" s="120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N65" s="142"/>
       <c r="O65" s="142"/>
@@ -7382,7 +7394,7 @@
       <c r="T65" s="120"/>
       <c r="U65" s="120"/>
       <c r="V65" s="120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="W65" s="142"/>
       <c r="X65" s="142"/>
@@ -7392,7 +7404,7 @@
       <c r="Z65" s="136"/>
       <c r="AA65" s="136"/>
       <c r="AB65" s="130" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AC65" s="131"/>
       <c r="AD65" s="131"/>
@@ -7412,7 +7424,7 @@
       <c r="D66" s="74"/>
       <c r="E66" s="75"/>
       <c r="F66" s="79" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G66" s="79"/>
       <c r="H66" s="79"/>
@@ -7423,7 +7435,7 @@
       <c r="K66" s="120"/>
       <c r="L66" s="120"/>
       <c r="M66" s="120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="N66" s="142"/>
       <c r="O66" s="142"/>
@@ -7438,7 +7450,7 @@
       <c r="T66" s="120"/>
       <c r="U66" s="120"/>
       <c r="V66" s="120" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="W66" s="142"/>
       <c r="X66" s="142"/>
@@ -7448,7 +7460,7 @@
       <c r="Z66" s="136"/>
       <c r="AA66" s="136"/>
       <c r="AB66" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC66" s="133"/>
       <c r="AD66" s="134"/>
@@ -7463,12 +7475,12 @@
     </row>
     <row r="67" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C67" s="67" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D67" s="68"/>
       <c r="E67" s="69"/>
       <c r="F67" s="79" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G67" s="79"/>
       <c r="H67" s="79"/>
@@ -7479,7 +7491,7 @@
       <c r="K67" s="142"/>
       <c r="L67" s="142"/>
       <c r="M67" s="120" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="N67" s="142"/>
       <c r="O67" s="142"/>
@@ -7494,7 +7506,7 @@
       <c r="T67" s="120"/>
       <c r="U67" s="120"/>
       <c r="V67" s="120" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="W67" s="142"/>
       <c r="X67" s="142"/>
@@ -7504,7 +7516,7 @@
       <c r="Z67" s="136"/>
       <c r="AA67" s="136"/>
       <c r="AB67" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC67" s="133"/>
       <c r="AD67" s="134"/>
@@ -7524,7 +7536,7 @@
       <c r="D68" s="74"/>
       <c r="E68" s="75"/>
       <c r="F68" s="79" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G68" s="79"/>
       <c r="H68" s="79"/>
@@ -7535,7 +7547,7 @@
       <c r="K68" s="120"/>
       <c r="L68" s="120"/>
       <c r="M68" s="120" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="N68" s="142"/>
       <c r="O68" s="142"/>
@@ -7550,7 +7562,7 @@
       <c r="T68" s="120"/>
       <c r="U68" s="120"/>
       <c r="V68" s="120" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="W68" s="142"/>
       <c r="X68" s="142"/>
@@ -7560,7 +7572,7 @@
       <c r="Z68" s="136"/>
       <c r="AA68" s="136"/>
       <c r="AB68" s="132" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="AC68" s="133"/>
       <c r="AD68" s="134"/>
@@ -7575,7 +7587,7 @@
     </row>
     <row r="69" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C69" s="135" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D69" s="135"/>
       <c r="E69" s="135"/>
@@ -7643,7 +7655,7 @@
     </row>
     <row r="71" spans="1:36" x14ac:dyDescent="0.35">
       <c r="C71" s="15" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -7658,13 +7670,13 @@
     </row>
     <row r="74" spans="1:36" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -7683,13 +7695,13 @@
     <row r="76" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B76" s="20"/>
       <c r="C76" s="123" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D76" s="124"/>
       <c r="E76" s="124"/>
       <c r="F76" s="125"/>
       <c r="G76" s="51" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -7710,7 +7722,7 @@
       <c r="E77" s="124"/>
       <c r="F77" s="125"/>
       <c r="G77" s="51" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -7731,7 +7743,7 @@
       <c r="E78" s="124"/>
       <c r="F78" s="125"/>
       <c r="G78" s="51" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -7774,7 +7786,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O80" s="113"/>
       <c r="P80" s="21"/>
@@ -8055,8 +8067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH162"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42:R42"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27:N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -8070,7 +8082,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -8104,17 +8116,17 @@
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="199" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E3" s="200"/>
       <c r="F3" s="201"/>
       <c r="G3" s="202" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H3" s="203"/>
       <c r="I3" s="204"/>
       <c r="J3" s="205" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K3" s="203"/>
       <c r="L3" s="203"/>
@@ -8137,22 +8149,22 @@
       <c r="B4" s="20"/>
       <c r="C4" s="22"/>
       <c r="D4" s="206" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E4" s="206"/>
       <c r="F4" s="206"/>
       <c r="G4" s="206" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H4" s="206"/>
       <c r="I4" s="206"/>
       <c r="J4" s="206" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K4" s="206"/>
       <c r="L4" s="206"/>
       <c r="M4" s="206" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N4" s="120"/>
       <c r="O4" s="120"/>
@@ -8501,7 +8513,7 @@
     </row>
     <row r="18" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.35">
@@ -8541,14 +8553,14 @@
       <c r="A20" s="2"/>
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="80"/>
       <c r="F20" s="82"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -8558,7 +8570,7 @@
       <c r="N20" s="82"/>
       <c r="O20" s="28"/>
       <c r="P20" s="80" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q20" s="82"/>
       <c r="R20" s="28"/>
@@ -8624,7 +8636,7 @@
       <c r="I22" s="148"/>
       <c r="J22" s="148"/>
       <c r="K22" s="148" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="L22" s="148"/>
       <c r="M22" s="148"/>
@@ -8636,19 +8648,19 @@
       <c r="Q22" s="148"/>
       <c r="R22" s="148"/>
       <c r="S22" s="99" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="T22" s="100"/>
       <c r="U22" s="100"/>
       <c r="V22" s="101"/>
       <c r="W22" s="99" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="X22" s="100"/>
       <c r="Y22" s="100"/>
       <c r="Z22" s="101"/>
       <c r="AA22" s="198" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AB22" s="198"/>
       <c r="AC22" s="22"/>
@@ -8714,19 +8726,19 @@
       <c r="Q24" s="120"/>
       <c r="R24" s="120"/>
       <c r="S24" s="146" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="T24" s="120"/>
       <c r="U24" s="120"/>
       <c r="V24" s="120"/>
       <c r="W24" s="146" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="X24" s="120"/>
       <c r="Y24" s="120"/>
       <c r="Z24" s="120"/>
       <c r="AA24" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AB24" s="47"/>
       <c r="AC24" s="22"/>
@@ -8760,19 +8772,19 @@
       <c r="Q25" s="120"/>
       <c r="R25" s="120"/>
       <c r="S25" s="146" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="T25" s="120"/>
       <c r="U25" s="120"/>
       <c r="V25" s="120"/>
       <c r="W25" s="146" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="X25" s="120"/>
       <c r="Y25" s="120"/>
       <c r="Z25" s="120"/>
       <c r="AA25" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AB25" s="47"/>
       <c r="AC25" s="22"/>
@@ -8806,19 +8818,19 @@
       <c r="Q26" s="120"/>
       <c r="R26" s="120"/>
       <c r="S26" s="146" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="T26" s="120"/>
       <c r="U26" s="120"/>
       <c r="V26" s="120"/>
       <c r="W26" s="146" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="X26" s="120"/>
       <c r="Y26" s="120"/>
       <c r="Z26" s="120"/>
       <c r="AA26" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AB26" s="47"/>
       <c r="AC26" s="22"/>
@@ -8852,19 +8864,19 @@
       <c r="Q27" s="120"/>
       <c r="R27" s="120"/>
       <c r="S27" s="146" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="T27" s="120"/>
       <c r="U27" s="120"/>
       <c r="V27" s="120"/>
       <c r="W27" s="146" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="X27" s="120"/>
       <c r="Y27" s="120"/>
       <c r="Z27" s="120"/>
       <c r="AA27" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AB27" s="47"/>
       <c r="AC27" s="22"/>
@@ -8933,7 +8945,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B30" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -8963,7 +8975,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B31" s="22" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -9021,7 +9033,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9062,7 +9074,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="20"/>
       <c r="C36" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="26"/>
@@ -9071,7 +9083,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="80" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K36" s="82"/>
       <c r="L36" s="28"/>
@@ -9131,25 +9143,25 @@
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
       <c r="C38" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D38" s="148"/>
       <c r="E38" s="148"/>
       <c r="F38" s="148"/>
       <c r="G38" s="148" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H38" s="148"/>
       <c r="I38" s="148"/>
       <c r="J38" s="148"/>
       <c r="K38" s="99" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L38" s="100"/>
       <c r="M38" s="100"/>
       <c r="N38" s="101"/>
       <c r="O38" s="99" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P38" s="100"/>
       <c r="Q38" s="100"/>
@@ -9161,14 +9173,14 @@
       <c r="U38" s="100"/>
       <c r="V38" s="101"/>
       <c r="W38" s="148" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="X38" s="148"/>
       <c r="Y38" s="148"/>
       <c r="Z38" s="148"/>
       <c r="AA38" s="148"/>
       <c r="AB38" s="198" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AC38" s="198"/>
       <c r="AE38" s="21"/>
@@ -9213,13 +9225,13 @@
       <c r="E40" s="142"/>
       <c r="F40" s="142"/>
       <c r="G40" s="120" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="H40" s="120"/>
       <c r="I40" s="120"/>
       <c r="J40" s="120"/>
       <c r="K40" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L40" s="120"/>
       <c r="M40" s="120"/>
@@ -9237,14 +9249,14 @@
       <c r="U40" s="120"/>
       <c r="V40" s="120"/>
       <c r="W40" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X40" s="207"/>
       <c r="Y40" s="207"/>
       <c r="Z40" s="207"/>
       <c r="AA40" s="207"/>
       <c r="AB40" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC40" s="47"/>
       <c r="AE40" s="21"/>
@@ -9258,13 +9270,13 @@
       <c r="E41" s="142"/>
       <c r="F41" s="142"/>
       <c r="G41" s="120" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H41" s="120"/>
       <c r="I41" s="120"/>
       <c r="J41" s="120"/>
       <c r="K41" s="146" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L41" s="120"/>
       <c r="M41" s="120"/>
@@ -9282,14 +9294,14 @@
       <c r="U41" s="120"/>
       <c r="V41" s="120"/>
       <c r="W41" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X41" s="207"/>
       <c r="Y41" s="207"/>
       <c r="Z41" s="207"/>
       <c r="AA41" s="207"/>
       <c r="AB41" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC41" s="47"/>
       <c r="AE41" s="21"/>
@@ -9303,13 +9315,13 @@
       <c r="E42" s="142"/>
       <c r="F42" s="142"/>
       <c r="G42" s="120" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
       <c r="J42" s="120"/>
       <c r="K42" s="146" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L42" s="120"/>
       <c r="M42" s="120"/>
@@ -9327,14 +9339,14 @@
       <c r="U42" s="120"/>
       <c r="V42" s="120"/>
       <c r="W42" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X42" s="207"/>
       <c r="Y42" s="207"/>
       <c r="Z42" s="207"/>
       <c r="AA42" s="207"/>
       <c r="AB42" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC42" s="47"/>
       <c r="AE42" s="21"/>
@@ -9348,13 +9360,13 @@
       <c r="E43" s="142"/>
       <c r="F43" s="142"/>
       <c r="G43" s="120" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
       <c r="J43" s="120"/>
       <c r="K43" s="146" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L43" s="120"/>
       <c r="M43" s="120"/>
@@ -9372,14 +9384,14 @@
       <c r="U43" s="120"/>
       <c r="V43" s="120"/>
       <c r="W43" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X43" s="207"/>
       <c r="Y43" s="207"/>
       <c r="Z43" s="207"/>
       <c r="AA43" s="207"/>
       <c r="AB43" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC43" s="47"/>
       <c r="AE43" s="21"/>
@@ -9450,7 +9462,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B46" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -9512,7 +9524,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -9553,7 +9565,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="20"/>
       <c r="C51" s="28" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="26"/>
@@ -9562,7 +9574,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="80" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="K51" s="82"/>
       <c r="L51" s="28"/>
@@ -9622,25 +9634,25 @@
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B53" s="20"/>
       <c r="C53" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D53" s="148"/>
       <c r="E53" s="148"/>
       <c r="F53" s="148"/>
       <c r="G53" s="148" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H53" s="148"/>
       <c r="I53" s="148"/>
       <c r="J53" s="148"/>
       <c r="K53" s="99" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L53" s="100"/>
       <c r="M53" s="100"/>
       <c r="N53" s="101"/>
       <c r="O53" s="99" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P53" s="100"/>
       <c r="Q53" s="100"/>
@@ -9652,14 +9664,14 @@
       <c r="U53" s="100"/>
       <c r="V53" s="101"/>
       <c r="W53" s="148" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="X53" s="148"/>
       <c r="Y53" s="148"/>
       <c r="Z53" s="148"/>
       <c r="AA53" s="148"/>
       <c r="AB53" s="198" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="AC53" s="198"/>
       <c r="AE53" s="21"/>
@@ -9704,13 +9716,13 @@
       <c r="E55" s="142"/>
       <c r="F55" s="142"/>
       <c r="G55" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H55" s="120"/>
       <c r="I55" s="120"/>
       <c r="J55" s="120"/>
       <c r="K55" s="146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L55" s="120"/>
       <c r="M55" s="120"/>
@@ -9728,14 +9740,14 @@
       <c r="U55" s="120"/>
       <c r="V55" s="120"/>
       <c r="W55" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X55" s="207"/>
       <c r="Y55" s="207"/>
       <c r="Z55" s="207"/>
       <c r="AA55" s="207"/>
       <c r="AB55" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC55" s="47"/>
       <c r="AE55" s="21"/>
@@ -9749,13 +9761,13 @@
       <c r="E56" s="142"/>
       <c r="F56" s="142"/>
       <c r="G56" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H56" s="120"/>
       <c r="I56" s="120"/>
       <c r="J56" s="120"/>
       <c r="K56" s="146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L56" s="120"/>
       <c r="M56" s="120"/>
@@ -9773,14 +9785,14 @@
       <c r="U56" s="120"/>
       <c r="V56" s="120"/>
       <c r="W56" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X56" s="207"/>
       <c r="Y56" s="207"/>
       <c r="Z56" s="207"/>
       <c r="AA56" s="207"/>
       <c r="AB56" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC56" s="47"/>
       <c r="AE56" s="21"/>
@@ -9794,13 +9806,13 @@
       <c r="E57" s="142"/>
       <c r="F57" s="142"/>
       <c r="G57" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H57" s="120"/>
       <c r="I57" s="120"/>
       <c r="J57" s="120"/>
       <c r="K57" s="146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L57" s="120"/>
       <c r="M57" s="120"/>
@@ -9818,14 +9830,14 @@
       <c r="U57" s="120"/>
       <c r="V57" s="120"/>
       <c r="W57" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X57" s="207"/>
       <c r="Y57" s="207"/>
       <c r="Z57" s="207"/>
       <c r="AA57" s="207"/>
       <c r="AB57" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC57" s="47"/>
       <c r="AE57" s="21"/>
@@ -9839,13 +9851,13 @@
       <c r="E58" s="142"/>
       <c r="F58" s="142"/>
       <c r="G58" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H58" s="120"/>
       <c r="I58" s="120"/>
       <c r="J58" s="120"/>
       <c r="K58" s="146" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L58" s="120"/>
       <c r="M58" s="120"/>
@@ -9863,14 +9875,14 @@
       <c r="U58" s="120"/>
       <c r="V58" s="120"/>
       <c r="W58" s="207" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="X58" s="207"/>
       <c r="Y58" s="207"/>
       <c r="Z58" s="207"/>
       <c r="AA58" s="207"/>
       <c r="AB58" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="AC58" s="47"/>
       <c r="AE58" s="21"/>
@@ -9909,7 +9921,7 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B60" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -9971,7 +9983,7 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.4"/>
@@ -10012,7 +10024,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="20"/>
       <c r="C65" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -10046,19 +10058,19 @@
     <row r="66" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="20"/>
       <c r="C66" s="99" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D66" s="100"/>
       <c r="E66" s="100"/>
       <c r="F66" s="101"/>
       <c r="G66" s="148" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H66" s="148"/>
       <c r="I66" s="148"/>
       <c r="J66" s="148"/>
       <c r="K66" s="99" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="L66" s="100"/>
       <c r="M66" s="100"/>
@@ -10070,7 +10082,7 @@
       <c r="Q66" s="100"/>
       <c r="R66" s="101"/>
       <c r="S66" s="99" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="T66" s="100"/>
       <c r="U66" s="100"/>
@@ -10104,7 +10116,7 @@
     <row r="68" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B68" s="20"/>
       <c r="C68" s="146" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D68" s="120"/>
       <c r="E68" s="120"/>
@@ -10128,7 +10140,7 @@
       <c r="Q68" s="120"/>
       <c r="R68" s="120"/>
       <c r="S68" s="146" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="T68" s="120"/>
       <c r="U68" s="120"/>
@@ -10138,7 +10150,7 @@
     <row r="69" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B69" s="20"/>
       <c r="C69" s="146" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D69" s="120"/>
       <c r="E69" s="120"/>
@@ -10162,7 +10174,7 @@
       <c r="Q69" s="120"/>
       <c r="R69" s="120"/>
       <c r="S69" s="146" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="T69" s="120"/>
       <c r="U69" s="120"/>
@@ -10172,7 +10184,7 @@
     <row r="70" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B70" s="20"/>
       <c r="C70" s="146" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
@@ -10196,7 +10208,7 @@
       <c r="Q70" s="120"/>
       <c r="R70" s="120"/>
       <c r="S70" s="146" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="T70" s="120"/>
       <c r="U70" s="120"/>
@@ -10206,7 +10218,7 @@
     <row r="71" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B71" s="20"/>
       <c r="C71" s="146" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
@@ -10230,7 +10242,7 @@
       <c r="Q71" s="120"/>
       <c r="R71" s="120"/>
       <c r="S71" s="146" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="T71" s="120"/>
       <c r="U71" s="120"/>
@@ -10303,13 +10315,13 @@
     </row>
     <row r="74" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -10328,13 +10340,13 @@
     <row r="76" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B76" s="20"/>
       <c r="C76" s="109" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D76" s="110"/>
       <c r="E76" s="110"/>
       <c r="F76" s="111"/>
       <c r="G76" s="51" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="H76" s="52"/>
       <c r="I76" s="52"/>
@@ -10349,13 +10361,13 @@
     <row r="77" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B77" s="20"/>
       <c r="C77" s="109" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D77" s="110"/>
       <c r="E77" s="110"/>
       <c r="F77" s="111"/>
       <c r="G77" s="51" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="H77" s="52"/>
       <c r="I77" s="52"/>
@@ -10370,13 +10382,13 @@
     <row r="78" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B78" s="20"/>
       <c r="C78" s="109" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D78" s="110"/>
       <c r="E78" s="110"/>
       <c r="F78" s="111"/>
       <c r="G78" s="112" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H78" s="52"/>
       <c r="I78" s="52"/>
@@ -10391,13 +10403,13 @@
     <row r="79" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B79" s="20"/>
       <c r="C79" s="109" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D79" s="110"/>
       <c r="E79" s="110"/>
       <c r="F79" s="111"/>
       <c r="G79" s="112" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H79" s="52"/>
       <c r="I79" s="52"/>
@@ -10440,7 +10452,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="O81" s="113"/>
       <c r="P81" s="21"/>
@@ -10481,7 +10493,7 @@
     </row>
     <row r="84" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -10515,17 +10527,17 @@
       <c r="B86" s="20"/>
       <c r="C86" s="22"/>
       <c r="D86" s="199" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E86" s="200"/>
       <c r="F86" s="201"/>
       <c r="G86" s="202" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H86" s="203"/>
       <c r="I86" s="204"/>
       <c r="J86" s="205" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="K86" s="203"/>
       <c r="L86" s="203"/>
@@ -10548,22 +10560,22 @@
       <c r="B87" s="20"/>
       <c r="C87" s="22"/>
       <c r="D87" s="206" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E87" s="206"/>
       <c r="F87" s="206"/>
       <c r="G87" s="206" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H87" s="206"/>
       <c r="I87" s="206"/>
       <c r="J87" s="206" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K87" s="206"/>
       <c r="L87" s="206"/>
       <c r="M87" s="206" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="N87" s="120"/>
       <c r="O87" s="120"/>
@@ -10917,7 +10929,7 @@
     </row>
     <row r="101" spans="1:31" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.35">
@@ -10937,7 +10949,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="20"/>
       <c r="C103" s="209" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D103" s="209"/>
       <c r="E103" s="209"/>
@@ -10964,66 +10976,66 @@
     <row r="105" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B105" s="20"/>
       <c r="C105" s="120" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="51" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G105" s="52"/>
       <c r="H105" s="52"/>
       <c r="I105" s="52"/>
       <c r="J105" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B106" s="20"/>
       <c r="C106" s="120" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D106" s="120"/>
       <c r="E106" s="120"/>
       <c r="F106" s="51" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G106" s="52"/>
       <c r="H106" s="52"/>
       <c r="I106" s="52"/>
       <c r="J106" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B107" s="20"/>
       <c r="C107" s="120" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D107" s="120"/>
       <c r="E107" s="120"/>
       <c r="F107" s="51" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G107" s="52"/>
       <c r="H107" s="52"/>
       <c r="I107" s="52"/>
       <c r="J107" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B108" s="20"/>
       <c r="C108" s="120" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D108" s="120"/>
       <c r="E108" s="120"/>
       <c r="F108" s="51" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G108" s="52"/>
       <c r="H108" s="52"/>
@@ -11039,11 +11051,11 @@
       <c r="D109" s="120"/>
       <c r="E109" s="120"/>
       <c r="F109" s="51" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G109" s="52"/>
       <c r="H109" s="52" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I109" s="52"/>
       <c r="J109" s="53"/>
@@ -11052,12 +11064,12 @@
     <row r="110" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B110" s="20"/>
       <c r="C110" s="120" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D110" s="120"/>
       <c r="E110" s="120"/>
       <c r="F110" s="51" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G110" s="52"/>
       <c r="H110" s="52"/>
@@ -11086,7 +11098,7 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J112" s="113"/>
       <c r="K112" s="21"/>
@@ -11105,7 +11117,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B115" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -11113,7 +11125,7 @@
     </row>
     <row r="118" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -11133,7 +11145,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="20"/>
       <c r="C120" s="209" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D120" s="209"/>
       <c r="E120" s="209"/>
@@ -11160,30 +11172,30 @@
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B122" s="20"/>
       <c r="C122" s="120" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="51" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G122" s="52"/>
       <c r="H122" s="52"/>
       <c r="I122" s="52"/>
       <c r="J122" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K122" s="21"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B123" s="20"/>
       <c r="C123" s="120" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="51" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G123" s="52"/>
       <c r="H123" s="52"/>
@@ -11199,11 +11211,11 @@
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="51" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G124" s="52"/>
       <c r="H124" s="52" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I124" s="52"/>
       <c r="J124" s="53"/>
@@ -11212,12 +11224,12 @@
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B125" s="20"/>
       <c r="C125" s="120" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D125" s="120"/>
       <c r="E125" s="120"/>
       <c r="F125" s="51" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G125" s="52"/>
       <c r="H125" s="52"/>
@@ -11246,7 +11258,7 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J127" s="113"/>
       <c r="K127" s="21"/>
@@ -11265,12 +11277,12 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
@@ -11290,7 +11302,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="20"/>
       <c r="C134" s="209" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D134" s="209"/>
       <c r="E134" s="209"/>
@@ -11317,18 +11329,18 @@
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B136" s="20"/>
       <c r="C136" s="120" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D136" s="120"/>
       <c r="E136" s="120"/>
       <c r="F136" s="51" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G136" s="52"/>
       <c r="H136" s="52"/>
       <c r="I136" s="52"/>
       <c r="J136" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K136" s="21"/>
     </row>
@@ -11340,11 +11352,11 @@
       <c r="D137" s="120"/>
       <c r="E137" s="120"/>
       <c r="F137" s="51" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G137" s="52"/>
       <c r="H137" s="52" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="I137" s="52"/>
       <c r="J137" s="53"/>
@@ -11353,12 +11365,12 @@
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B138" s="20"/>
       <c r="C138" s="120" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D138" s="120"/>
       <c r="E138" s="120"/>
       <c r="F138" s="51" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G138" s="52"/>
       <c r="H138" s="52"/>
@@ -11387,7 +11399,7 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="113" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="J140" s="113"/>
       <c r="K140" s="21"/>
@@ -11406,12 +11418,12 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B143" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:21" x14ac:dyDescent="0.35">
@@ -11439,28 +11451,28 @@
     <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B148" s="20"/>
       <c r="C148" s="22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="51" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G148" s="52"/>
       <c r="H148" s="52"/>
       <c r="I148" s="52"/>
       <c r="J148" s="14" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="113" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="N148" s="113"/>
       <c r="O148" s="22"/>
       <c r="P148" s="113" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q148" s="113"/>
       <c r="R148" s="22"/>
@@ -11493,7 +11505,7 @@
     <row r="150" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="20"/>
       <c r="C150" s="22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
@@ -11517,7 +11529,7 @@
     <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B151" s="20"/>
       <c r="C151" s="116" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D151" s="117"/>
       <c r="E151" s="148" t="s">
@@ -11527,13 +11539,13 @@
       <c r="G151" s="148"/>
       <c r="H151" s="148"/>
       <c r="I151" s="148" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J151" s="148"/>
       <c r="K151" s="148"/>
       <c r="L151" s="148"/>
       <c r="M151" s="148" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="N151" s="148"/>
       <c r="O151" s="148"/>
@@ -11571,7 +11583,7 @@
     <row r="153" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B153" s="20"/>
       <c r="C153" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D153" s="115"/>
       <c r="E153" s="120" t="s">
@@ -11581,7 +11593,7 @@
       <c r="G153" s="120"/>
       <c r="H153" s="120"/>
       <c r="I153" s="120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J153" s="120"/>
       <c r="K153" s="120"/>
@@ -11603,7 +11615,7 @@
     <row r="154" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B154" s="20"/>
       <c r="C154" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D154" s="115"/>
       <c r="E154" s="120" t="s">
@@ -11613,7 +11625,7 @@
       <c r="G154" s="120"/>
       <c r="H154" s="120"/>
       <c r="I154" s="120" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="J154" s="120"/>
       <c r="K154" s="120"/>
@@ -11635,7 +11647,7 @@
     <row r="155" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B155" s="20"/>
       <c r="C155" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D155" s="115"/>
       <c r="E155" s="120" t="s">
@@ -11645,7 +11657,7 @@
       <c r="G155" s="120"/>
       <c r="H155" s="120"/>
       <c r="I155" s="120" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J155" s="120"/>
       <c r="K155" s="120"/>
@@ -11657,7 +11669,7 @@
       <c r="O155" s="195"/>
       <c r="P155" s="195"/>
       <c r="Q155" s="120" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="R155" s="120"/>
       <c r="S155" s="120"/>
@@ -11667,7 +11679,7 @@
     <row r="156" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B156" s="20"/>
       <c r="C156" s="114" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D156" s="115"/>
       <c r="E156" s="120" t="s">
@@ -11677,7 +11689,7 @@
       <c r="G156" s="120"/>
       <c r="H156" s="120"/>
       <c r="I156" s="120" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="J156" s="120"/>
       <c r="K156" s="120"/>
@@ -11737,7 +11749,7 @@
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
       <c r="S158" s="113" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="T158" s="113"/>
       <c r="U158" s="21"/>
@@ -11766,12 +11778,12 @@
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B161" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B162" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -12009,7 +12021,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -12050,7 +12062,7 @@
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B3" s="20"/>
       <c r="C3" s="132" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D3" s="220"/>
       <c r="E3" s="220"/>
@@ -12061,33 +12073,33 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="127" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K3" s="127"/>
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="127" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O3" s="127"/>
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
       <c r="R3" s="127" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S3" s="127"/>
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
       <c r="W3" s="127" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X3" s="127"/>
       <c r="Y3" s="127"/>
       <c r="Z3" s="127"/>
       <c r="AA3" s="127"/>
       <c r="AB3" s="127" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC3" s="127"/>
       <c r="AD3" s="127"/>
@@ -12098,24 +12110,24 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" s="20"/>
       <c r="C4" s="222" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="223"/>
       <c r="E4" s="223"/>
       <c r="F4" s="223"/>
       <c r="G4" s="224"/>
       <c r="H4" s="231" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I4" s="232"/>
       <c r="J4" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
       <c r="M4" s="120"/>
       <c r="N4" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
@@ -12135,7 +12147,7 @@
       <c r="Z4" s="120"/>
       <c r="AA4" s="120"/>
       <c r="AB4" s="175" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AC4" s="120"/>
       <c r="AD4" s="120"/>
@@ -12151,17 +12163,17 @@
       <c r="F5" s="226"/>
       <c r="G5" s="227"/>
       <c r="H5" s="233" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I5" s="232"/>
       <c r="J5" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
       <c r="M5" s="120"/>
       <c r="N5" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O5" s="120"/>
       <c r="P5" s="120"/>
@@ -12181,7 +12193,7 @@
       <c r="Z5" s="120"/>
       <c r="AA5" s="120"/>
       <c r="AB5" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC5" s="120"/>
       <c r="AD5" s="120"/>
@@ -12197,17 +12209,17 @@
       <c r="F6" s="229"/>
       <c r="G6" s="230"/>
       <c r="H6" s="233" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I6" s="232"/>
       <c r="J6" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="120"/>
       <c r="N6" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
@@ -12227,7 +12239,7 @@
       <c r="Z6" s="120"/>
       <c r="AA6" s="120"/>
       <c r="AB6" s="175" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AC6" s="120"/>
       <c r="AD6" s="120"/>
@@ -12238,24 +12250,24 @@
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7" s="20"/>
       <c r="C7" s="217" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D7" s="218"/>
       <c r="E7" s="218"/>
       <c r="F7" s="218"/>
       <c r="G7" s="219"/>
       <c r="H7" s="233" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I7" s="232"/>
       <c r="J7" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
       <c r="N7" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
@@ -12275,7 +12287,7 @@
       <c r="Z7" s="120"/>
       <c r="AA7" s="120"/>
       <c r="AB7" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC7" s="120"/>
       <c r="AD7" s="120"/>
@@ -12353,17 +12365,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -12397,12 +12409,12 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -12429,12 +12441,12 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -12461,12 +12473,12 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -12493,7 +12505,7 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -12523,19 +12535,19 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D20" s="148"/>
       <c r="E20" s="148"/>
       <c r="F20" s="148"/>
       <c r="G20" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H20" s="148"/>
       <c r="I20" s="148"/>
       <c r="J20" s="148"/>
       <c r="K20" s="99" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L20" s="210"/>
       <c r="M20" s="210"/>
@@ -12553,7 +12565,7 @@
       <c r="U20" s="100"/>
       <c r="V20" s="101"/>
       <c r="W20" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="X20" s="100"/>
       <c r="Y20" s="100"/>
@@ -12597,13 +12609,13 @@
       <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H22" s="120"/>
       <c r="I22" s="120"/>
       <c r="J22" s="120"/>
       <c r="K22" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
@@ -12631,19 +12643,19 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="C23" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D23" s="120"/>
       <c r="E23" s="120"/>
       <c r="F23" s="120"/>
       <c r="G23" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H23" s="120"/>
       <c r="I23" s="120"/>
       <c r="J23" s="120"/>
       <c r="K23" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -12721,7 +12733,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Z25" s="82"/>
       <c r="AA25" s="21"/>
@@ -12781,7 +12793,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -12806,7 +12818,7 @@
     </row>
     <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -12836,12 +12848,12 @@
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B32" s="20"/>
       <c r="C32" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -12864,12 +12876,12 @@
     <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="20"/>
       <c r="C33" s="29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -12892,12 +12904,12 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="20"/>
       <c r="C34" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -12920,7 +12932,7 @@
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="20"/>
       <c r="C35" s="29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -12946,7 +12958,7 @@
     <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="20"/>
       <c r="C36" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -12972,12 +12984,12 @@
     <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37" s="20"/>
       <c r="C37" s="29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -13000,12 +13012,12 @@
     <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
       <c r="C38" s="29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -13028,7 +13040,7 @@
     <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="20"/>
       <c r="C39" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -13054,13 +13066,13 @@
     <row r="40" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B40" s="20"/>
       <c r="C40" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D40" s="148"/>
       <c r="E40" s="148"/>
       <c r="F40" s="148"/>
       <c r="G40" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H40" s="148"/>
       <c r="I40" s="148"/>
@@ -13078,7 +13090,7 @@
       <c r="Q40" s="148"/>
       <c r="R40" s="148"/>
       <c r="S40" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="T40" s="100"/>
       <c r="U40" s="100"/>
@@ -13118,7 +13130,7 @@
       <c r="E42" s="120"/>
       <c r="F42" s="120"/>
       <c r="G42" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
@@ -13146,13 +13158,13 @@
     <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43" s="20"/>
       <c r="C43" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D43" s="120"/>
       <c r="E43" s="120"/>
       <c r="F43" s="120"/>
       <c r="G43" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
@@ -13216,7 +13228,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="80" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
@@ -13224,7 +13236,7 @@
       <c r="S45" s="82"/>
       <c r="T45" s="22"/>
       <c r="U45" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="V45" s="82"/>
       <c r="W45" s="21"/>
@@ -13255,12 +13267,12 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C48" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -13357,7 +13369,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -13398,7 +13410,7 @@
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B3" s="20"/>
       <c r="C3" s="132" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D3" s="220"/>
       <c r="E3" s="220"/>
@@ -13409,33 +13421,33 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="127" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K3" s="127"/>
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="127" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O3" s="127"/>
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
       <c r="R3" s="127" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S3" s="127"/>
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
       <c r="W3" s="127" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X3" s="127"/>
       <c r="Y3" s="127"/>
       <c r="Z3" s="127"/>
       <c r="AA3" s="127"/>
       <c r="AB3" s="127" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC3" s="127"/>
       <c r="AD3" s="127"/>
@@ -13446,24 +13458,24 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" s="20"/>
       <c r="C4" s="222" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="223"/>
       <c r="E4" s="223"/>
       <c r="F4" s="223"/>
       <c r="G4" s="224"/>
       <c r="H4" s="231" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I4" s="232"/>
       <c r="J4" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
       <c r="M4" s="120"/>
       <c r="N4" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
@@ -13483,7 +13495,7 @@
       <c r="Z4" s="120"/>
       <c r="AA4" s="120"/>
       <c r="AB4" s="175" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AC4" s="120"/>
       <c r="AD4" s="120"/>
@@ -13499,17 +13511,17 @@
       <c r="F5" s="226"/>
       <c r="G5" s="227"/>
       <c r="H5" s="233" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I5" s="232"/>
       <c r="J5" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
       <c r="M5" s="120"/>
       <c r="N5" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O5" s="120"/>
       <c r="P5" s="120"/>
@@ -13529,7 +13541,7 @@
       <c r="Z5" s="120"/>
       <c r="AA5" s="120"/>
       <c r="AB5" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC5" s="120"/>
       <c r="AD5" s="120"/>
@@ -13545,17 +13557,17 @@
       <c r="F6" s="229"/>
       <c r="G6" s="230"/>
       <c r="H6" s="233" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I6" s="232"/>
       <c r="J6" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="120"/>
       <c r="N6" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
@@ -13575,7 +13587,7 @@
       <c r="Z6" s="120"/>
       <c r="AA6" s="120"/>
       <c r="AB6" s="175" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AC6" s="120"/>
       <c r="AD6" s="120"/>
@@ -13586,24 +13598,24 @@
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7" s="20"/>
       <c r="C7" s="217" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D7" s="218"/>
       <c r="E7" s="218"/>
       <c r="F7" s="218"/>
       <c r="G7" s="219"/>
       <c r="H7" s="233" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I7" s="232"/>
       <c r="J7" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
       <c r="N7" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
@@ -13623,7 +13635,7 @@
       <c r="Z7" s="120"/>
       <c r="AA7" s="120"/>
       <c r="AB7" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC7" s="120"/>
       <c r="AD7" s="120"/>
@@ -13701,17 +13713,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -13745,12 +13757,12 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -13777,12 +13789,12 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -13809,12 +13821,12 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -13841,7 +13853,7 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -13871,19 +13883,19 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D20" s="148"/>
       <c r="E20" s="148"/>
       <c r="F20" s="148"/>
       <c r="G20" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H20" s="148"/>
       <c r="I20" s="148"/>
       <c r="J20" s="148"/>
       <c r="K20" s="99" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L20" s="210"/>
       <c r="M20" s="210"/>
@@ -13901,7 +13913,7 @@
       <c r="U20" s="100"/>
       <c r="V20" s="101"/>
       <c r="W20" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="X20" s="100"/>
       <c r="Y20" s="100"/>
@@ -13945,13 +13957,13 @@
       <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H22" s="120"/>
       <c r="I22" s="120"/>
       <c r="J22" s="120"/>
       <c r="K22" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
@@ -13979,19 +13991,19 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="C23" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D23" s="120"/>
       <c r="E23" s="120"/>
       <c r="F23" s="120"/>
       <c r="G23" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H23" s="120"/>
       <c r="I23" s="120"/>
       <c r="J23" s="120"/>
       <c r="K23" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -14069,7 +14081,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Z25" s="82"/>
       <c r="AA25" s="21"/>
@@ -14129,7 +14141,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -14154,7 +14166,7 @@
     </row>
     <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -14184,12 +14196,12 @@
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B32" s="20"/>
       <c r="C32" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -14212,12 +14224,12 @@
     <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="20"/>
       <c r="C33" s="29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -14240,12 +14252,12 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="20"/>
       <c r="C34" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -14268,7 +14280,7 @@
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="20"/>
       <c r="C35" s="29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -14294,7 +14306,7 @@
     <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="20"/>
       <c r="C36" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -14320,12 +14332,12 @@
     <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37" s="20"/>
       <c r="C37" s="29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -14348,12 +14360,12 @@
     <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
       <c r="C38" s="29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -14376,7 +14388,7 @@
     <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="20"/>
       <c r="C39" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -14402,13 +14414,13 @@
     <row r="40" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B40" s="20"/>
       <c r="C40" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D40" s="148"/>
       <c r="E40" s="148"/>
       <c r="F40" s="148"/>
       <c r="G40" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H40" s="148"/>
       <c r="I40" s="148"/>
@@ -14426,7 +14438,7 @@
       <c r="Q40" s="148"/>
       <c r="R40" s="148"/>
       <c r="S40" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="T40" s="100"/>
       <c r="U40" s="100"/>
@@ -14466,7 +14478,7 @@
       <c r="E42" s="120"/>
       <c r="F42" s="120"/>
       <c r="G42" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
@@ -14494,13 +14506,13 @@
     <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43" s="20"/>
       <c r="C43" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D43" s="120"/>
       <c r="E43" s="120"/>
       <c r="F43" s="120"/>
       <c r="G43" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
@@ -14564,7 +14576,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="80" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
@@ -14572,7 +14584,7 @@
       <c r="S45" s="82"/>
       <c r="T45" s="22"/>
       <c r="U45" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="V45" s="82"/>
       <c r="W45" s="21"/>
@@ -14603,12 +14615,12 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C48" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -14705,7 +14717,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
@@ -14746,7 +14758,7 @@
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B3" s="20"/>
       <c r="C3" s="132" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D3" s="220"/>
       <c r="E3" s="220"/>
@@ -14757,33 +14769,33 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="127" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K3" s="127"/>
       <c r="L3" s="127"/>
       <c r="M3" s="127"/>
       <c r="N3" s="127" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O3" s="127"/>
       <c r="P3" s="127"/>
       <c r="Q3" s="127"/>
       <c r="R3" s="127" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S3" s="127"/>
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
       <c r="V3" s="127"/>
       <c r="W3" s="127" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="X3" s="127"/>
       <c r="Y3" s="127"/>
       <c r="Z3" s="127"/>
       <c r="AA3" s="127"/>
       <c r="AB3" s="127" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AC3" s="127"/>
       <c r="AD3" s="127"/>
@@ -14794,24 +14806,24 @@
     <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B4" s="20"/>
       <c r="C4" s="222" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D4" s="223"/>
       <c r="E4" s="223"/>
       <c r="F4" s="223"/>
       <c r="G4" s="224"/>
       <c r="H4" s="231" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="I4" s="232"/>
       <c r="J4" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K4" s="120"/>
       <c r="L4" s="120"/>
       <c r="M4" s="120"/>
       <c r="N4" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O4" s="120"/>
       <c r="P4" s="120"/>
@@ -14831,7 +14843,7 @@
       <c r="Z4" s="120"/>
       <c r="AA4" s="120"/>
       <c r="AB4" s="175" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="AC4" s="120"/>
       <c r="AD4" s="120"/>
@@ -14847,17 +14859,17 @@
       <c r="F5" s="226"/>
       <c r="G5" s="227"/>
       <c r="H5" s="233" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="I5" s="232"/>
       <c r="J5" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K5" s="120"/>
       <c r="L5" s="120"/>
       <c r="M5" s="120"/>
       <c r="N5" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O5" s="120"/>
       <c r="P5" s="120"/>
@@ -14877,7 +14889,7 @@
       <c r="Z5" s="120"/>
       <c r="AA5" s="120"/>
       <c r="AB5" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC5" s="120"/>
       <c r="AD5" s="120"/>
@@ -14893,17 +14905,17 @@
       <c r="F6" s="229"/>
       <c r="G6" s="230"/>
       <c r="H6" s="233" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I6" s="232"/>
       <c r="J6" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K6" s="120"/>
       <c r="L6" s="120"/>
       <c r="M6" s="120"/>
       <c r="N6" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O6" s="120"/>
       <c r="P6" s="120"/>
@@ -14923,7 +14935,7 @@
       <c r="Z6" s="120"/>
       <c r="AA6" s="120"/>
       <c r="AB6" s="175" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AC6" s="120"/>
       <c r="AD6" s="120"/>
@@ -14934,24 +14946,24 @@
     <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B7" s="20"/>
       <c r="C7" s="217" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D7" s="218"/>
       <c r="E7" s="218"/>
       <c r="F7" s="218"/>
       <c r="G7" s="219"/>
       <c r="H7" s="233" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I7" s="232"/>
       <c r="J7" s="175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="K7" s="120"/>
       <c r="L7" s="120"/>
       <c r="M7" s="120"/>
       <c r="N7" s="175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="O7" s="120"/>
       <c r="P7" s="120"/>
@@ -14971,7 +14983,7 @@
       <c r="Z7" s="120"/>
       <c r="AA7" s="120"/>
       <c r="AB7" s="175" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AC7" s="120"/>
       <c r="AD7" s="120"/>
@@ -15049,17 +15061,17 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C11" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C12" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.35">
@@ -15093,12 +15105,12 @@
     <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -15125,12 +15137,12 @@
     <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -15157,12 +15169,12 @@
     <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -15189,7 +15201,7 @@
     <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -15219,19 +15231,19 @@
     <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
       <c r="C20" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D20" s="148"/>
       <c r="E20" s="148"/>
       <c r="F20" s="148"/>
       <c r="G20" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H20" s="148"/>
       <c r="I20" s="148"/>
       <c r="J20" s="148"/>
       <c r="K20" s="99" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L20" s="210"/>
       <c r="M20" s="210"/>
@@ -15249,7 +15261,7 @@
       <c r="U20" s="100"/>
       <c r="V20" s="101"/>
       <c r="W20" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="X20" s="100"/>
       <c r="Y20" s="100"/>
@@ -15293,13 +15305,13 @@
       <c r="E22" s="120"/>
       <c r="F22" s="120"/>
       <c r="G22" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H22" s="120"/>
       <c r="I22" s="120"/>
       <c r="J22" s="120"/>
       <c r="K22" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
@@ -15327,19 +15339,19 @@
     <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B23" s="20"/>
       <c r="C23" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D23" s="120"/>
       <c r="E23" s="120"/>
       <c r="F23" s="120"/>
       <c r="G23" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H23" s="120"/>
       <c r="I23" s="120"/>
       <c r="J23" s="120"/>
       <c r="K23" s="54" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
@@ -15417,7 +15429,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="Z25" s="82"/>
       <c r="AA25" s="21"/>
@@ -15477,7 +15489,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -15502,7 +15514,7 @@
     </row>
     <row r="30" spans="1:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.35">
@@ -15532,12 +15544,12 @@
     <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B32" s="20"/>
       <c r="C32" s="29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -15560,12 +15572,12 @@
     <row r="33" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B33" s="20"/>
       <c r="C33" s="29" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -15588,12 +15600,12 @@
     <row r="34" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B34" s="20"/>
       <c r="C34" s="29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -15616,7 +15628,7 @@
     <row r="35" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B35" s="20"/>
       <c r="C35" s="29" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -15642,7 +15654,7 @@
     <row r="36" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B36" s="20"/>
       <c r="C36" s="29" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -15668,12 +15680,12 @@
     <row r="37" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B37" s="20"/>
       <c r="C37" s="29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -15696,12 +15708,12 @@
     <row r="38" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B38" s="20"/>
       <c r="C38" s="29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -15724,7 +15736,7 @@
     <row r="39" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B39" s="20"/>
       <c r="C39" s="29" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -15750,13 +15762,13 @@
     <row r="40" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B40" s="20"/>
       <c r="C40" s="148" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D40" s="148"/>
       <c r="E40" s="148"/>
       <c r="F40" s="148"/>
       <c r="G40" s="148" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H40" s="148"/>
       <c r="I40" s="148"/>
@@ -15774,7 +15786,7 @@
       <c r="Q40" s="148"/>
       <c r="R40" s="148"/>
       <c r="S40" s="99" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="T40" s="100"/>
       <c r="U40" s="100"/>
@@ -15814,7 +15826,7 @@
       <c r="E42" s="120"/>
       <c r="F42" s="120"/>
       <c r="G42" s="120" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
@@ -15842,13 +15854,13 @@
     <row r="43" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B43" s="20"/>
       <c r="C43" s="120" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D43" s="120"/>
       <c r="E43" s="120"/>
       <c r="F43" s="120"/>
       <c r="G43" s="120" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="120"/>
@@ -15912,7 +15924,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="80" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P45" s="81"/>
       <c r="Q45" s="81"/>
@@ -15920,7 +15932,7 @@
       <c r="S45" s="82"/>
       <c r="T45" s="22"/>
       <c r="U45" s="80" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="V45" s="82"/>
       <c r="W45" s="21"/>
@@ -15951,12 +15963,12 @@
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.35">
       <c r="C48" s="22" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C49" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -16040,8 +16052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -16065,7 +16077,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F1" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -16076,13 +16088,13 @@
       <c r="C2" s="241"/>
       <c r="D2" s="242"/>
       <c r="F2" s="240" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G2" s="241"/>
       <c r="H2" s="241"/>
       <c r="I2" s="242"/>
       <c r="K2" s="240" t="s">
-        <v>170</v>
+        <v>445</v>
       </c>
       <c r="L2" s="241"/>
       <c r="M2" s="241"/>
@@ -16099,7 +16111,7 @@
         <v>57</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>56</v>
@@ -16111,7 +16123,7 @@
         <v>57</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>56</v>
@@ -16123,7 +16135,7 @@
         <v>57</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -16134,7 +16146,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -16144,7 +16156,7 @@
         <v>63</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>74</v>
+        <v>444</v>
       </c>
       <c r="I4" s="7"/>
       <c r="K4" s="7" t="s">
@@ -16160,13 +16172,13 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -16180,13 +16192,13 @@
       </c>
       <c r="I5" s="7"/>
       <c r="K5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="N5" s="7"/>
     </row>
@@ -16201,7 +16213,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>78</v>
@@ -16217,10 +16229,10 @@
         <v>75</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7"/>
     </row>
@@ -16246,13 +16258,13 @@
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7"/>
     </row>
@@ -16290,7 +16302,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="240" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G9" s="241"/>
       <c r="H9" s="241"/>
@@ -16307,7 +16319,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>56</v>
@@ -16319,10 +16331,10 @@
         <v>57</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K10" s="240" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L10" s="241"/>
       <c r="M10" s="241"/>
@@ -16359,18 +16371,18 @@
         <v>57</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>76</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="7" t="s">
@@ -16400,7 +16412,7 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>76</v>
@@ -16416,7 +16428,7 @@
         <v>76</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -16432,10 +16444,10 @@
         <v>62</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>75</v>
@@ -16444,13 +16456,13 @@
         <v>76</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N14" s="7"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="240" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B15" s="241"/>
       <c r="C15" s="241"/>
@@ -16462,10 +16474,10 @@
         <v>62</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
@@ -16479,25 +16491,25 @@
         <v>57</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F16" s="240" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G16" s="241"/>
       <c r="H16" s="241"/>
       <c r="I16" s="242"/>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
@@ -16508,7 +16520,7 @@
         <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17" s="11" t="s">
@@ -16521,16 +16533,16 @@
         <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N17" s="7"/>
     </row>
@@ -16545,10 +16557,10 @@
         <v>82</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>63</v>
@@ -16569,10 +16581,10 @@
         <v>89</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>76</v>
@@ -16582,7 +16594,7 @@
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="240" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L19" s="241"/>
       <c r="M19" s="241"/>
@@ -16600,16 +16612,16 @@
       </c>
       <c r="D20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>56</v>
@@ -16621,28 +16633,28 @@
         <v>57</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" s="7"/>
       <c r="K21" s="7" t="s">
@@ -16655,44 +16667,44 @@
         <v>89</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N23" s="7"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="240" t="s">
-        <v>114</v>
+        <v>447</v>
       </c>
       <c r="B24" s="241"/>
       <c r="C24" s="241"/>
       <c r="D24" s="242"/>
       <c r="F24" s="240" t="s">
-        <v>134</v>
+        <v>446</v>
       </c>
       <c r="G24" s="241"/>
       <c r="H24" s="241"/>
@@ -16709,7 +16721,7 @@
         <v>57</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>56</v>
@@ -16721,7 +16733,7 @@
         <v>57</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
@@ -16732,7 +16744,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7"/>
       <c r="F26" s="7" t="s">
@@ -16746,7 +16758,7 @@
       </c>
       <c r="I26" s="7"/>
       <c r="K26" s="8" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -16754,16 +16766,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>87</v>
@@ -16772,7 +16784,7 @@
         <v>76</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I27" s="7"/>
       <c r="K27" s="11" t="s">
@@ -16785,20 +16797,22 @@
         <v>57</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>344</v>
+        <v>449</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D28" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>451</v>
+      </c>
       <c r="F28" s="7" t="s">
         <v>75</v>
       </c>
@@ -16806,7 +16820,7 @@
         <v>76</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I28" s="7"/>
       <c r="K28" s="7" t="s">
@@ -16822,13 +16836,13 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>199</v>
+        <v>435</v>
       </c>
       <c r="D29" s="7"/>
       <c r="F29" s="7" t="s">
@@ -16838,10 +16852,10 @@
         <v>62</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>87</v>
@@ -16850,49 +16864,53 @@
         <v>76</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="N29" s="7"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I30" s="7"/>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="240" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="241"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="242"/>
       <c r="F31" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I31" s="7"/>
       <c r="K31" s="7" t="s">
@@ -16902,59 +16920,53 @@
         <v>62</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="240" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="241"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="242"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>163</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D34" s="7"/>
       <c r="F34" s="240" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G34" s="241"/>
       <c r="H34" s="241"/>
       <c r="I34" s="242"/>
       <c r="K34" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -16962,15 +16974,17 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="F35" s="11" t="s">
         <v>56</v>
       </c>
@@ -16981,7 +16995,7 @@
         <v>57</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>56</v>
@@ -16993,10 +17007,20 @@
         <v>57</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="F36" s="7" t="s">
         <v>60</v>
       </c>
@@ -17020,40 +17044,40 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F37" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>76</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="N37" s="7"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="F38" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>78</v>
@@ -17062,29 +17086,29 @@
         <v>76</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="240" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B39" s="241"/>
       <c r="C39" s="241"/>
       <c r="D39" s="242"/>
       <c r="F39" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>76</v>
@@ -17105,7 +17129,7 @@
         <v>57</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
@@ -17122,19 +17146,19 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F42" s="240" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G42" s="241"/>
       <c r="H42" s="241"/>
@@ -17161,7 +17185,7 @@
         <v>57</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
@@ -17178,7 +17202,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -17190,7 +17214,7 @@
         <v>76</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I45" s="7"/>
     </row>
@@ -17205,7 +17229,7 @@
         <v>57</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
@@ -17222,53 +17246,53 @@
     </row>
     <row r="48" spans="1:14" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="99" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D49" s="12"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D51" s="7"/>
     </row>
@@ -17280,13 +17304,13 @@
         <v>96</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D52" s="7"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
@@ -17303,50 +17327,50 @@
         <v>57</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D58" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
@@ -17363,12 +17387,12 @@
         <v>57</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>62</v>
@@ -17380,53 +17404,53 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="82.5" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D66" s="7"/>
     </row>
@@ -17438,7 +17462,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
@@ -17455,12 +17479,12 @@
         <v>57</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>76</v>
@@ -17472,55 +17496,55 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D74" s="7"/>
     </row>
@@ -17536,7 +17560,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F34:I34"/>

--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="全体构建" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="517">
   <si>
     <t>JK-900-200</t>
     <phoneticPr fontId="1"/>
@@ -2077,6 +2077,14 @@
   </si>
   <si>
     <t>pn_class_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PN:</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3982,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BJ43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43:K43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -9312,10 +9320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL162"/>
+  <dimension ref="A1:AL170"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C159" sqref="C159:D160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12867,90 +12875,82 @@
       <c r="T150" s="22"/>
       <c r="U150" s="21"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="20"/>
-      <c r="C151" s="136" t="s">
-        <v>236</v>
-      </c>
-      <c r="D151" s="137"/>
-      <c r="E151" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="132"/>
-      <c r="G151" s="132"/>
-      <c r="H151" s="132"/>
-      <c r="I151" s="132" t="s">
-        <v>190</v>
-      </c>
-      <c r="J151" s="132"/>
-      <c r="K151" s="132"/>
-      <c r="L151" s="132"/>
-      <c r="M151" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="N151" s="132"/>
-      <c r="O151" s="132"/>
-      <c r="P151" s="132"/>
-      <c r="Q151" s="132" t="s">
-        <v>38</v>
-      </c>
-      <c r="R151" s="132"/>
-      <c r="S151" s="132"/>
-      <c r="T151" s="132"/>
+      <c r="C151" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="22"/>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="22"/>
+      <c r="S151" s="22"/>
+      <c r="T151" s="22"/>
       <c r="U151" s="21"/>
     </row>
     <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B152" s="20"/>
-      <c r="C152" s="138"/>
-      <c r="D152" s="139"/>
-      <c r="E152" s="132"/>
+      <c r="C152" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="D152" s="137"/>
+      <c r="E152" s="132" t="s">
+        <v>6</v>
+      </c>
       <c r="F152" s="132"/>
       <c r="G152" s="132"/>
       <c r="H152" s="132"/>
-      <c r="I152" s="132"/>
+      <c r="I152" s="132" t="s">
+        <v>190</v>
+      </c>
       <c r="J152" s="132"/>
       <c r="K152" s="132"/>
       <c r="L152" s="132"/>
-      <c r="M152" s="132"/>
+      <c r="M152" s="132" t="s">
+        <v>407</v>
+      </c>
       <c r="N152" s="132"/>
       <c r="O152" s="132"/>
       <c r="P152" s="132"/>
-      <c r="Q152" s="132"/>
+      <c r="Q152" s="132" t="s">
+        <v>38</v>
+      </c>
       <c r="R152" s="132"/>
       <c r="S152" s="132"/>
       <c r="T152" s="132"/>
       <c r="U152" s="21"/>
     </row>
-    <row r="153" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B153" s="20"/>
-      <c r="C153" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="D153" s="135"/>
-      <c r="E153" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F153" s="79"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="79" t="s">
-        <v>187</v>
-      </c>
-      <c r="J153" s="79"/>
-      <c r="K153" s="79"/>
-      <c r="L153" s="79"/>
-      <c r="M153" s="218">
-        <v>10000</v>
-      </c>
-      <c r="N153" s="219"/>
-      <c r="O153" s="219"/>
-      <c r="P153" s="219"/>
-      <c r="Q153" s="79" t="s">
-        <v>14</v>
-      </c>
-      <c r="R153" s="79"/>
-      <c r="S153" s="79"/>
-      <c r="T153" s="79"/>
+      <c r="C153" s="138"/>
+      <c r="D153" s="139"/>
+      <c r="E153" s="132"/>
+      <c r="F153" s="132"/>
+      <c r="G153" s="132"/>
+      <c r="H153" s="132"/>
+      <c r="I153" s="132"/>
+      <c r="J153" s="132"/>
+      <c r="K153" s="132"/>
+      <c r="L153" s="132"/>
+      <c r="M153" s="132"/>
+      <c r="N153" s="132"/>
+      <c r="O153" s="132"/>
+      <c r="P153" s="132"/>
+      <c r="Q153" s="132"/>
+      <c r="R153" s="132"/>
+      <c r="S153" s="132"/>
+      <c r="T153" s="132"/>
       <c r="U153" s="21"/>
     </row>
     <row r="154" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
@@ -12960,13 +12960,13 @@
       </c>
       <c r="D154" s="135"/>
       <c r="E154" s="79" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F154" s="79"/>
       <c r="G154" s="79"/>
       <c r="H154" s="79"/>
       <c r="I154" s="79" t="s">
-        <v>408</v>
+        <v>187</v>
       </c>
       <c r="J154" s="79"/>
       <c r="K154" s="79"/>
@@ -12992,13 +12992,13 @@
       </c>
       <c r="D155" s="135"/>
       <c r="E155" s="79" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F155" s="79"/>
       <c r="G155" s="79"/>
       <c r="H155" s="79"/>
       <c r="I155" s="79" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J155" s="79"/>
       <c r="K155" s="79"/>
@@ -13010,7 +13010,7 @@
       <c r="O155" s="219"/>
       <c r="P155" s="219"/>
       <c r="Q155" s="79" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="R155" s="79"/>
       <c r="S155" s="79"/>
@@ -13030,7 +13030,7 @@
       <c r="G156" s="79"/>
       <c r="H156" s="79"/>
       <c r="I156" s="79" t="s">
-        <v>187</v>
+        <v>409</v>
       </c>
       <c r="J156" s="79"/>
       <c r="K156" s="79"/>
@@ -13042,38 +13042,50 @@
       <c r="O156" s="219"/>
       <c r="P156" s="219"/>
       <c r="Q156" s="79" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="R156" s="79"/>
       <c r="S156" s="79"/>
       <c r="T156" s="79"/>
       <c r="U156" s="21"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" ht="20.25" x14ac:dyDescent="0.35">
       <c r="B157" s="20"/>
-      <c r="C157" s="22"/>
-      <c r="D157" s="22"/>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22"/>
-      <c r="G157" s="22"/>
-      <c r="H157" s="22"/>
-      <c r="I157" s="22"/>
-      <c r="J157" s="22"/>
-      <c r="K157" s="22"/>
-      <c r="L157" s="22"/>
-      <c r="M157" s="22"/>
-      <c r="N157" s="22"/>
-      <c r="O157" s="22"/>
-      <c r="P157" s="22"/>
-      <c r="Q157" s="22"/>
-      <c r="R157" s="22"/>
-      <c r="S157" s="22"/>
-      <c r="T157" s="22"/>
+      <c r="C157" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" s="135"/>
+      <c r="E157" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="79"/>
+      <c r="G157" s="79"/>
+      <c r="H157" s="79"/>
+      <c r="I157" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="J157" s="79"/>
+      <c r="K157" s="79"/>
+      <c r="L157" s="79"/>
+      <c r="M157" s="218">
+        <v>10000</v>
+      </c>
+      <c r="N157" s="219"/>
+      <c r="O157" s="219"/>
+      <c r="P157" s="219"/>
+      <c r="Q157" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="R157" s="79"/>
+      <c r="S157" s="79"/>
+      <c r="T157" s="79"/>
       <c r="U157" s="21"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="20"/>
-      <c r="C158" s="22"/>
+      <c r="C158" s="22" t="s">
+        <v>516</v>
+      </c>
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -13089,46 +13101,297 @@
       <c r="P158" s="22"/>
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
-      <c r="S158" s="131" t="s">
+      <c r="S158" s="22"/>
+      <c r="T158" s="22"/>
+      <c r="U158" s="21"/>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B159" s="20"/>
+      <c r="C159" s="136" t="s">
+        <v>236</v>
+      </c>
+      <c r="D159" s="137"/>
+      <c r="E159" s="132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" s="132"/>
+      <c r="G159" s="132"/>
+      <c r="H159" s="132"/>
+      <c r="I159" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="J159" s="132"/>
+      <c r="K159" s="132"/>
+      <c r="L159" s="132"/>
+      <c r="M159" s="132" t="s">
+        <v>407</v>
+      </c>
+      <c r="N159" s="132"/>
+      <c r="O159" s="132"/>
+      <c r="P159" s="132"/>
+      <c r="Q159" s="132" t="s">
+        <v>38</v>
+      </c>
+      <c r="R159" s="132"/>
+      <c r="S159" s="132"/>
+      <c r="T159" s="132"/>
+      <c r="U159" s="21"/>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B160" s="20"/>
+      <c r="C160" s="138"/>
+      <c r="D160" s="139"/>
+      <c r="E160" s="132"/>
+      <c r="F160" s="132"/>
+      <c r="G160" s="132"/>
+      <c r="H160" s="132"/>
+      <c r="I160" s="132"/>
+      <c r="J160" s="132"/>
+      <c r="K160" s="132"/>
+      <c r="L160" s="132"/>
+      <c r="M160" s="132"/>
+      <c r="N160" s="132"/>
+      <c r="O160" s="132"/>
+      <c r="P160" s="132"/>
+      <c r="Q160" s="132"/>
+      <c r="R160" s="132"/>
+      <c r="S160" s="132"/>
+      <c r="T160" s="132"/>
+      <c r="U160" s="21"/>
+    </row>
+    <row r="161" spans="2:21" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B161" s="20"/>
+      <c r="C161" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="D161" s="135"/>
+      <c r="E161" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" s="79"/>
+      <c r="G161" s="79"/>
+      <c r="H161" s="79"/>
+      <c r="I161" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="J161" s="79"/>
+      <c r="K161" s="79"/>
+      <c r="L161" s="79"/>
+      <c r="M161" s="218">
+        <v>10000</v>
+      </c>
+      <c r="N161" s="219"/>
+      <c r="O161" s="219"/>
+      <c r="P161" s="219"/>
+      <c r="Q161" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="R161" s="79"/>
+      <c r="S161" s="79"/>
+      <c r="T161" s="79"/>
+      <c r="U161" s="21"/>
+    </row>
+    <row r="162" spans="2:21" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B162" s="20"/>
+      <c r="C162" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="D162" s="135"/>
+      <c r="E162" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F162" s="79"/>
+      <c r="G162" s="79"/>
+      <c r="H162" s="79"/>
+      <c r="I162" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="J162" s="79"/>
+      <c r="K162" s="79"/>
+      <c r="L162" s="79"/>
+      <c r="M162" s="218">
+        <v>10000</v>
+      </c>
+      <c r="N162" s="219"/>
+      <c r="O162" s="219"/>
+      <c r="P162" s="219"/>
+      <c r="Q162" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="R162" s="79"/>
+      <c r="S162" s="79"/>
+      <c r="T162" s="79"/>
+      <c r="U162" s="21"/>
+    </row>
+    <row r="163" spans="2:21" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B163" s="20"/>
+      <c r="C163" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="D163" s="135"/>
+      <c r="E163" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="79"/>
+      <c r="G163" s="79"/>
+      <c r="H163" s="79"/>
+      <c r="I163" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="J163" s="79"/>
+      <c r="K163" s="79"/>
+      <c r="L163" s="79"/>
+      <c r="M163" s="218">
+        <v>10000</v>
+      </c>
+      <c r="N163" s="219"/>
+      <c r="O163" s="219"/>
+      <c r="P163" s="219"/>
+      <c r="Q163" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="R163" s="79"/>
+      <c r="S163" s="79"/>
+      <c r="T163" s="79"/>
+      <c r="U163" s="21"/>
+    </row>
+    <row r="164" spans="2:21" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B164" s="20"/>
+      <c r="C164" s="134" t="s">
+        <v>236</v>
+      </c>
+      <c r="D164" s="135"/>
+      <c r="E164" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="79"/>
+      <c r="G164" s="79"/>
+      <c r="H164" s="79"/>
+      <c r="I164" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="J164" s="79"/>
+      <c r="K164" s="79"/>
+      <c r="L164" s="79"/>
+      <c r="M164" s="218">
+        <v>10000</v>
+      </c>
+      <c r="N164" s="219"/>
+      <c r="O164" s="219"/>
+      <c r="P164" s="219"/>
+      <c r="Q164" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="R164" s="79"/>
+      <c r="S164" s="79"/>
+      <c r="T164" s="79"/>
+      <c r="U164" s="21"/>
+    </row>
+    <row r="165" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B165" s="20"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+      <c r="E165" s="22"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="22"/>
+      <c r="H165" s="22"/>
+      <c r="I165" s="22"/>
+      <c r="J165" s="22"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="22"/>
+      <c r="P165" s="22"/>
+      <c r="Q165" s="22"/>
+      <c r="R165" s="22"/>
+      <c r="S165" s="22"/>
+      <c r="T165" s="22"/>
+      <c r="U165" s="21"/>
+    </row>
+    <row r="166" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B166" s="20"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+      <c r="E166" s="22"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="22"/>
+      <c r="H166" s="22"/>
+      <c r="I166" s="22"/>
+      <c r="J166" s="22"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="22"/>
+      <c r="P166" s="22"/>
+      <c r="Q166" s="22"/>
+      <c r="R166" s="22"/>
+      <c r="S166" s="131" t="s">
         <v>390</v>
       </c>
-      <c r="T158" s="131"/>
-      <c r="U158" s="21"/>
-    </row>
-    <row r="159" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B159" s="23"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
-      <c r="M159" s="24"/>
-      <c r="N159" s="24"/>
-      <c r="O159" s="24"/>
-      <c r="P159" s="24"/>
-      <c r="Q159" s="24"/>
-      <c r="R159" s="24"/>
-      <c r="S159" s="24"/>
-      <c r="T159" s="24"/>
-      <c r="U159" s="25"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B161" s="1" t="s">
+      <c r="T166" s="131"/>
+      <c r="U166" s="21"/>
+    </row>
+    <row r="167" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B167" s="23"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="24"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="24"/>
+      <c r="J167" s="24"/>
+      <c r="K167" s="24"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="24"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="24"/>
+      <c r="P167" s="24"/>
+      <c r="Q167" s="24"/>
+      <c r="R167" s="24"/>
+      <c r="S167" s="24"/>
+      <c r="T167" s="24"/>
+      <c r="U167" s="25"/>
+    </row>
+    <row r="169" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B169" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B162" s="1" t="s">
+    <row r="170" spans="2:21" x14ac:dyDescent="0.35">
+      <c r="B170" s="1" t="s">
         <v>410</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="211">
+  <mergeCells count="236">
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:H164"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="M164:P164"/>
+    <mergeCell ref="Q164:T164"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:H162"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="M162:P162"/>
+    <mergeCell ref="Q162:T162"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:H163"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="M163:P163"/>
+    <mergeCell ref="Q163:T163"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="E159:H160"/>
+    <mergeCell ref="I159:L160"/>
+    <mergeCell ref="M159:P160"/>
+    <mergeCell ref="Q159:T160"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="M161:P161"/>
+    <mergeCell ref="Q161:T161"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="D3:F3"/>
@@ -13299,10 +13562,10 @@
     <mergeCell ref="N81:O81"/>
     <mergeCell ref="F148:I148"/>
     <mergeCell ref="M148:N148"/>
-    <mergeCell ref="E151:H152"/>
-    <mergeCell ref="I151:L152"/>
-    <mergeCell ref="M151:P152"/>
-    <mergeCell ref="Q151:T152"/>
+    <mergeCell ref="E152:H153"/>
+    <mergeCell ref="I152:L153"/>
+    <mergeCell ref="M152:P153"/>
+    <mergeCell ref="Q152:T153"/>
     <mergeCell ref="C79:F79"/>
     <mergeCell ref="G79:O79"/>
     <mergeCell ref="C137:E137"/>
@@ -13317,13 +13580,17 @@
     <mergeCell ref="C109:E109"/>
     <mergeCell ref="F109:J109"/>
     <mergeCell ref="E6:X12"/>
-    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="S166:T166"/>
     <mergeCell ref="P148:Q148"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C151:D152"/>
     <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C152:D153"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:H157"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="M157:P157"/>
+    <mergeCell ref="Q157:T157"/>
     <mergeCell ref="E156:H156"/>
     <mergeCell ref="I156:L156"/>
     <mergeCell ref="M156:P156"/>
@@ -13336,10 +13603,6 @@
     <mergeCell ref="I154:L154"/>
     <mergeCell ref="M154:P154"/>
     <mergeCell ref="Q154:T154"/>
-    <mergeCell ref="E153:H153"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="M153:P153"/>
-    <mergeCell ref="Q153:T153"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15200,8 +15463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="544">
   <si>
     <t>JK-900-200</t>
     <phoneticPr fontId="1"/>
@@ -566,10 +566,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>设备备件一览表 machine_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>负责人</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2134,6 +2130,54 @@
   </si>
   <si>
     <t>更新者用户ID</t>
+  </si>
+  <si>
+    <t>设备一览表 machine_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单表 entry_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_entry_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库品目ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_entry_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单表 entry_pn_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单表 entry_machine_part_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>entry_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_entry_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单表 entry_bom_tbl</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4083,7 +4127,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="65"/>
       <c r="O1" s="66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P1" s="67"/>
       <c r="Q1" s="68"/>
@@ -4149,7 +4193,7 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4232,7 +4276,7 @@
       <c r="P3" s="74"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="72"/>
@@ -4289,7 +4333,7 @@
       <c r="G4" s="81"/>
       <c r="H4" s="82"/>
       <c r="I4" s="72" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
@@ -4302,7 +4346,7 @@
       <c r="P4" s="74"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="S4" s="72"/>
       <c r="T4" s="72"/>
@@ -4359,7 +4403,7 @@
       <c r="G5" s="81"/>
       <c r="H5" s="82"/>
       <c r="I5" s="72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
@@ -4372,7 +4416,7 @@
       <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S5" s="72"/>
       <c r="T5" s="72"/>
@@ -4429,7 +4473,7 @@
       <c r="G6" s="81"/>
       <c r="H6" s="82"/>
       <c r="I6" s="72" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J6" s="72"/>
       <c r="K6" s="72"/>
@@ -4442,7 +4486,7 @@
       <c r="P6" s="74"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="72"/>
@@ -4499,7 +4543,7 @@
       <c r="G7" s="81"/>
       <c r="H7" s="82"/>
       <c r="I7" s="72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
@@ -4569,7 +4613,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="85"/>
       <c r="I8" s="72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
@@ -4582,7 +4626,7 @@
       <c r="P8" s="74"/>
       <c r="Q8" s="75"/>
       <c r="R8" s="72" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="72"/>
@@ -4635,7 +4679,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="94"/>
       <c r="E9" s="104" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F9" s="105"/>
       <c r="G9" s="105"/>
@@ -4650,7 +4694,7 @@
       <c r="P9" s="102"/>
       <c r="Q9" s="103"/>
       <c r="R9" s="95" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
@@ -4711,7 +4755,7 @@
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
       <c r="I10" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
@@ -4779,7 +4823,7 @@
       <c r="G11" s="81"/>
       <c r="H11" s="82"/>
       <c r="I11" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
@@ -4847,7 +4891,7 @@
       <c r="G12" s="81"/>
       <c r="H12" s="82"/>
       <c r="I12" s="72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
@@ -4915,7 +4959,7 @@
       <c r="G13" s="81"/>
       <c r="H13" s="82"/>
       <c r="I13" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
@@ -4983,7 +5027,7 @@
       <c r="G14" s="84"/>
       <c r="H14" s="85"/>
       <c r="I14" s="72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
@@ -5053,7 +5097,7 @@
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
@@ -5121,7 +5165,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="98"/>
       <c r="I16" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
@@ -5189,7 +5233,7 @@
       <c r="G17" s="97"/>
       <c r="H17" s="98"/>
       <c r="I17" s="72" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -5259,7 +5303,7 @@
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -5331,7 +5375,7 @@
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -5401,7 +5445,7 @@
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -5414,7 +5458,7 @@
       <c r="P20" s="74"/>
       <c r="Q20" s="75"/>
       <c r="R20" s="72" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S20" s="72"/>
       <c r="T20" s="72"/>
@@ -5471,7 +5515,7 @@
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -5484,7 +5528,7 @@
       <c r="P21" s="74"/>
       <c r="Q21" s="75"/>
       <c r="R21" s="72" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="S21" s="72"/>
       <c r="T21" s="72"/>
@@ -5545,7 +5589,7 @@
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J22" s="99"/>
       <c r="K22" s="99"/>
@@ -5558,7 +5602,7 @@
       <c r="P22" s="74"/>
       <c r="Q22" s="75"/>
       <c r="R22" s="72" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S22" s="72"/>
       <c r="T22" s="72"/>
@@ -5615,7 +5659,7 @@
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -5628,7 +5672,7 @@
       <c r="P23" s="74"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="100" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="S23" s="100"/>
       <c r="T23" s="100"/>
@@ -5685,7 +5729,7 @@
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -5696,7 +5740,7 @@
       <c r="P24" s="74"/>
       <c r="Q24" s="75"/>
       <c r="R24" s="100" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S24" s="100"/>
       <c r="T24" s="100"/>
@@ -5745,7 +5789,7 @@
     </row>
     <row r="25" spans="1:62" s="3" customFormat="1">
       <c r="A25" s="86" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
@@ -5755,7 +5799,7 @@
       <c r="G25" s="128"/>
       <c r="H25" s="129"/>
       <c r="I25" s="72" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
@@ -5821,7 +5865,7 @@
       <c r="G26" s="131"/>
       <c r="H26" s="132"/>
       <c r="I26" s="72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -5832,7 +5876,7 @@
       <c r="P26" s="74"/>
       <c r="Q26" s="75"/>
       <c r="R26" s="100" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="S26" s="100"/>
       <c r="T26" s="100"/>
@@ -5881,7 +5925,7 @@
     </row>
     <row r="27" spans="1:62" s="3" customFormat="1">
       <c r="A27" s="86" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="87"/>
@@ -5957,13 +6001,13 @@
       <c r="C28" s="90"/>
       <c r="D28" s="91"/>
       <c r="E28" s="107" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="H28" s="109"/>
       <c r="I28" s="96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="97"/>
@@ -5976,7 +6020,7 @@
       <c r="P28" s="74"/>
       <c r="Q28" s="75"/>
       <c r="R28" s="116" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S28" s="117"/>
       <c r="T28" s="117"/>
@@ -6033,7 +6077,7 @@
       <c r="G29" s="111"/>
       <c r="H29" s="112"/>
       <c r="I29" s="96" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="97"/>
@@ -6046,7 +6090,7 @@
       <c r="P29" s="74"/>
       <c r="Q29" s="75"/>
       <c r="R29" s="95" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S29" s="95"/>
       <c r="T29" s="95"/>
@@ -6103,7 +6147,7 @@
       <c r="G30" s="111"/>
       <c r="H30" s="112"/>
       <c r="I30" s="96" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="97"/>
@@ -6116,7 +6160,7 @@
       <c r="P30" s="74"/>
       <c r="Q30" s="75"/>
       <c r="R30" s="95" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S30" s="95"/>
       <c r="T30" s="95"/>
@@ -6173,7 +6217,7 @@
       <c r="G31" s="114"/>
       <c r="H31" s="115"/>
       <c r="I31" s="96" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J31" s="97"/>
       <c r="K31" s="97"/>
@@ -6186,7 +6230,7 @@
       <c r="P31" s="74"/>
       <c r="Q31" s="75"/>
       <c r="R31" s="95" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S31" s="95"/>
       <c r="T31" s="95"/>
@@ -6235,13 +6279,13 @@
     </row>
     <row r="32" spans="1:62" s="3" customFormat="1">
       <c r="A32" s="125" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32" s="125"/>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
       <c r="E32" s="122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F32" s="122"/>
       <c r="G32" s="122"/>
@@ -6309,7 +6353,7 @@
       <c r="C33" s="125"/>
       <c r="D33" s="125"/>
       <c r="E33" s="122" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F33" s="122"/>
       <c r="G33" s="122"/>
@@ -6377,7 +6421,7 @@
       <c r="C34" s="125"/>
       <c r="D34" s="125"/>
       <c r="E34" s="122" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F34" s="122"/>
       <c r="G34" s="122"/>
@@ -6441,7 +6485,7 @@
     </row>
     <row r="35" spans="1:62">
       <c r="E35" s="123" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
@@ -6461,7 +6505,7 @@
     </row>
     <row r="36" spans="1:62" ht="16.5" customHeight="1">
       <c r="E36" s="123" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F36" s="123"/>
       <c r="G36" s="123"/>
@@ -6486,7 +6530,7 @@
     </row>
     <row r="38" spans="1:62">
       <c r="A38" s="120" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B38" s="120"/>
       <c r="C38" s="120"/>
@@ -6494,7 +6538,7 @@
       <c r="E38" s="120"/>
       <c r="F38" s="120"/>
       <c r="G38" s="120" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="120"/>
@@ -6503,7 +6547,7 @@
     </row>
     <row r="39" spans="1:62">
       <c r="A39" s="72" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -6511,7 +6555,7 @@
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
       <c r="G39" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H39" s="72"/>
       <c r="I39" s="72"/>
@@ -6520,7 +6564,7 @@
     </row>
     <row r="40" spans="1:62">
       <c r="A40" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -6528,7 +6572,7 @@
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
       <c r="G40" s="72" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H40" s="72"/>
       <c r="I40" s="72"/>
@@ -6537,7 +6581,7 @@
     </row>
     <row r="41" spans="1:62">
       <c r="A41" s="72" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -6545,7 +6589,7 @@
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
       <c r="G41" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H41" s="72"/>
       <c r="I41" s="72"/>
@@ -6554,7 +6598,7 @@
     </row>
     <row r="42" spans="1:62">
       <c r="A42" s="72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
@@ -6562,7 +6606,7 @@
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
       <c r="G42" s="72" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H42" s="72"/>
       <c r="I42" s="72"/>
@@ -6571,7 +6615,7 @@
     </row>
     <row r="43" spans="1:62">
       <c r="A43" s="72" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -6579,7 +6623,7 @@
       <c r="E43" s="72"/>
       <c r="F43" s="72"/>
       <c r="G43" s="72" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H43" s="72"/>
       <c r="I43" s="72"/>
@@ -6812,30 +6856,30 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="222" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S3" s="222"/>
       <c r="T3" s="221" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U3" s="221"/>
       <c r="V3" s="221"/>
       <c r="W3" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="X3" s="28"/>
       <c r="Y3" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z3" s="103"/>
       <c r="AA3" s="28"/>
       <c r="AB3" s="101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AC3" s="103"/>
       <c r="AD3" s="28"/>
       <c r="AE3" s="101" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF3" s="103"/>
       <c r="AG3" s="21"/>
@@ -6844,7 +6888,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="20"/>
       <c r="C4" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D4" s="22"/>
       <c r="F4" s="22"/>
@@ -6917,7 +6961,7 @@
       <c r="AA5" s="148"/>
       <c r="AB5" s="148"/>
       <c r="AC5" s="148" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AD5" s="148"/>
       <c r="AE5" s="148"/>
@@ -6927,7 +6971,7 @@
     <row r="6" spans="1:33" ht="20.25">
       <c r="B6" s="20"/>
       <c r="C6" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="216"/>
       <c r="E6" s="137" t="s">
@@ -6954,7 +6998,7 @@
       <c r="R6" s="121"/>
       <c r="S6" s="121"/>
       <c r="T6" s="121" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="U6" s="121"/>
       <c r="V6" s="121"/>
@@ -6967,7 +7011,7 @@
       <c r="AA6" s="121"/>
       <c r="AB6" s="121"/>
       <c r="AC6" s="121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AD6" s="121"/>
       <c r="AE6" s="121"/>
@@ -6977,7 +7021,7 @@
     <row r="7" spans="1:33" ht="20.25">
       <c r="B7" s="20"/>
       <c r="C7" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="137" t="s">
@@ -7011,7 +7055,7 @@
       <c r="W7" s="121"/>
       <c r="X7" s="121"/>
       <c r="Y7" s="121" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z7" s="121"/>
       <c r="AA7" s="121"/>
@@ -7025,7 +7069,7 @@
     <row r="8" spans="1:33" ht="20.25">
       <c r="B8" s="20"/>
       <c r="C8" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" s="216"/>
       <c r="E8" s="137" t="s">
@@ -7035,7 +7079,7 @@
       <c r="G8" s="137"/>
       <c r="H8" s="137"/>
       <c r="I8" s="121" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J8" s="121"/>
       <c r="K8" s="121"/>
@@ -7059,7 +7103,7 @@
       <c r="W8" s="121"/>
       <c r="X8" s="121"/>
       <c r="Y8" s="121" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z8" s="121"/>
       <c r="AA8" s="121"/>
@@ -7073,7 +7117,7 @@
     <row r="9" spans="1:33" ht="20.25">
       <c r="B9" s="20"/>
       <c r="C9" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="216"/>
       <c r="E9" s="149" t="s">
@@ -7107,7 +7151,7 @@
       <c r="W9" s="121"/>
       <c r="X9" s="121"/>
       <c r="Y9" s="121" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Z9" s="121"/>
       <c r="AA9" s="121"/>
@@ -7121,7 +7165,7 @@
     <row r="10" spans="1:33" ht="20.25">
       <c r="B10" s="20"/>
       <c r="C10" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D10" s="216"/>
       <c r="E10" s="137" t="s">
@@ -7202,17 +7246,17 @@
     </row>
     <row r="12" spans="1:33">
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="C14" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7222,13 +7266,13 @@
     </row>
     <row r="17" spans="1:59" ht="17.25" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:59">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -7247,13 +7291,13 @@
     <row r="19" spans="1:59">
       <c r="B19" s="20"/>
       <c r="C19" s="201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="172"/>
       <c r="E19" s="172"/>
       <c r="F19" s="173"/>
       <c r="G19" s="96" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
@@ -7268,13 +7312,13 @@
     <row r="20" spans="1:59">
       <c r="B20" s="20"/>
       <c r="C20" s="201" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D20" s="172"/>
       <c r="E20" s="172"/>
       <c r="F20" s="173"/>
       <c r="G20" s="96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
@@ -7289,7 +7333,7 @@
     <row r="21" spans="1:59">
       <c r="B21" s="20"/>
       <c r="C21" s="201" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D21" s="172"/>
       <c r="E21" s="172"/>
@@ -7310,7 +7354,7 @@
     <row r="22" spans="1:59">
       <c r="B22" s="20"/>
       <c r="C22" s="201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D22" s="172"/>
       <c r="E22" s="172"/>
@@ -7331,13 +7375,13 @@
     <row r="23" spans="1:59">
       <c r="B23" s="20"/>
       <c r="C23" s="201" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D23" s="172"/>
       <c r="E23" s="172"/>
       <c r="F23" s="173"/>
       <c r="G23" s="203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
@@ -7352,13 +7396,13 @@
     <row r="24" spans="1:59">
       <c r="B24" s="20"/>
       <c r="C24" s="201" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="172"/>
       <c r="E24" s="172"/>
       <c r="F24" s="173"/>
       <c r="G24" s="203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
@@ -7401,7 +7445,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O26" s="199"/>
       <c r="P26" s="21"/>
@@ -7425,7 +7469,7 @@
     </row>
     <row r="28" spans="1:59">
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="17.25" thickBot="1">
@@ -7497,24 +7541,24 @@
     <row r="33" spans="2:59">
       <c r="B33" s="20"/>
       <c r="C33" s="101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="103"/>
       <c r="E33" s="28"/>
       <c r="F33" s="101" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G33" s="102"/>
       <c r="H33" s="103"/>
       <c r="I33" s="28"/>
       <c r="J33" s="101" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K33" s="102"/>
       <c r="L33" s="103"/>
       <c r="M33" s="28"/>
       <c r="N33" s="101" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O33" s="102"/>
       <c r="P33" s="103"/>
@@ -7641,7 +7685,7 @@
       <c r="K35" s="136"/>
       <c r="L35" s="136"/>
       <c r="M35" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N35" s="209"/>
       <c r="O35" s="209"/>
@@ -7659,7 +7703,7 @@
       <c r="W35" s="136"/>
       <c r="X35" s="136"/>
       <c r="Y35" s="139" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Z35" s="140"/>
       <c r="AA35" s="140"/>
@@ -7670,7 +7714,7 @@
       <c r="AF35" s="140"/>
       <c r="AG35" s="141"/>
       <c r="AH35" s="136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI35" s="136"/>
       <c r="AJ35" s="136"/>
@@ -7681,7 +7725,7 @@
       <c r="AO35" s="136"/>
       <c r="AP35" s="136"/>
       <c r="AQ35" s="139" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AR35" s="140"/>
       <c r="AS35" s="140"/>
@@ -7725,32 +7769,32 @@
       <c r="W36" s="136"/>
       <c r="X36" s="136"/>
       <c r="Y36" s="139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z36" s="140"/>
       <c r="AA36" s="141"/>
       <c r="AB36" s="139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AC36" s="140"/>
       <c r="AD36" s="141"/>
       <c r="AE36" s="139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF36" s="140"/>
       <c r="AG36" s="141"/>
       <c r="AH36" s="139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AI36" s="140"/>
       <c r="AJ36" s="141"/>
       <c r="AK36" s="139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL36" s="140"/>
       <c r="AM36" s="141"/>
       <c r="AN36" s="139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO36" s="140"/>
       <c r="AP36" s="141"/>
@@ -7783,11 +7827,11 @@
     <row r="37" spans="2:59" ht="20.25" customHeight="1">
       <c r="B37" s="20"/>
       <c r="C37" s="217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D37" s="218"/>
       <c r="E37" s="159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F37" s="160"/>
       <c r="G37" s="160"/>
@@ -7799,7 +7843,7 @@
       <c r="K37" s="143"/>
       <c r="L37" s="144"/>
       <c r="M37" s="171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N37" s="171"/>
       <c r="O37" s="171"/>
@@ -7811,13 +7855,13 @@
       <c r="S37" s="166"/>
       <c r="T37" s="167"/>
       <c r="U37" s="142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V37" s="143"/>
       <c r="W37" s="143"/>
       <c r="X37" s="144"/>
       <c r="Y37" s="96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Z37" s="172"/>
       <c r="AA37" s="173"/>
@@ -7827,12 +7871,12 @@
       <c r="AC37" s="151"/>
       <c r="AD37" s="152"/>
       <c r="AE37" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF37" s="151"/>
       <c r="AG37" s="152"/>
       <c r="AH37" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AI37" s="172"/>
       <c r="AJ37" s="173"/>
@@ -7842,7 +7886,7 @@
       <c r="AL37" s="151"/>
       <c r="AM37" s="152"/>
       <c r="AN37" s="73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AO37" s="151"/>
       <c r="AP37" s="152"/>
@@ -7897,7 +7941,7 @@
       <c r="W38" s="146"/>
       <c r="X38" s="147"/>
       <c r="Y38" s="96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z38" s="172"/>
       <c r="AA38" s="173"/>
@@ -7907,12 +7951,12 @@
       <c r="AC38" s="151"/>
       <c r="AD38" s="152"/>
       <c r="AE38" s="73" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AF38" s="151"/>
       <c r="AG38" s="152"/>
       <c r="AH38" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AI38" s="172"/>
       <c r="AJ38" s="173"/>
@@ -7922,7 +7966,7 @@
       <c r="AL38" s="151"/>
       <c r="AM38" s="152"/>
       <c r="AN38" s="73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AO38" s="151"/>
       <c r="AP38" s="152"/>
@@ -7947,7 +7991,7 @@
     <row r="39" spans="2:59" ht="20.25">
       <c r="B39" s="20"/>
       <c r="C39" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D39" s="216"/>
       <c r="E39" s="133" t="s">
@@ -7963,7 +8007,7 @@
       <c r="K39" s="121"/>
       <c r="L39" s="121"/>
       <c r="M39" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N39" s="121"/>
       <c r="O39" s="121"/>
@@ -7981,32 +8025,32 @@
       <c r="W39" s="121"/>
       <c r="X39" s="121"/>
       <c r="Y39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z39" s="140"/>
       <c r="AA39" s="141"/>
       <c r="AB39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC39" s="140"/>
       <c r="AD39" s="141"/>
       <c r="AE39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF39" s="140"/>
       <c r="AG39" s="141"/>
       <c r="AH39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI39" s="140"/>
       <c r="AJ39" s="141"/>
       <c r="AK39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL39" s="140"/>
       <c r="AM39" s="141"/>
       <c r="AN39" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO39" s="140"/>
       <c r="AP39" s="141"/>
@@ -8029,7 +8073,7 @@
       <c r="BA39" s="121"/>
       <c r="BB39" s="121"/>
       <c r="BC39" s="174" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BD39" s="175"/>
       <c r="BE39" s="175"/>
@@ -8039,7 +8083,7 @@
     <row r="40" spans="2:59" ht="20.25">
       <c r="B40" s="20"/>
       <c r="C40" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D40" s="216"/>
       <c r="E40" s="133" t="s">
@@ -8055,7 +8099,7 @@
       <c r="K40" s="121"/>
       <c r="L40" s="121"/>
       <c r="M40" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N40" s="121"/>
       <c r="O40" s="121"/>
@@ -8073,32 +8117,32 @@
       <c r="W40" s="121"/>
       <c r="X40" s="121"/>
       <c r="Y40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z40" s="140"/>
       <c r="AA40" s="141"/>
       <c r="AB40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC40" s="140"/>
       <c r="AD40" s="141"/>
       <c r="AE40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF40" s="140"/>
       <c r="AG40" s="141"/>
       <c r="AH40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI40" s="140"/>
       <c r="AJ40" s="141"/>
       <c r="AK40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL40" s="140"/>
       <c r="AM40" s="141"/>
       <c r="AN40" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO40" s="140"/>
       <c r="AP40" s="141"/>
@@ -8131,7 +8175,7 @@
     <row r="41" spans="2:59" ht="20.25">
       <c r="B41" s="20"/>
       <c r="C41" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D41" s="216"/>
       <c r="E41" s="133" t="s">
@@ -8147,7 +8191,7 @@
       <c r="K41" s="121"/>
       <c r="L41" s="121"/>
       <c r="M41" s="121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N41" s="121"/>
       <c r="O41" s="121"/>
@@ -8165,32 +8209,32 @@
       <c r="W41" s="121"/>
       <c r="X41" s="121"/>
       <c r="Y41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z41" s="140"/>
       <c r="AA41" s="141"/>
       <c r="AB41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC41" s="140"/>
       <c r="AD41" s="141"/>
       <c r="AE41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF41" s="140"/>
       <c r="AG41" s="141"/>
       <c r="AH41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI41" s="140"/>
       <c r="AJ41" s="141"/>
       <c r="AK41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL41" s="140"/>
       <c r="AM41" s="141"/>
       <c r="AN41" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO41" s="140"/>
       <c r="AP41" s="141"/>
@@ -8223,7 +8267,7 @@
     <row r="42" spans="2:59" ht="20.25">
       <c r="B42" s="20"/>
       <c r="C42" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="216"/>
       <c r="E42" s="133" t="s">
@@ -8239,7 +8283,7 @@
       <c r="K42" s="121"/>
       <c r="L42" s="121"/>
       <c r="M42" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N42" s="121"/>
       <c r="O42" s="121"/>
@@ -8257,32 +8301,32 @@
       <c r="W42" s="121"/>
       <c r="X42" s="121"/>
       <c r="Y42" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z42" s="140"/>
       <c r="AA42" s="141"/>
       <c r="AB42" s="139" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AC42" s="140"/>
       <c r="AD42" s="141"/>
       <c r="AE42" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF42" s="140"/>
       <c r="AG42" s="141"/>
       <c r="AH42" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AI42" s="140"/>
       <c r="AJ42" s="141"/>
       <c r="AK42" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL42" s="140"/>
       <c r="AM42" s="141"/>
       <c r="AN42" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AO42" s="140"/>
       <c r="AP42" s="141"/>
@@ -8374,33 +8418,33 @@
     </row>
     <row r="45" spans="2:59">
       <c r="C45" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="2:59">
       <c r="C46" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="2:59">
       <c r="C47" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="2:59">
       <c r="C48" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="17.25" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:36">
       <c r="B51" s="16"/>
       <c r="C51" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -8419,13 +8463,13 @@
     <row r="52" spans="1:36">
       <c r="B52" s="20"/>
       <c r="C52" s="201" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D52" s="172"/>
       <c r="E52" s="172"/>
       <c r="F52" s="173"/>
       <c r="G52" s="96" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H52" s="97"/>
       <c r="I52" s="97"/>
@@ -8435,23 +8479,23 @@
       <c r="M52" s="97"/>
       <c r="N52" s="98"/>
       <c r="O52" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P52" s="21"/>
       <c r="R52" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:36">
       <c r="B53" s="20"/>
       <c r="C53" s="201" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D53" s="172"/>
       <c r="E53" s="172"/>
       <c r="F53" s="173"/>
       <c r="G53" s="96" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H53" s="97"/>
       <c r="I53" s="97"/>
@@ -8461,23 +8505,23 @@
       <c r="M53" s="97"/>
       <c r="N53" s="98"/>
       <c r="O53" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P53" s="21"/>
       <c r="R53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:36">
       <c r="B54" s="20"/>
       <c r="C54" s="201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D54" s="172"/>
       <c r="E54" s="172"/>
       <c r="F54" s="173"/>
       <c r="G54" s="202" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H54" s="97"/>
       <c r="I54" s="97"/>
@@ -8489,19 +8533,19 @@
       <c r="O54" s="98"/>
       <c r="P54" s="21"/>
       <c r="R54" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:36">
       <c r="B55" s="20"/>
       <c r="C55" s="201" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D55" s="172"/>
       <c r="E55" s="172"/>
       <c r="F55" s="173"/>
       <c r="G55" s="203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H55" s="97"/>
       <c r="I55" s="97"/>
@@ -8513,7 +8557,7 @@
       <c r="O55" s="98"/>
       <c r="P55" s="21"/>
       <c r="R55" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:36">
@@ -8547,7 +8591,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O57" s="199"/>
       <c r="P57" s="21"/>
@@ -8571,12 +8615,12 @@
     </row>
     <row r="59" spans="1:36">
       <c r="C59" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:36">
@@ -8586,33 +8630,33 @@
     </row>
     <row r="63" spans="1:36">
       <c r="C63" s="153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="154"/>
       <c r="E63" s="155"/>
       <c r="F63" s="153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G63" s="154"/>
       <c r="H63" s="154"/>
       <c r="I63" s="155"/>
       <c r="J63" s="153" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K63" s="154"/>
       <c r="L63" s="155"/>
       <c r="M63" s="153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N63" s="154"/>
       <c r="O63" s="155"/>
       <c r="P63" s="153" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q63" s="154"/>
       <c r="R63" s="155"/>
       <c r="S63" s="148" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="T63" s="148"/>
       <c r="U63" s="148"/>
@@ -8626,7 +8670,7 @@
       <c r="AC63" s="148"/>
       <c r="AD63" s="148"/>
       <c r="AE63" s="209" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF63" s="209"/>
       <c r="AG63" s="209"/>
@@ -8652,44 +8696,44 @@
       <c r="Q64" s="157"/>
       <c r="R64" s="158"/>
       <c r="S64" s="148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T64" s="148"/>
       <c r="U64" s="148"/>
       <c r="V64" s="148" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W64" s="148"/>
       <c r="X64" s="148"/>
       <c r="Y64" s="148" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z64" s="211"/>
       <c r="AA64" s="211"/>
       <c r="AB64" s="148" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AC64" s="211"/>
       <c r="AD64" s="211"/>
       <c r="AE64" s="209" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF64" s="209"/>
       <c r="AG64" s="209"/>
       <c r="AH64" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI64" s="148"/>
       <c r="AJ64" s="148"/>
     </row>
     <row r="65" spans="1:36">
       <c r="C65" s="77" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D65" s="78"/>
       <c r="E65" s="79"/>
       <c r="F65" s="72" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G65" s="72"/>
       <c r="H65" s="72"/>
@@ -8700,7 +8744,7 @@
       <c r="K65" s="121"/>
       <c r="L65" s="121"/>
       <c r="M65" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N65" s="198"/>
       <c r="O65" s="198"/>
@@ -8715,7 +8759,7 @@
       <c r="T65" s="121"/>
       <c r="U65" s="121"/>
       <c r="V65" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W65" s="198"/>
       <c r="X65" s="198"/>
@@ -8725,7 +8769,7 @@
       <c r="Z65" s="200"/>
       <c r="AA65" s="200"/>
       <c r="AB65" s="212" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AC65" s="213"/>
       <c r="AD65" s="213"/>
@@ -8745,7 +8789,7 @@
       <c r="D66" s="84"/>
       <c r="E66" s="85"/>
       <c r="F66" s="72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G66" s="72"/>
       <c r="H66" s="72"/>
@@ -8756,7 +8800,7 @@
       <c r="K66" s="121"/>
       <c r="L66" s="121"/>
       <c r="M66" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N66" s="198"/>
       <c r="O66" s="198"/>
@@ -8771,7 +8815,7 @@
       <c r="T66" s="121"/>
       <c r="U66" s="121"/>
       <c r="V66" s="121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W66" s="198"/>
       <c r="X66" s="198"/>
@@ -8781,7 +8825,7 @@
       <c r="Z66" s="200"/>
       <c r="AA66" s="200"/>
       <c r="AB66" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC66" s="140"/>
       <c r="AD66" s="141"/>
@@ -8796,12 +8840,12 @@
     </row>
     <row r="67" spans="1:36">
       <c r="C67" s="77" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D67" s="78"/>
       <c r="E67" s="79"/>
       <c r="F67" s="72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G67" s="72"/>
       <c r="H67" s="72"/>
@@ -8812,7 +8856,7 @@
       <c r="K67" s="198"/>
       <c r="L67" s="198"/>
       <c r="M67" s="121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N67" s="198"/>
       <c r="O67" s="198"/>
@@ -8827,7 +8871,7 @@
       <c r="T67" s="121"/>
       <c r="U67" s="121"/>
       <c r="V67" s="121" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W67" s="198"/>
       <c r="X67" s="198"/>
@@ -8837,7 +8881,7 @@
       <c r="Z67" s="200"/>
       <c r="AA67" s="200"/>
       <c r="AB67" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC67" s="140"/>
       <c r="AD67" s="141"/>
@@ -8857,7 +8901,7 @@
       <c r="D68" s="84"/>
       <c r="E68" s="85"/>
       <c r="F68" s="72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G68" s="72"/>
       <c r="H68" s="72"/>
@@ -8868,7 +8912,7 @@
       <c r="K68" s="121"/>
       <c r="L68" s="121"/>
       <c r="M68" s="121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N68" s="198"/>
       <c r="O68" s="198"/>
@@ -8883,7 +8927,7 @@
       <c r="T68" s="121"/>
       <c r="U68" s="121"/>
       <c r="V68" s="121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W68" s="198"/>
       <c r="X68" s="198"/>
@@ -8893,7 +8937,7 @@
       <c r="Z68" s="200"/>
       <c r="AA68" s="200"/>
       <c r="AB68" s="139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AC68" s="140"/>
       <c r="AD68" s="141"/>
@@ -8908,7 +8952,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="C69" s="214" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="214"/>
@@ -8976,7 +9020,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="C71" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -8991,13 +9035,13 @@
     </row>
     <row r="74" spans="1:36" ht="17.25" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:36">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -9022,7 +9066,7 @@
       <c r="E76" s="151"/>
       <c r="F76" s="152"/>
       <c r="G76" s="96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H76" s="97"/>
       <c r="I76" s="97"/>
@@ -9043,7 +9087,7 @@
       <c r="E77" s="151"/>
       <c r="F77" s="152"/>
       <c r="G77" s="96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H77" s="97"/>
       <c r="I77" s="97"/>
@@ -9064,7 +9108,7 @@
       <c r="E78" s="151"/>
       <c r="F78" s="152"/>
       <c r="G78" s="96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H78" s="97"/>
       <c r="I78" s="97"/>
@@ -9107,7 +9151,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O80" s="199"/>
       <c r="P80" s="21"/>
@@ -9388,8 +9432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL170"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AQ22" sqref="AQ22"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F109" sqref="F109:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5"/>
@@ -9403,7 +9447,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
@@ -9437,17 +9481,17 @@
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="229" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="230"/>
       <c r="F3" s="231"/>
       <c r="G3" s="225" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H3" s="226"/>
       <c r="I3" s="227"/>
       <c r="J3" s="228" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K3" s="226"/>
       <c r="L3" s="226"/>
@@ -9525,7 +9569,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="40"/>
       <c r="E6" s="246" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F6" s="246"/>
       <c r="G6" s="246"/>
@@ -9848,7 +9892,7 @@
     </row>
     <row r="18" spans="1:38" ht="17.25" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -9895,14 +9939,14 @@
       <c r="A20" s="2"/>
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="101"/>
       <c r="F20" s="103"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -9912,7 +9956,7 @@
       <c r="N20" s="103"/>
       <c r="O20" s="28"/>
       <c r="P20" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q20" s="103"/>
       <c r="R20" s="28"/>
@@ -9986,7 +10030,7 @@
       <c r="E22" s="136"/>
       <c r="F22" s="136"/>
       <c r="G22" s="136" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
@@ -9997,7 +10041,7 @@
       <c r="L22" s="136"/>
       <c r="M22" s="136"/>
       <c r="N22" s="136" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="O22" s="136"/>
       <c r="P22" s="136"/>
@@ -10009,19 +10053,19 @@
       <c r="T22" s="136"/>
       <c r="U22" s="136"/>
       <c r="V22" s="153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="W22" s="154"/>
       <c r="X22" s="154"/>
       <c r="Y22" s="155"/>
       <c r="Z22" s="153" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AA22" s="154"/>
       <c r="AB22" s="154"/>
       <c r="AC22" s="155"/>
       <c r="AD22" s="235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AE22" s="235"/>
       <c r="AF22" s="22"/>
@@ -10080,7 +10124,7 @@
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H24" s="121"/>
       <c r="I24" s="121"/>
@@ -10103,19 +10147,19 @@
       <c r="T24" s="121"/>
       <c r="U24" s="121"/>
       <c r="V24" s="194" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
       <c r="Y24" s="121"/>
       <c r="Z24" s="194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA24" s="121"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="121"/>
       <c r="AD24" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE24" s="47"/>
       <c r="AF24" s="22"/>
@@ -10135,7 +10179,7 @@
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H25" s="121"/>
       <c r="I25" s="121"/>
@@ -10158,19 +10202,19 @@
       <c r="T25" s="121"/>
       <c r="U25" s="121"/>
       <c r="V25" s="194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W25" s="121"/>
       <c r="X25" s="121"/>
       <c r="Y25" s="121"/>
       <c r="Z25" s="194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA25" s="121"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="121"/>
       <c r="AD25" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE25" s="47"/>
       <c r="AF25" s="22"/>
@@ -10190,7 +10234,7 @@
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H26" s="121"/>
       <c r="I26" s="121"/>
@@ -10213,19 +10257,19 @@
       <c r="T26" s="121"/>
       <c r="U26" s="121"/>
       <c r="V26" s="194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W26" s="121"/>
       <c r="X26" s="121"/>
       <c r="Y26" s="121"/>
       <c r="Z26" s="194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA26" s="121"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="121"/>
       <c r="AD26" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE26" s="47"/>
       <c r="AF26" s="22"/>
@@ -10245,7 +10289,7 @@
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
@@ -10268,19 +10312,19 @@
       <c r="T27" s="121"/>
       <c r="U27" s="121"/>
       <c r="V27" s="194" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W27" s="121"/>
       <c r="X27" s="121"/>
       <c r="Y27" s="121"/>
       <c r="Z27" s="194" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AA27" s="121"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="121"/>
       <c r="AD27" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AE27" s="47"/>
       <c r="AF27" s="22"/>
@@ -10360,7 +10404,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="B30" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -10390,7 +10434,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="B31" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -10448,7 +10492,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="17.25" thickBot="1"/>
@@ -10489,7 +10533,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="20"/>
       <c r="C36" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="26"/>
@@ -10498,7 +10542,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="28"/>
@@ -10558,25 +10602,25 @@
     <row r="38" spans="1:34">
       <c r="B38" s="20"/>
       <c r="C38" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D38" s="136"/>
       <c r="E38" s="136"/>
       <c r="F38" s="136"/>
       <c r="G38" s="136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="136"/>
       <c r="K38" s="153" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L38" s="154"/>
       <c r="M38" s="154"/>
       <c r="N38" s="155"/>
       <c r="O38" s="153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P38" s="154"/>
       <c r="Q38" s="154"/>
@@ -10588,14 +10632,14 @@
       <c r="U38" s="154"/>
       <c r="V38" s="155"/>
       <c r="W38" s="136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X38" s="136"/>
       <c r="Y38" s="136"/>
       <c r="Z38" s="136"/>
       <c r="AA38" s="136"/>
       <c r="AB38" s="235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC38" s="235"/>
       <c r="AE38" s="21"/>
@@ -10640,13 +10684,13 @@
       <c r="E40" s="198"/>
       <c r="F40" s="198"/>
       <c r="G40" s="121" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H40" s="121"/>
       <c r="I40" s="121"/>
       <c r="J40" s="121"/>
       <c r="K40" s="194" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L40" s="121"/>
       <c r="M40" s="121"/>
@@ -10664,14 +10708,14 @@
       <c r="U40" s="121"/>
       <c r="V40" s="121"/>
       <c r="W40" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X40" s="234"/>
       <c r="Y40" s="234"/>
       <c r="Z40" s="234"/>
       <c r="AA40" s="234"/>
       <c r="AB40" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC40" s="47"/>
       <c r="AE40" s="21"/>
@@ -10685,13 +10729,13 @@
       <c r="E41" s="198"/>
       <c r="F41" s="198"/>
       <c r="G41" s="121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H41" s="121"/>
       <c r="I41" s="121"/>
       <c r="J41" s="121"/>
       <c r="K41" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L41" s="121"/>
       <c r="M41" s="121"/>
@@ -10709,14 +10753,14 @@
       <c r="U41" s="121"/>
       <c r="V41" s="121"/>
       <c r="W41" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X41" s="234"/>
       <c r="Y41" s="234"/>
       <c r="Z41" s="234"/>
       <c r="AA41" s="234"/>
       <c r="AB41" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC41" s="47"/>
       <c r="AE41" s="21"/>
@@ -10730,13 +10774,13 @@
       <c r="E42" s="198"/>
       <c r="F42" s="198"/>
       <c r="G42" s="121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
       <c r="J42" s="121"/>
       <c r="K42" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L42" s="121"/>
       <c r="M42" s="121"/>
@@ -10754,14 +10798,14 @@
       <c r="U42" s="121"/>
       <c r="V42" s="121"/>
       <c r="W42" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X42" s="234"/>
       <c r="Y42" s="234"/>
       <c r="Z42" s="234"/>
       <c r="AA42" s="234"/>
       <c r="AB42" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC42" s="47"/>
       <c r="AE42" s="21"/>
@@ -10775,13 +10819,13 @@
       <c r="E43" s="198"/>
       <c r="F43" s="198"/>
       <c r="G43" s="121" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
       <c r="J43" s="121"/>
       <c r="K43" s="194" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L43" s="121"/>
       <c r="M43" s="121"/>
@@ -10799,14 +10843,14 @@
       <c r="U43" s="121"/>
       <c r="V43" s="121"/>
       <c r="W43" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X43" s="234"/>
       <c r="Y43" s="234"/>
       <c r="Z43" s="234"/>
       <c r="AA43" s="234"/>
       <c r="AB43" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC43" s="47"/>
       <c r="AE43" s="21"/>
@@ -10877,7 +10921,7 @@
     </row>
     <row r="46" spans="1:34">
       <c r="B46" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -10939,7 +10983,7 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="17.25" thickBot="1"/>
@@ -10980,7 +11024,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="20"/>
       <c r="C51" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="26"/>
@@ -10989,7 +11033,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K51" s="103"/>
       <c r="L51" s="28"/>
@@ -11049,25 +11093,25 @@
     <row r="53" spans="1:34">
       <c r="B53" s="20"/>
       <c r="C53" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D53" s="136"/>
       <c r="E53" s="136"/>
       <c r="F53" s="136"/>
       <c r="G53" s="136" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="136"/>
       <c r="K53" s="153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L53" s="154"/>
       <c r="M53" s="154"/>
       <c r="N53" s="155"/>
       <c r="O53" s="153" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P53" s="154"/>
       <c r="Q53" s="154"/>
@@ -11079,14 +11123,14 @@
       <c r="U53" s="154"/>
       <c r="V53" s="155"/>
       <c r="W53" s="136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="X53" s="136"/>
       <c r="Y53" s="136"/>
       <c r="Z53" s="136"/>
       <c r="AA53" s="136"/>
       <c r="AB53" s="235" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC53" s="235"/>
       <c r="AE53" s="21"/>
@@ -11131,13 +11175,13 @@
       <c r="E55" s="198"/>
       <c r="F55" s="198"/>
       <c r="G55" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H55" s="121"/>
       <c r="I55" s="121"/>
       <c r="J55" s="121"/>
       <c r="K55" s="194" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L55" s="121"/>
       <c r="M55" s="121"/>
@@ -11155,14 +11199,14 @@
       <c r="U55" s="121"/>
       <c r="V55" s="121"/>
       <c r="W55" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X55" s="234"/>
       <c r="Y55" s="234"/>
       <c r="Z55" s="234"/>
       <c r="AA55" s="234"/>
       <c r="AB55" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC55" s="47"/>
       <c r="AE55" s="21"/>
@@ -11176,13 +11220,13 @@
       <c r="E56" s="198"/>
       <c r="F56" s="198"/>
       <c r="G56" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H56" s="121"/>
       <c r="I56" s="121"/>
       <c r="J56" s="121"/>
       <c r="K56" s="194" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L56" s="121"/>
       <c r="M56" s="121"/>
@@ -11200,14 +11244,14 @@
       <c r="U56" s="121"/>
       <c r="V56" s="121"/>
       <c r="W56" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X56" s="234"/>
       <c r="Y56" s="234"/>
       <c r="Z56" s="234"/>
       <c r="AA56" s="234"/>
       <c r="AB56" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC56" s="47"/>
       <c r="AE56" s="21"/>
@@ -11221,13 +11265,13 @@
       <c r="E57" s="198"/>
       <c r="F57" s="198"/>
       <c r="G57" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H57" s="121"/>
       <c r="I57" s="121"/>
       <c r="J57" s="121"/>
       <c r="K57" s="194" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121"/>
@@ -11245,14 +11289,14 @@
       <c r="U57" s="121"/>
       <c r="V57" s="121"/>
       <c r="W57" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X57" s="234"/>
       <c r="Y57" s="234"/>
       <c r="Z57" s="234"/>
       <c r="AA57" s="234"/>
       <c r="AB57" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC57" s="47"/>
       <c r="AE57" s="21"/>
@@ -11266,13 +11310,13 @@
       <c r="E58" s="198"/>
       <c r="F58" s="198"/>
       <c r="G58" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H58" s="121"/>
       <c r="I58" s="121"/>
       <c r="J58" s="121"/>
       <c r="K58" s="194" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L58" s="121"/>
       <c r="M58" s="121"/>
@@ -11290,14 +11334,14 @@
       <c r="U58" s="121"/>
       <c r="V58" s="121"/>
       <c r="W58" s="234" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="X58" s="234"/>
       <c r="Y58" s="234"/>
       <c r="Z58" s="234"/>
       <c r="AA58" s="234"/>
       <c r="AB58" s="47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AC58" s="47"/>
       <c r="AE58" s="21"/>
@@ -11336,7 +11380,7 @@
     </row>
     <row r="60" spans="1:34">
       <c r="B60" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -11398,7 +11442,7 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="17.25" thickBot="1"/>
@@ -11439,7 +11483,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="20"/>
       <c r="C65" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -11473,19 +11517,19 @@
     <row r="66" spans="1:31" ht="16.5" customHeight="1">
       <c r="B66" s="20"/>
       <c r="C66" s="153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D66" s="154"/>
       <c r="E66" s="154"/>
       <c r="F66" s="155"/>
       <c r="G66" s="136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="136"/>
       <c r="K66" s="153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="L66" s="154"/>
       <c r="M66" s="154"/>
@@ -11497,7 +11541,7 @@
       <c r="Q66" s="154"/>
       <c r="R66" s="155"/>
       <c r="S66" s="153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="T66" s="154"/>
       <c r="U66" s="154"/>
@@ -11531,7 +11575,7 @@
     <row r="68" spans="1:31">
       <c r="B68" s="20"/>
       <c r="C68" s="194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" s="121"/>
       <c r="E68" s="121"/>
@@ -11555,7 +11599,7 @@
       <c r="Q68" s="121"/>
       <c r="R68" s="121"/>
       <c r="S68" s="194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T68" s="121"/>
       <c r="U68" s="121"/>
@@ -11565,7 +11609,7 @@
     <row r="69" spans="1:31">
       <c r="B69" s="20"/>
       <c r="C69" s="194" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D69" s="121"/>
       <c r="E69" s="121"/>
@@ -11589,7 +11633,7 @@
       <c r="Q69" s="121"/>
       <c r="R69" s="121"/>
       <c r="S69" s="194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T69" s="121"/>
       <c r="U69" s="121"/>
@@ -11599,7 +11643,7 @@
     <row r="70" spans="1:31">
       <c r="B70" s="20"/>
       <c r="C70" s="194" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D70" s="121"/>
       <c r="E70" s="121"/>
@@ -11623,7 +11667,7 @@
       <c r="Q70" s="121"/>
       <c r="R70" s="121"/>
       <c r="S70" s="194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T70" s="121"/>
       <c r="U70" s="121"/>
@@ -11633,7 +11677,7 @@
     <row r="71" spans="1:31">
       <c r="B71" s="20"/>
       <c r="C71" s="194" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D71" s="121"/>
       <c r="E71" s="121"/>
@@ -11657,7 +11701,7 @@
       <c r="Q71" s="121"/>
       <c r="R71" s="121"/>
       <c r="S71" s="194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="T71" s="121"/>
       <c r="U71" s="121"/>
@@ -11730,13 +11774,13 @@
     </row>
     <row r="74" spans="1:31" ht="17.25" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -11755,13 +11799,13 @@
     <row r="76" spans="1:31">
       <c r="B76" s="20"/>
       <c r="C76" s="201" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D76" s="172"/>
       <c r="E76" s="172"/>
       <c r="F76" s="173"/>
       <c r="G76" s="96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H76" s="97"/>
       <c r="I76" s="97"/>
@@ -11776,13 +11820,13 @@
     <row r="77" spans="1:31">
       <c r="B77" s="20"/>
       <c r="C77" s="201" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D77" s="172"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="96" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H77" s="97"/>
       <c r="I77" s="97"/>
@@ -11797,13 +11841,13 @@
     <row r="78" spans="1:31">
       <c r="B78" s="20"/>
       <c r="C78" s="201" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78" s="172"/>
       <c r="E78" s="172"/>
       <c r="F78" s="173"/>
       <c r="G78" s="203" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H78" s="97"/>
       <c r="I78" s="97"/>
@@ -11818,13 +11862,13 @@
     <row r="79" spans="1:31">
       <c r="B79" s="20"/>
       <c r="C79" s="201" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D79" s="172"/>
       <c r="E79" s="172"/>
       <c r="F79" s="173"/>
       <c r="G79" s="203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H79" s="97"/>
       <c r="I79" s="97"/>
@@ -11867,7 +11911,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O81" s="199"/>
       <c r="P81" s="21"/>
@@ -11908,7 +11952,7 @@
     </row>
     <row r="84" spans="1:26" ht="17.25" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.25" thickBot="1">
@@ -11942,17 +11986,17 @@
       <c r="B86" s="20"/>
       <c r="C86" s="22"/>
       <c r="D86" s="236" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E86" s="237"/>
       <c r="F86" s="238"/>
       <c r="G86" s="239" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H86" s="240"/>
       <c r="I86" s="241"/>
       <c r="J86" s="242" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K86" s="240"/>
       <c r="L86" s="240"/>
@@ -11975,22 +12019,22 @@
       <c r="B87" s="20"/>
       <c r="C87" s="22"/>
       <c r="D87" s="243" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E87" s="243"/>
       <c r="F87" s="243"/>
       <c r="G87" s="243" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H87" s="243"/>
       <c r="I87" s="243"/>
       <c r="J87" s="243" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K87" s="243"/>
       <c r="L87" s="243"/>
       <c r="M87" s="243" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N87" s="121"/>
       <c r="O87" s="121"/>
@@ -12344,7 +12388,7 @@
     </row>
     <row r="101" spans="1:31" ht="17.25" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -12364,7 +12408,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="20"/>
       <c r="C103" s="232" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D103" s="232"/>
       <c r="E103" s="232"/>
@@ -12391,66 +12435,66 @@
     <row r="105" spans="1:31">
       <c r="B105" s="20"/>
       <c r="C105" s="121" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D105" s="121"/>
       <c r="E105" s="121"/>
       <c r="F105" s="96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G105" s="97"/>
       <c r="H105" s="97"/>
       <c r="I105" s="97"/>
       <c r="J105" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:31">
       <c r="B106" s="20"/>
       <c r="C106" s="121" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D106" s="121"/>
       <c r="E106" s="121"/>
       <c r="F106" s="96" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G106" s="97"/>
       <c r="H106" s="97"/>
       <c r="I106" s="97"/>
       <c r="J106" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:31">
       <c r="B107" s="20"/>
       <c r="C107" s="121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D107" s="121"/>
       <c r="E107" s="121"/>
       <c r="F107" s="96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G107" s="97"/>
       <c r="H107" s="97"/>
       <c r="I107" s="97"/>
       <c r="J107" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:31">
       <c r="B108" s="20"/>
       <c r="C108" s="121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D108" s="121"/>
       <c r="E108" s="121"/>
       <c r="F108" s="96" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G108" s="97"/>
       <c r="H108" s="97"/>
@@ -12466,11 +12510,11 @@
       <c r="D109" s="121"/>
       <c r="E109" s="121"/>
       <c r="F109" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G109" s="97"/>
       <c r="H109" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I109" s="97"/>
       <c r="J109" s="98"/>
@@ -12479,12 +12523,12 @@
     <row r="110" spans="1:31">
       <c r="B110" s="20"/>
       <c r="C110" s="121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D110" s="121"/>
       <c r="E110" s="121"/>
       <c r="F110" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G110" s="97"/>
       <c r="H110" s="97"/>
@@ -12513,7 +12557,7 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J112" s="199"/>
       <c r="K112" s="21"/>
@@ -12532,7 +12576,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -12540,7 +12584,7 @@
     </row>
     <row r="118" spans="1:11" ht="17.25" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -12560,7 +12604,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="20"/>
       <c r="C120" s="232" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D120" s="232"/>
       <c r="E120" s="232"/>
@@ -12587,30 +12631,30 @@
     <row r="122" spans="1:11">
       <c r="B122" s="20"/>
       <c r="C122" s="121" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D122" s="121"/>
       <c r="E122" s="121"/>
       <c r="F122" s="96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G122" s="97"/>
       <c r="H122" s="97"/>
       <c r="I122" s="97"/>
       <c r="J122" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K122" s="21"/>
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="20"/>
       <c r="C123" s="121" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="121"/>
       <c r="E123" s="121"/>
       <c r="F123" s="96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G123" s="97"/>
       <c r="H123" s="97"/>
@@ -12626,11 +12670,11 @@
       <c r="D124" s="121"/>
       <c r="E124" s="121"/>
       <c r="F124" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G124" s="97"/>
       <c r="H124" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I124" s="97"/>
       <c r="J124" s="98"/>
@@ -12639,12 +12683,12 @@
     <row r="125" spans="1:11">
       <c r="B125" s="20"/>
       <c r="C125" s="121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D125" s="121"/>
       <c r="E125" s="121"/>
       <c r="F125" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G125" s="97"/>
       <c r="H125" s="97"/>
@@ -12673,7 +12717,7 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J127" s="199"/>
       <c r="K127" s="21"/>
@@ -12692,12 +12736,12 @@
     </row>
     <row r="130" spans="1:11">
       <c r="B130" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17.25" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -12717,7 +12761,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="20"/>
       <c r="C134" s="232" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D134" s="232"/>
       <c r="E134" s="232"/>
@@ -12744,18 +12788,18 @@
     <row r="136" spans="1:11">
       <c r="B136" s="20"/>
       <c r="C136" s="121" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D136" s="121"/>
       <c r="E136" s="121"/>
       <c r="F136" s="96" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G136" s="97"/>
       <c r="H136" s="97"/>
       <c r="I136" s="97"/>
       <c r="J136" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K136" s="21"/>
     </row>
@@ -12767,11 +12811,11 @@
       <c r="D137" s="121"/>
       <c r="E137" s="121"/>
       <c r="F137" s="96" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G137" s="97"/>
       <c r="H137" s="97" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I137" s="97"/>
       <c r="J137" s="98"/>
@@ -12780,12 +12824,12 @@
     <row r="138" spans="1:11">
       <c r="B138" s="20"/>
       <c r="C138" s="121" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D138" s="121"/>
       <c r="E138" s="121"/>
       <c r="F138" s="96" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G138" s="97"/>
       <c r="H138" s="97"/>
@@ -12814,7 +12858,7 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="199" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J140" s="199"/>
       <c r="K140" s="21"/>
@@ -12833,12 +12877,12 @@
     </row>
     <row r="143" spans="1:11">
       <c r="B143" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="17.25" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -12866,28 +12910,28 @@
     <row r="148" spans="1:21">
       <c r="B148" s="20"/>
       <c r="C148" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G148" s="97"/>
       <c r="H148" s="97"/>
       <c r="I148" s="97"/>
       <c r="J148" s="14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N148" s="199"/>
       <c r="O148" s="22"/>
       <c r="P148" s="199" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q148" s="199"/>
       <c r="R148" s="22"/>
@@ -12920,7 +12964,7 @@
     <row r="150" spans="1:21" ht="20.25" customHeight="1">
       <c r="B150" s="20"/>
       <c r="C150" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
@@ -12944,7 +12988,7 @@
     <row r="151" spans="1:21" ht="20.25" customHeight="1">
       <c r="B151" s="20"/>
       <c r="C151" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
@@ -12968,7 +13012,7 @@
     <row r="152" spans="1:21">
       <c r="B152" s="20"/>
       <c r="C152" s="217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D152" s="218"/>
       <c r="E152" s="136" t="s">
@@ -12978,13 +13022,13 @@
       <c r="G152" s="136"/>
       <c r="H152" s="136"/>
       <c r="I152" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J152" s="136"/>
       <c r="K152" s="136"/>
       <c r="L152" s="136"/>
       <c r="M152" s="136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N152" s="136"/>
       <c r="O152" s="136"/>
@@ -13022,7 +13066,7 @@
     <row r="154" spans="1:21" ht="20.25">
       <c r="B154" s="20"/>
       <c r="C154" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D154" s="216"/>
       <c r="E154" s="121" t="s">
@@ -13032,7 +13076,7 @@
       <c r="G154" s="121"/>
       <c r="H154" s="121"/>
       <c r="I154" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J154" s="121"/>
       <c r="K154" s="121"/>
@@ -13054,7 +13098,7 @@
     <row r="155" spans="1:21" ht="20.25">
       <c r="B155" s="20"/>
       <c r="C155" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D155" s="216"/>
       <c r="E155" s="121" t="s">
@@ -13064,7 +13108,7 @@
       <c r="G155" s="121"/>
       <c r="H155" s="121"/>
       <c r="I155" s="121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J155" s="121"/>
       <c r="K155" s="121"/>
@@ -13086,7 +13130,7 @@
     <row r="156" spans="1:21" ht="20.25">
       <c r="B156" s="20"/>
       <c r="C156" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D156" s="216"/>
       <c r="E156" s="121" t="s">
@@ -13096,7 +13140,7 @@
       <c r="G156" s="121"/>
       <c r="H156" s="121"/>
       <c r="I156" s="121" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J156" s="121"/>
       <c r="K156" s="121"/>
@@ -13108,7 +13152,7 @@
       <c r="O156" s="224"/>
       <c r="P156" s="224"/>
       <c r="Q156" s="121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R156" s="121"/>
       <c r="S156" s="121"/>
@@ -13118,7 +13162,7 @@
     <row r="157" spans="1:21" ht="20.25">
       <c r="B157" s="20"/>
       <c r="C157" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D157" s="216"/>
       <c r="E157" s="121" t="s">
@@ -13128,7 +13172,7 @@
       <c r="G157" s="121"/>
       <c r="H157" s="121"/>
       <c r="I157" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J157" s="121"/>
       <c r="K157" s="121"/>
@@ -13150,7 +13194,7 @@
     <row r="158" spans="1:21" ht="20.25" customHeight="1">
       <c r="B158" s="20"/>
       <c r="C158" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
@@ -13174,7 +13218,7 @@
     <row r="159" spans="1:21">
       <c r="B159" s="20"/>
       <c r="C159" s="217" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D159" s="218"/>
       <c r="E159" s="136" t="s">
@@ -13184,13 +13228,13 @@
       <c r="G159" s="136"/>
       <c r="H159" s="136"/>
       <c r="I159" s="136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J159" s="136"/>
       <c r="K159" s="136"/>
       <c r="L159" s="136"/>
       <c r="M159" s="136" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N159" s="136"/>
       <c r="O159" s="136"/>
@@ -13228,7 +13272,7 @@
     <row r="161" spans="2:21" ht="20.25">
       <c r="B161" s="20"/>
       <c r="C161" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D161" s="216"/>
       <c r="E161" s="121" t="s">
@@ -13238,7 +13282,7 @@
       <c r="G161" s="121"/>
       <c r="H161" s="121"/>
       <c r="I161" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J161" s="121"/>
       <c r="K161" s="121"/>
@@ -13260,7 +13304,7 @@
     <row r="162" spans="2:21" ht="20.25">
       <c r="B162" s="20"/>
       <c r="C162" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D162" s="216"/>
       <c r="E162" s="121" t="s">
@@ -13270,7 +13314,7 @@
       <c r="G162" s="121"/>
       <c r="H162" s="121"/>
       <c r="I162" s="121" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="J162" s="121"/>
       <c r="K162" s="121"/>
@@ -13292,7 +13336,7 @@
     <row r="163" spans="2:21" ht="20.25">
       <c r="B163" s="20"/>
       <c r="C163" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D163" s="216"/>
       <c r="E163" s="121" t="s">
@@ -13302,7 +13346,7 @@
       <c r="G163" s="121"/>
       <c r="H163" s="121"/>
       <c r="I163" s="121" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J163" s="121"/>
       <c r="K163" s="121"/>
@@ -13314,7 +13358,7 @@
       <c r="O163" s="224"/>
       <c r="P163" s="224"/>
       <c r="Q163" s="121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R163" s="121"/>
       <c r="S163" s="121"/>
@@ -13324,7 +13368,7 @@
     <row r="164" spans="2:21" ht="20.25">
       <c r="B164" s="20"/>
       <c r="C164" s="215" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D164" s="216"/>
       <c r="E164" s="121" t="s">
@@ -13334,7 +13378,7 @@
       <c r="G164" s="121"/>
       <c r="H164" s="121"/>
       <c r="I164" s="121" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J164" s="121"/>
       <c r="K164" s="121"/>
@@ -13394,7 +13438,7 @@
       <c r="Q166" s="22"/>
       <c r="R166" s="22"/>
       <c r="S166" s="199" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T166" s="199"/>
       <c r="U166" s="21"/>
@@ -13423,12 +13467,12 @@
     </row>
     <row r="169" spans="2:21">
       <c r="B169" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="170" spans="2:21">
       <c r="B170" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -13691,7 +13735,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -13732,7 +13776,7 @@
     <row r="3" spans="1:33">
       <c r="B3" s="20"/>
       <c r="C3" s="139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="252"/>
       <c r="E3" s="252"/>
@@ -13743,33 +13787,33 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="148" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="148"/>
       <c r="M3" s="148"/>
       <c r="N3" s="148" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O3" s="148"/>
       <c r="P3" s="148"/>
       <c r="Q3" s="148"/>
       <c r="R3" s="148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S3" s="148"/>
       <c r="T3" s="148"/>
       <c r="U3" s="148"/>
       <c r="V3" s="148"/>
       <c r="W3" s="148" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="X3" s="148"/>
       <c r="Y3" s="148"/>
       <c r="Z3" s="148"/>
       <c r="AA3" s="148"/>
       <c r="AB3" s="148" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC3" s="148"/>
       <c r="AD3" s="148"/>
@@ -13780,24 +13824,24 @@
     <row r="4" spans="1:33">
       <c r="B4" s="20"/>
       <c r="C4" s="254" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" s="255"/>
       <c r="E4" s="255"/>
       <c r="F4" s="255"/>
       <c r="G4" s="256"/>
       <c r="H4" s="263" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="248"/>
       <c r="J4" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4" s="121"/>
       <c r="L4" s="121"/>
       <c r="M4" s="121"/>
       <c r="N4" s="138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O4" s="121"/>
       <c r="P4" s="121"/>
@@ -13817,7 +13861,7 @@
       <c r="Z4" s="121"/>
       <c r="AA4" s="121"/>
       <c r="AB4" s="138" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AC4" s="121"/>
       <c r="AD4" s="121"/>
@@ -13833,17 +13877,17 @@
       <c r="F5" s="258"/>
       <c r="G5" s="259"/>
       <c r="H5" s="247" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="248"/>
       <c r="J5" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K5" s="121"/>
       <c r="L5" s="121"/>
       <c r="M5" s="121"/>
       <c r="N5" s="138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O5" s="121"/>
       <c r="P5" s="121"/>
@@ -13863,7 +13907,7 @@
       <c r="Z5" s="121"/>
       <c r="AA5" s="121"/>
       <c r="AB5" s="138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC5" s="121"/>
       <c r="AD5" s="121"/>
@@ -13879,17 +13923,17 @@
       <c r="F6" s="261"/>
       <c r="G6" s="262"/>
       <c r="H6" s="247" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I6" s="248"/>
       <c r="J6" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O6" s="121"/>
       <c r="P6" s="121"/>
@@ -13909,7 +13953,7 @@
       <c r="Z6" s="121"/>
       <c r="AA6" s="121"/>
       <c r="AB6" s="138" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC6" s="121"/>
       <c r="AD6" s="121"/>
@@ -13920,24 +13964,24 @@
     <row r="7" spans="1:33">
       <c r="B7" s="20"/>
       <c r="C7" s="249" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7" s="250"/>
       <c r="E7" s="250"/>
       <c r="F7" s="250"/>
       <c r="G7" s="251"/>
       <c r="H7" s="247" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I7" s="248"/>
       <c r="J7" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K7" s="121"/>
       <c r="L7" s="121"/>
       <c r="M7" s="121"/>
       <c r="N7" s="138" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O7" s="121"/>
       <c r="P7" s="121"/>
@@ -13957,7 +14001,7 @@
       <c r="Z7" s="121"/>
       <c r="AA7" s="121"/>
       <c r="AB7" s="138" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC7" s="121"/>
       <c r="AD7" s="121"/>
@@ -14035,17 +14079,17 @@
     </row>
     <row r="11" spans="1:33">
       <c r="C11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="C12" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="17.25" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -14079,12 +14123,12 @@
     <row r="16" spans="1:33">
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -14111,12 +14155,12 @@
     <row r="17" spans="1:27">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -14143,12 +14187,12 @@
     <row r="18" spans="1:27">
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -14175,7 +14219,7 @@
     <row r="19" spans="1:27">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -14205,19 +14249,19 @@
     <row r="20" spans="1:27">
       <c r="B20" s="20"/>
       <c r="C20" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D20" s="136"/>
       <c r="E20" s="136"/>
       <c r="F20" s="136"/>
       <c r="G20" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="136"/>
       <c r="K20" s="153" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L20" s="266"/>
       <c r="M20" s="266"/>
@@ -14235,7 +14279,7 @@
       <c r="U20" s="154"/>
       <c r="V20" s="155"/>
       <c r="W20" s="153" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="154"/>
@@ -14279,13 +14323,13 @@
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H22" s="121"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
       <c r="K22" s="73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L22" s="74"/>
       <c r="M22" s="74"/>
@@ -14313,19 +14357,19 @@
     <row r="23" spans="1:27">
       <c r="B23" s="20"/>
       <c r="C23" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
       <c r="F23" s="121"/>
       <c r="G23" s="121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H23" s="121"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
       <c r="K23" s="73" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="74"/>
@@ -14403,7 +14447,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Z25" s="103"/>
       <c r="AA25" s="21"/>
@@ -14463,7 +14507,7 @@
     <row r="28" spans="1:27">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -14488,7 +14532,7 @@
     </row>
     <row r="30" spans="1:27" ht="17.25" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -14518,12 +14562,12 @@
     <row r="32" spans="1:27">
       <c r="B32" s="20"/>
       <c r="C32" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -14546,12 +14590,12 @@
     <row r="33" spans="2:23">
       <c r="B33" s="20"/>
       <c r="C33" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -14574,12 +14618,12 @@
     <row r="34" spans="2:23">
       <c r="B34" s="20"/>
       <c r="C34" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -14602,7 +14646,7 @@
     <row r="35" spans="2:23">
       <c r="B35" s="20"/>
       <c r="C35" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -14628,7 +14672,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="20"/>
       <c r="C36" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -14654,12 +14698,12 @@
     <row r="37" spans="2:23">
       <c r="B37" s="20"/>
       <c r="C37" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -14682,12 +14726,12 @@
     <row r="38" spans="2:23">
       <c r="B38" s="20"/>
       <c r="C38" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -14710,7 +14754,7 @@
     <row r="39" spans="2:23">
       <c r="B39" s="20"/>
       <c r="C39" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -14736,13 +14780,13 @@
     <row r="40" spans="2:23">
       <c r="B40" s="20"/>
       <c r="C40" s="136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D40" s="136"/>
       <c r="E40" s="136"/>
       <c r="F40" s="136"/>
       <c r="G40" s="136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
@@ -14760,7 +14804,7 @@
       <c r="Q40" s="136"/>
       <c r="R40" s="136"/>
       <c r="S40" s="153" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="T40" s="154"/>
       <c r="U40" s="154"/>
@@ -14800,7 +14844,7 @@
       <c r="E42" s="121"/>
       <c r="F42" s="121"/>
       <c r="G42" s="121" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
@@ -14828,13 +14872,13 @@
     <row r="43" spans="2:23">
       <c r="B43" s="20"/>
       <c r="C43" s="121" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
       <c r="F43" s="121"/>
       <c r="G43" s="121" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
@@ -14898,7 +14942,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P45" s="102"/>
       <c r="Q45" s="102"/>
@@ -14906,7 +14950,7 @@
       <c r="S45" s="103"/>
       <c r="T45" s="22"/>
       <c r="U45" s="101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="V45" s="103"/>
       <c r="W45" s="21"/>
@@ -14937,12 +14981,12 @@
     </row>
     <row r="48" spans="2:23">
       <c r="C48" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -15039,7 +15083,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="17.25" thickBot="1"/>
@@ -15083,7 +15127,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="20"/>
       <c r="C4" s="101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="28"/>
@@ -15156,13 +15200,13 @@
     <row r="6" spans="1:34" ht="16.5" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="136" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="136"/>
       <c r="F6" s="136"/>
       <c r="G6" s="153" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H6" s="154"/>
       <c r="I6" s="154"/>
@@ -15172,19 +15216,19 @@
       <c r="M6" s="154"/>
       <c r="N6" s="155"/>
       <c r="O6" s="153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P6" s="154"/>
       <c r="Q6" s="154"/>
       <c r="R6" s="155"/>
       <c r="S6" s="153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="T6" s="154"/>
       <c r="U6" s="154"/>
       <c r="V6" s="155"/>
       <c r="W6" s="153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="X6" s="154"/>
       <c r="Y6" s="154"/>
@@ -15234,7 +15278,7 @@
     <row r="8" spans="1:34">
       <c r="B8" s="20"/>
       <c r="C8" s="301" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="302"/>
       <c r="E8" s="302"/>
@@ -15250,19 +15294,19 @@
       <c r="M8" s="299"/>
       <c r="N8" s="300"/>
       <c r="O8" s="294" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P8" s="295"/>
       <c r="Q8" s="295"/>
       <c r="R8" s="295"/>
       <c r="S8" s="296" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="T8" s="297"/>
       <c r="U8" s="297"/>
       <c r="V8" s="297"/>
       <c r="W8" s="286" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="X8" s="287"/>
       <c r="Y8" s="287"/>
@@ -15278,7 +15322,7 @@
     <row r="9" spans="1:34">
       <c r="B9" s="20"/>
       <c r="C9" s="277" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D9" s="277"/>
       <c r="E9" s="277"/>
@@ -15294,19 +15338,19 @@
       <c r="M9" s="284"/>
       <c r="N9" s="285"/>
       <c r="O9" s="292" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P9" s="293"/>
       <c r="Q9" s="293"/>
       <c r="R9" s="293"/>
       <c r="S9" s="281" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T9" s="282"/>
       <c r="U9" s="282"/>
       <c r="V9" s="282"/>
       <c r="W9" s="289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X9" s="290"/>
       <c r="Y9" s="290"/>
@@ -15316,7 +15360,7 @@
       <c r="AC9" s="290"/>
       <c r="AD9" s="290"/>
       <c r="AE9" s="290" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF9" s="291"/>
       <c r="AH9" s="21"/>
@@ -15324,7 +15368,7 @@
     <row r="10" spans="1:34">
       <c r="B10" s="20"/>
       <c r="C10" s="277" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D10" s="277"/>
       <c r="E10" s="277"/>
@@ -15340,19 +15384,19 @@
       <c r="M10" s="284"/>
       <c r="N10" s="285"/>
       <c r="O10" s="278" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P10" s="279"/>
       <c r="Q10" s="279"/>
       <c r="R10" s="280"/>
       <c r="S10" s="281" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T10" s="282"/>
       <c r="U10" s="282"/>
       <c r="V10" s="282"/>
       <c r="W10" s="289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X10" s="290"/>
       <c r="Y10" s="290"/>
@@ -15362,7 +15406,7 @@
       <c r="AC10" s="290"/>
       <c r="AD10" s="290"/>
       <c r="AE10" s="290" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF10" s="291"/>
       <c r="AH10" s="21"/>
@@ -15370,7 +15414,7 @@
     <row r="11" spans="1:34">
       <c r="B11" s="20"/>
       <c r="C11" s="277" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D11" s="277"/>
       <c r="E11" s="277"/>
@@ -15386,19 +15430,19 @@
       <c r="M11" s="284"/>
       <c r="N11" s="285"/>
       <c r="O11" s="278" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P11" s="279"/>
       <c r="Q11" s="279"/>
       <c r="R11" s="280"/>
       <c r="S11" s="281" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="T11" s="282"/>
       <c r="U11" s="282"/>
       <c r="V11" s="282"/>
       <c r="W11" s="289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="X11" s="290"/>
       <c r="Y11" s="290"/>
@@ -15408,7 +15452,7 @@
       <c r="AC11" s="290"/>
       <c r="AD11" s="290"/>
       <c r="AE11" s="290" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF11" s="291"/>
       <c r="AH11" s="21"/>
@@ -15450,22 +15494,22 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -15527,10 +15571,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5"/>
@@ -15559,19 +15603,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="303" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2" s="304"/>
       <c r="C2" s="304"/>
       <c r="D2" s="305"/>
       <c r="F2" s="303" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G2" s="304"/>
       <c r="H2" s="304"/>
       <c r="I2" s="305"/>
       <c r="K2" s="303" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -15588,7 +15632,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>54</v>
@@ -15600,7 +15644,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>54</v>
@@ -15612,7 +15656,7 @@
         <v>55</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15623,7 +15667,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -15633,7 +15677,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I4" s="7"/>
       <c r="K4" s="7" t="s">
@@ -15655,7 +15699,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -15690,7 +15734,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>76</v>
@@ -15735,7 +15779,7 @@
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>101</v>
@@ -15779,7 +15823,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="303" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G9" s="304"/>
       <c r="H9" s="304"/>
@@ -15796,7 +15840,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>54</v>
@@ -15808,10 +15852,10 @@
         <v>55</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" s="303" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L10" s="304"/>
       <c r="M10" s="304"/>
@@ -15848,7 +15892,7 @@
         <v>55</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -15863,7 +15907,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>74</v>
@@ -15889,13 +15933,13 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="7" t="s">
@@ -15905,7 +15949,7 @@
         <v>74</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -15915,7 +15959,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="F14" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>60</v>
@@ -15924,10 +15968,10 @@
         <v>94</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -15939,7 +15983,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="303" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B15" s="304"/>
       <c r="C15" s="304"/>
@@ -15954,7 +15998,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -15968,10 +16012,10 @@
         <v>55</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="303" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G16" s="304"/>
       <c r="H16" s="304"/>
@@ -15986,7 +16030,7 @@
         <v>127</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -15997,7 +16041,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17" s="11" t="s">
@@ -16010,22 +16054,22 @@
         <v>55</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>60</v>
@@ -16034,10 +16078,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -16049,7 +16093,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>60</v>
@@ -16058,20 +16102,20 @@
         <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="303" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="L19" s="304"/>
       <c r="M19" s="304"/>
@@ -16079,16 +16123,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>54</v>
@@ -16100,28 +16144,28 @@
         <v>55</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21" s="303" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G21" s="304"/>
       <c r="H21" s="304"/>
       <c r="I21" s="305"/>
       <c r="K21" s="7" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>60</v>
@@ -16130,7 +16174,7 @@
         <v>84</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -16154,10 +16198,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>60</v>
@@ -16166,24 +16210,24 @@
         <v>109</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="F23" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>90</v>
@@ -16195,22 +16239,22 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="303" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B24" s="304"/>
       <c r="C24" s="304"/>
       <c r="D24" s="305"/>
       <c r="F24" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>480</v>
-      </c>
       <c r="I24" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -16224,7 +16268,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -16235,17 +16279,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" s="7"/>
       <c r="F26" s="51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="53"/>
       <c r="K26" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -16253,7 +16297,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>60</v>
@@ -16262,7 +16306,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>54</v>
@@ -16274,7 +16318,7 @@
         <v>55</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>54</v>
@@ -16286,22 +16330,22 @@
         <v>55</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>61</v>
@@ -16323,17 +16367,17 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>74</v>
@@ -16364,7 +16408,7 @@
         <v>92</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>73</v>
@@ -16373,7 +16417,7 @@
         <v>74</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N30" s="7"/>
     </row>
@@ -16398,7 +16442,7 @@
         <v>127</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -16418,7 +16462,7 @@
         <v>94</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -16432,10 +16476,10 @@
         <v>55</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F33" s="303" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G33" s="304"/>
       <c r="H33" s="304"/>
@@ -16462,7 +16506,7 @@
         <v>55</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>128</v>
@@ -16482,7 +16526,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>58</v>
@@ -16504,7 +16548,7 @@
         <v>55</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -16515,7 +16559,7 @@
         <v>90</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -16551,7 +16595,7 @@
       </c>
       <c r="I37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>74</v>
@@ -16572,7 +16616,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>76</v>
@@ -16581,13 +16625,13 @@
         <v>74</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="303" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B39" s="304"/>
       <c r="C39" s="304"/>
@@ -16603,7 +16647,7 @@
       </c>
       <c r="I39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>74</v>
@@ -16624,7 +16668,7 @@
         <v>55</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>126</v>
@@ -16651,16 +16695,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -16675,7 +16719,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="F43" s="303" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G43" s="304"/>
       <c r="H43" s="304"/>
@@ -16692,12 +16736,12 @@
         <v>55</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -16724,7 +16768,7 @@
         <v>55</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>130</v>
@@ -16736,7 +16780,7 @@
         <v>131</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -16751,7 +16795,7 @@
       </c>
       <c r="D47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>60</v>
@@ -16760,7 +16804,7 @@
         <v>132</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="82.5">
@@ -16774,10 +16818,10 @@
         <v>121</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>60</v>
@@ -16810,7 +16854,7 @@
         <v>118</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -16825,7 +16869,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="F51" s="303" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G51" s="304"/>
       <c r="H51" s="304"/>
@@ -16852,7 +16896,7 @@
         <v>55</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -16868,12 +16912,6 @@
       <c r="I53" s="7"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="13"/>
       <c r="F54" s="7" t="s">
         <v>73</v>
       </c>
@@ -16881,425 +16919,757 @@
         <v>74</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="13"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>113</v>
+        <v>396</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="7" t="s">
-        <v>526</v>
+        <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="D58" s="7"/>
+        <v>384</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>528</v>
+        <v>397</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="D61" s="7"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="13"/>
+      <c r="C62" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D62" s="7"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="13"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B65" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>401</v>
-      </c>
+      <c r="C66" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>402</v>
+        <v>60</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>512</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="48"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
+      <c r="B69" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="D69" s="7"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="13"/>
+      <c r="A70" s="48"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="7"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="13"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B72" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="7" t="s">
-        <v>399</v>
+        <v>58</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>401</v>
-      </c>
+      <c r="C73" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="7"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>402</v>
+      <c r="C74" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>514</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C75" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="7"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="50"/>
       <c r="D76" s="7"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="58" t="s">
-        <v>524</v>
-      </c>
-      <c r="B77" s="59"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="13"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="7"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="58" t="s">
+        <v>523</v>
+      </c>
+      <c r="B78" s="59"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B79" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="7" t="s">
-        <v>399</v>
+        <v>58</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="33">
+      <c r="C80" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C81" s="7" t="s">
-        <v>402</v>
+      <c r="C81" s="12" t="s">
+        <v>399</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="33">
       <c r="A82" s="7" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C82" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="7"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="48"/>
-      <c r="B83" s="49"/>
-      <c r="C83" s="50"/>
       <c r="D83" s="7"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="13"/>
+      <c r="A84" s="48"/>
+      <c r="B84" s="49"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="7"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="58" t="s">
+        <v>533</v>
+      </c>
+      <c r="B85" s="59"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="13"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B86" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D85" s="11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="7" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>150</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" s="7"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="7" t="s">
-        <v>272</v>
+        <v>113</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>274</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>113</v>
+        <v>534</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>144</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="58" t="s">
+        <v>543</v>
+      </c>
+      <c r="B93" s="59"/>
+      <c r="C93" s="60"/>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B90" s="7" t="s">
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="48"/>
+      <c r="B99" s="49"/>
+      <c r="C99" s="50"/>
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="58" t="s">
+        <v>539</v>
+      </c>
+      <c r="B100" s="59"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="13"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="48"/>
+      <c r="B106" s="49"/>
+      <c r="C106" s="50"/>
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="58" t="s">
+        <v>540</v>
+      </c>
+      <c r="B107" s="59"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="33">
+      <c r="A111" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="48"/>
+      <c r="B113" s="49"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="13"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C115" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" s="7"/>
+      <c r="C120" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D120" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -15577,8 +15577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/doc/fd.xlsx
+++ b/doc/fd.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="557">
   <si>
     <t>JK-900-200</t>
     <phoneticPr fontId="1"/>
@@ -510,543 +510,527 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>设备品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零件品番</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_supplier_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_machine_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>零件ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保养时间(天)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保养所需备件数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上次保养时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customer_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pn_tbl::c_id</t>
+  </si>
+  <si>
+    <t>pn_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库记录表 warehouse_history_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bom_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>machine_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顾客表 customer_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unit_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>supplier_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> machine_tbl::c_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X04 纸</t>
+  </si>
+  <si>
+    <t>X04 纸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X22 杯底纸</t>
+  </si>
+  <si>
+    <t>X22 杯底纸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>包材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X02 纸箱</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A01 塑料袋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>卷</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生产状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>纸杯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>纸杯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>纸杯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A01 塑料袋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小计</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>需采购</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xxxxx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>计划中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生产完成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成本信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小合计</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大成造纸</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仓库信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商点击，显示【供应商详细画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【供应商详细画面】</t>
+  </si>
+  <si>
+    <t>北京 三里屯666号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>188-2888-3888</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商信息：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原材(0) 包材(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>刷新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[刷新] 按照状态过滤</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单一览表：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>已删除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除品目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A000001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[新建] 【新建订单画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[删除] 标记选择订单为删除状态，不实际删除，不可多个订单一起删除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【新建订单画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新建订单</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK-200-191</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顾客</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名创优品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下单时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交货期限</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>责任者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赵有才</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[确定] 返回【订单一览画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOM信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[删除品目] 直接删除所选品目，已生产的品目不可删除？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[BOM信息] 连接到【BOM信息画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【BOM信息画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目列打开 【品目新建/修改画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[新建品目] 打开【品目新建/修改画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【品目新建/修改画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新建/修改品目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子类</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品目名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JK-200-191 纸杯</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10,000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[确定] 返回【订单详细画面】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>可编辑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新建可编辑，修改不可编辑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不可编辑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展示订单一览以及生产状态，订单的删除，新建，查询</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>展示订单详细信息，包括订购品目表以及生产状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>机器设备ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>设备品番</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>设备名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>零件品番</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_supplier_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商表 supplier_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_machine_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>零件ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_maitenace_period</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保养时间(天)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保养所需备件数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上次保养时间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_maitenaced_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参照</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>customer_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>user_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pn_tbl::c_id</t>
-  </si>
-  <si>
-    <t>pn_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入出库记录表 warehouse_history_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bom_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>machine_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顾客表 customer_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unit_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>supplier_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> machine_tbl::c_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X04 纸</t>
-  </si>
-  <si>
-    <t>X04 纸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X22 杯底纸</t>
-  </si>
-  <si>
-    <t>X22 杯底纸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>吨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>包材</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X02 纸箱</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A01 塑料袋</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>卷</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生产状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>纸杯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>纸杯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>纸杯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合计</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原材</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A01 塑料袋</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小计</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>需采购</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xxxxx</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>计划中</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生产完成</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>成本信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小合计</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大成造纸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仓库信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商点击，显示【供应商详细画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【供应商详细画面】</t>
-  </si>
-  <si>
-    <t>北京 三里屯666号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>188-2888-3888</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>确定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>供应商信息：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原材</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>原材(0) 包材(1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>刷新</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[刷新] 按照状态过滤</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单一览表：</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>已删除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>删除品目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A000001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新建</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[新建] 【新建订单画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>□</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[删除] 标记选择订单为删除状态，不实际删除，不可多个订单一起删除</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【新建订单画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新建订单</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单编号</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JK-200-191</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>顾客</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名创优品</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下单时间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>交货期限</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>责任者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>赵有才</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[确定] 返回【订单一览画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BOM信息</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[删除品目] 直接删除所选品目，已生产的品目不可删除？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[BOM信息] 连接到【BOM信息画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【BOM信息画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品目列打开 【品目新建/修改画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[新建品目] 打开【品目新建/修改画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【品目新建/修改画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新建/修改品目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品目</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子类</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品目名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JK-200-191 纸杯</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10,000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[确定] 返回【订单详细画面】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>▼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>可编辑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新建可编辑，修改不可编辑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不可编辑</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>展示订单一览以及生产状态，订单的删除，新建，查询</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>展示订单详细信息，包括订购品目表以及生产状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>机器设备ID</t>
   </si>
   <si>
     <t>AK-47 压铸机床</t>
@@ -1072,35 +1056,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上次保养时间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2车间</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>下次保养时间</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【设备一览画面】</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>办公地点定义表 place_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>地点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c_place_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2129,10 +2093,6 @@
     <t>更新者用户ID</t>
   </si>
   <si>
-    <t>设备一览表 machine_tbl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>入库单表 entry_tbl</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2182,6 +2142,94 @@
   </si>
   <si>
     <t>出库单状态 出库中(0) 已出库(1) 删除(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备一览表 device_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_maitenaced_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_maitenace_period</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用地点</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上次保养时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下次保养时间</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保养周期：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机器设备：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_machine_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>供应商表 supplier_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_supplier_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>办公地点定义表 place_tbl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_place_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_state</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>运行中(0) 维护中(1) 故障(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK-47 压铸机床</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机器设备ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2799,7 +2847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3650,6 +3698,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -4132,7 +4181,7 @@
       <c r="M1" s="64"/>
       <c r="N1" s="65"/>
       <c r="O1" s="66" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="P1" s="67"/>
       <c r="Q1" s="68"/>
@@ -4198,7 +4247,7 @@
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="61" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J2" s="61"/>
       <c r="K2" s="61"/>
@@ -4281,7 +4330,7 @@
       <c r="P3" s="74"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="72" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="S3" s="72"/>
       <c r="T3" s="72"/>
@@ -4338,7 +4387,7 @@
       <c r="G4" s="81"/>
       <c r="H4" s="82"/>
       <c r="I4" s="72" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J4" s="72"/>
       <c r="K4" s="72"/>
@@ -4351,7 +4400,7 @@
       <c r="P4" s="74"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="72" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="S4" s="72"/>
       <c r="T4" s="72"/>
@@ -4408,7 +4457,7 @@
       <c r="G5" s="81"/>
       <c r="H5" s="82"/>
       <c r="I5" s="72" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J5" s="72"/>
       <c r="K5" s="72"/>
@@ -4421,7 +4470,7 @@
       <c r="P5" s="74"/>
       <c r="Q5" s="75"/>
       <c r="R5" s="72" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S5" s="72"/>
       <c r="T5" s="72"/>
@@ -4478,7 +4527,7 @@
       <c r="G6" s="81"/>
       <c r="H6" s="82"/>
       <c r="I6" s="72" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J6" s="72"/>
       <c r="K6" s="72"/>
@@ -4491,7 +4540,7 @@
       <c r="P6" s="74"/>
       <c r="Q6" s="75"/>
       <c r="R6" s="72" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="S6" s="72"/>
       <c r="T6" s="72"/>
@@ -4548,7 +4597,7 @@
       <c r="G7" s="81"/>
       <c r="H7" s="82"/>
       <c r="I7" s="72" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="J7" s="72"/>
       <c r="K7" s="72"/>
@@ -4618,7 +4667,7 @@
       <c r="G8" s="84"/>
       <c r="H8" s="85"/>
       <c r="I8" s="72" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="J8" s="72"/>
       <c r="K8" s="72"/>
@@ -4631,7 +4680,7 @@
       <c r="P8" s="74"/>
       <c r="Q8" s="75"/>
       <c r="R8" s="72" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S8" s="72"/>
       <c r="T8" s="72"/>
@@ -4684,7 +4733,7 @@
       <c r="C9" s="93"/>
       <c r="D9" s="94"/>
       <c r="E9" s="104" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F9" s="105"/>
       <c r="G9" s="105"/>
@@ -4699,7 +4748,7 @@
       <c r="P9" s="102"/>
       <c r="Q9" s="103"/>
       <c r="R9" s="95" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="S9" s="95"/>
       <c r="T9" s="95"/>
@@ -4760,7 +4809,7 @@
       <c r="G10" s="78"/>
       <c r="H10" s="79"/>
       <c r="I10" s="72" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="J10" s="72"/>
       <c r="K10" s="72"/>
@@ -4828,7 +4877,7 @@
       <c r="G11" s="81"/>
       <c r="H11" s="82"/>
       <c r="I11" s="72" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
@@ -4896,7 +4945,7 @@
       <c r="G12" s="81"/>
       <c r="H12" s="82"/>
       <c r="I12" s="72" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="J12" s="72"/>
       <c r="K12" s="72"/>
@@ -4964,7 +5013,7 @@
       <c r="G13" s="81"/>
       <c r="H13" s="82"/>
       <c r="I13" s="72" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="J13" s="72"/>
       <c r="K13" s="72"/>
@@ -5032,7 +5081,7 @@
       <c r="G14" s="84"/>
       <c r="H14" s="85"/>
       <c r="I14" s="72" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="J14" s="72"/>
       <c r="K14" s="72"/>
@@ -5102,7 +5151,7 @@
       <c r="G15" s="72"/>
       <c r="H15" s="72"/>
       <c r="I15" s="72" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="J15" s="72"/>
       <c r="K15" s="72"/>
@@ -5170,7 +5219,7 @@
       <c r="G16" s="97"/>
       <c r="H16" s="98"/>
       <c r="I16" s="72" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
@@ -5238,7 +5287,7 @@
       <c r="G17" s="97"/>
       <c r="H17" s="98"/>
       <c r="I17" s="72" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J17" s="72"/>
       <c r="K17" s="72"/>
@@ -5308,7 +5357,7 @@
       <c r="G18" s="72"/>
       <c r="H18" s="72"/>
       <c r="I18" s="72" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="J18" s="72"/>
       <c r="K18" s="72"/>
@@ -5380,7 +5429,7 @@
       <c r="G19" s="72"/>
       <c r="H19" s="72"/>
       <c r="I19" s="72" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="J19" s="72"/>
       <c r="K19" s="72"/>
@@ -5450,7 +5499,7 @@
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
       <c r="I20" s="72" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="J20" s="72"/>
       <c r="K20" s="72"/>
@@ -5463,7 +5512,7 @@
       <c r="P20" s="74"/>
       <c r="Q20" s="75"/>
       <c r="R20" s="72" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="S20" s="72"/>
       <c r="T20" s="72"/>
@@ -5520,7 +5569,7 @@
       <c r="G21" s="72"/>
       <c r="H21" s="72"/>
       <c r="I21" s="72" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="J21" s="72"/>
       <c r="K21" s="72"/>
@@ -5533,7 +5582,7 @@
       <c r="P21" s="74"/>
       <c r="Q21" s="75"/>
       <c r="R21" s="72" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="S21" s="72"/>
       <c r="T21" s="72"/>
@@ -5594,7 +5643,7 @@
       <c r="G22" s="72"/>
       <c r="H22" s="72"/>
       <c r="I22" s="99" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="J22" s="99"/>
       <c r="K22" s="99"/>
@@ -5607,7 +5656,7 @@
       <c r="P22" s="74"/>
       <c r="Q22" s="75"/>
       <c r="R22" s="72" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="S22" s="72"/>
       <c r="T22" s="72"/>
@@ -5664,7 +5713,7 @@
       <c r="G23" s="72"/>
       <c r="H23" s="72"/>
       <c r="I23" s="72" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="J23" s="72"/>
       <c r="K23" s="72"/>
@@ -5677,7 +5726,7 @@
       <c r="P23" s="74"/>
       <c r="Q23" s="75"/>
       <c r="R23" s="100" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="S23" s="100"/>
       <c r="T23" s="100"/>
@@ -5734,7 +5783,7 @@
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="72" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="J24" s="72"/>
       <c r="K24" s="72"/>
@@ -5745,7 +5794,7 @@
       <c r="P24" s="74"/>
       <c r="Q24" s="75"/>
       <c r="R24" s="100" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="S24" s="100"/>
       <c r="T24" s="100"/>
@@ -5794,7 +5843,7 @@
     </row>
     <row r="25" spans="1:62" s="3" customFormat="1">
       <c r="A25" s="86" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B25" s="87"/>
       <c r="C25" s="87"/>
@@ -5804,7 +5853,7 @@
       <c r="G25" s="128"/>
       <c r="H25" s="129"/>
       <c r="I25" s="72" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="J25" s="72"/>
       <c r="K25" s="72"/>
@@ -5870,7 +5919,7 @@
       <c r="G26" s="131"/>
       <c r="H26" s="132"/>
       <c r="I26" s="72" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="J26" s="72"/>
       <c r="K26" s="72"/>
@@ -5881,7 +5930,7 @@
       <c r="P26" s="74"/>
       <c r="Q26" s="75"/>
       <c r="R26" s="100" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="S26" s="100"/>
       <c r="T26" s="100"/>
@@ -5930,7 +5979,7 @@
     </row>
     <row r="27" spans="1:62" s="3" customFormat="1">
       <c r="A27" s="86" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="87"/>
@@ -6006,13 +6055,13 @@
       <c r="C28" s="90"/>
       <c r="D28" s="91"/>
       <c r="E28" s="107" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="F28" s="108"/>
       <c r="G28" s="108"/>
       <c r="H28" s="109"/>
       <c r="I28" s="96" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="J28" s="97"/>
       <c r="K28" s="97"/>
@@ -6025,7 +6074,7 @@
       <c r="P28" s="74"/>
       <c r="Q28" s="75"/>
       <c r="R28" s="116" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="S28" s="117"/>
       <c r="T28" s="117"/>
@@ -6082,7 +6131,7 @@
       <c r="G29" s="111"/>
       <c r="H29" s="112"/>
       <c r="I29" s="96" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J29" s="97"/>
       <c r="K29" s="97"/>
@@ -6095,7 +6144,7 @@
       <c r="P29" s="74"/>
       <c r="Q29" s="75"/>
       <c r="R29" s="95" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="S29" s="95"/>
       <c r="T29" s="95"/>
@@ -6152,7 +6201,7 @@
       <c r="G30" s="111"/>
       <c r="H30" s="112"/>
       <c r="I30" s="96" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="J30" s="97"/>
       <c r="K30" s="97"/>
@@ -6165,7 +6214,7 @@
       <c r="P30" s="74"/>
       <c r="Q30" s="75"/>
       <c r="R30" s="95" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="S30" s="95"/>
       <c r="T30" s="95"/>
@@ -6222,7 +6271,7 @@
       <c r="G31" s="114"/>
       <c r="H31" s="115"/>
       <c r="I31" s="96" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J31" s="97"/>
       <c r="K31" s="97"/>
@@ -6235,7 +6284,7 @@
       <c r="P31" s="74"/>
       <c r="Q31" s="75"/>
       <c r="R31" s="95" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="S31" s="95"/>
       <c r="T31" s="95"/>
@@ -6284,13 +6333,13 @@
     </row>
     <row r="32" spans="1:62" s="3" customFormat="1">
       <c r="A32" s="125" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B32" s="125"/>
       <c r="C32" s="125"/>
       <c r="D32" s="125"/>
       <c r="E32" s="122" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F32" s="122"/>
       <c r="G32" s="122"/>
@@ -6358,7 +6407,7 @@
       <c r="C33" s="125"/>
       <c r="D33" s="125"/>
       <c r="E33" s="122" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="F33" s="122"/>
       <c r="G33" s="122"/>
@@ -6426,7 +6475,7 @@
       <c r="C34" s="125"/>
       <c r="D34" s="125"/>
       <c r="E34" s="122" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F34" s="122"/>
       <c r="G34" s="122"/>
@@ -6490,7 +6539,7 @@
     </row>
     <row r="35" spans="1:62">
       <c r="E35" s="123" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
@@ -6510,7 +6559,7 @@
     </row>
     <row r="36" spans="1:62" ht="16.5" customHeight="1">
       <c r="E36" s="123" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F36" s="123"/>
       <c r="G36" s="123"/>
@@ -6535,7 +6584,7 @@
     </row>
     <row r="38" spans="1:62">
       <c r="A38" s="120" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B38" s="120"/>
       <c r="C38" s="120"/>
@@ -6543,7 +6592,7 @@
       <c r="E38" s="120"/>
       <c r="F38" s="120"/>
       <c r="G38" s="120" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="H38" s="120"/>
       <c r="I38" s="120"/>
@@ -6552,7 +6601,7 @@
     </row>
     <row r="39" spans="1:62">
       <c r="A39" s="72" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -6560,7 +6609,7 @@
       <c r="E39" s="72"/>
       <c r="F39" s="72"/>
       <c r="G39" s="72" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H39" s="72"/>
       <c r="I39" s="72"/>
@@ -6569,7 +6618,7 @@
     </row>
     <row r="40" spans="1:62">
       <c r="A40" s="72" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -6577,7 +6626,7 @@
       <c r="E40" s="72"/>
       <c r="F40" s="72"/>
       <c r="G40" s="72" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H40" s="72"/>
       <c r="I40" s="72"/>
@@ -6586,7 +6635,7 @@
     </row>
     <row r="41" spans="1:62">
       <c r="A41" s="72" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -6594,7 +6643,7 @@
       <c r="E41" s="72"/>
       <c r="F41" s="72"/>
       <c r="G41" s="72" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H41" s="72"/>
       <c r="I41" s="72"/>
@@ -6603,7 +6652,7 @@
     </row>
     <row r="42" spans="1:62">
       <c r="A42" s="72" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B42" s="72"/>
       <c r="C42" s="72"/>
@@ -6611,7 +6660,7 @@
       <c r="E42" s="72"/>
       <c r="F42" s="72"/>
       <c r="G42" s="72" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="H42" s="72"/>
       <c r="I42" s="72"/>
@@ -6620,7 +6669,7 @@
     </row>
     <row r="43" spans="1:62">
       <c r="A43" s="72" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -6628,7 +6677,7 @@
       <c r="E43" s="72"/>
       <c r="F43" s="72"/>
       <c r="G43" s="72" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="H43" s="72"/>
       <c r="I43" s="72"/>
@@ -6861,30 +6910,30 @@
       <c r="P3" s="28"/>
       <c r="Q3" s="28"/>
       <c r="R3" s="222" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="S3" s="222"/>
       <c r="T3" s="221" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U3" s="221"/>
       <c r="V3" s="221"/>
       <c r="W3" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="X3" s="28"/>
       <c r="Y3" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Z3" s="103"/>
       <c r="AA3" s="28"/>
       <c r="AB3" s="101" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AC3" s="103"/>
       <c r="AD3" s="28"/>
       <c r="AE3" s="101" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AF3" s="103"/>
       <c r="AG3" s="21"/>
@@ -6893,7 +6942,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="20"/>
       <c r="C4" s="29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D4" s="22"/>
       <c r="F4" s="22"/>
@@ -6966,7 +7015,7 @@
       <c r="AA5" s="148"/>
       <c r="AB5" s="148"/>
       <c r="AC5" s="148" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AD5" s="148"/>
       <c r="AE5" s="148"/>
@@ -6976,7 +7025,7 @@
     <row r="6" spans="1:33" ht="20.25">
       <c r="B6" s="20"/>
       <c r="C6" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D6" s="216"/>
       <c r="E6" s="137" t="s">
@@ -7003,7 +7052,7 @@
       <c r="R6" s="121"/>
       <c r="S6" s="121"/>
       <c r="T6" s="121" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="U6" s="121"/>
       <c r="V6" s="121"/>
@@ -7016,7 +7065,7 @@
       <c r="AA6" s="121"/>
       <c r="AB6" s="121"/>
       <c r="AC6" s="121" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AD6" s="121"/>
       <c r="AE6" s="121"/>
@@ -7026,7 +7075,7 @@
     <row r="7" spans="1:33" ht="20.25">
       <c r="B7" s="20"/>
       <c r="C7" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D7" s="216"/>
       <c r="E7" s="137" t="s">
@@ -7060,7 +7109,7 @@
       <c r="W7" s="121"/>
       <c r="X7" s="121"/>
       <c r="Y7" s="121" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Z7" s="121"/>
       <c r="AA7" s="121"/>
@@ -7074,7 +7123,7 @@
     <row r="8" spans="1:33" ht="20.25">
       <c r="B8" s="20"/>
       <c r="C8" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D8" s="216"/>
       <c r="E8" s="137" t="s">
@@ -7084,7 +7133,7 @@
       <c r="G8" s="137"/>
       <c r="H8" s="137"/>
       <c r="I8" s="121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J8" s="121"/>
       <c r="K8" s="121"/>
@@ -7108,7 +7157,7 @@
       <c r="W8" s="121"/>
       <c r="X8" s="121"/>
       <c r="Y8" s="121" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Z8" s="121"/>
       <c r="AA8" s="121"/>
@@ -7122,7 +7171,7 @@
     <row r="9" spans="1:33" ht="20.25">
       <c r="B9" s="20"/>
       <c r="C9" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D9" s="216"/>
       <c r="E9" s="149" t="s">
@@ -7156,7 +7205,7 @@
       <c r="W9" s="121"/>
       <c r="X9" s="121"/>
       <c r="Y9" s="121" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Z9" s="121"/>
       <c r="AA9" s="121"/>
@@ -7170,7 +7219,7 @@
     <row r="10" spans="1:33" ht="20.25">
       <c r="B10" s="20"/>
       <c r="C10" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D10" s="216"/>
       <c r="E10" s="137" t="s">
@@ -7251,17 +7300,17 @@
     </row>
     <row r="12" spans="1:33">
       <c r="C12" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="C13" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:33">
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -7271,13 +7320,13 @@
     </row>
     <row r="17" spans="1:59" ht="17.25" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:59">
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -7296,13 +7345,13 @@
     <row r="19" spans="1:59">
       <c r="B19" s="20"/>
       <c r="C19" s="205" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D19" s="172"/>
       <c r="E19" s="172"/>
       <c r="F19" s="173"/>
       <c r="G19" s="96" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="H19" s="97"/>
       <c r="I19" s="97"/>
@@ -7317,13 +7366,13 @@
     <row r="20" spans="1:59">
       <c r="B20" s="20"/>
       <c r="C20" s="205" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D20" s="172"/>
       <c r="E20" s="172"/>
       <c r="F20" s="173"/>
       <c r="G20" s="96" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="97"/>
       <c r="I20" s="97"/>
@@ -7338,7 +7387,7 @@
     <row r="21" spans="1:59">
       <c r="B21" s="20"/>
       <c r="C21" s="205" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D21" s="172"/>
       <c r="E21" s="172"/>
@@ -7359,7 +7408,7 @@
     <row r="22" spans="1:59">
       <c r="B22" s="20"/>
       <c r="C22" s="205" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D22" s="172"/>
       <c r="E22" s="172"/>
@@ -7380,13 +7429,13 @@
     <row r="23" spans="1:59">
       <c r="B23" s="20"/>
       <c r="C23" s="205" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D23" s="172"/>
       <c r="E23" s="172"/>
       <c r="F23" s="173"/>
       <c r="G23" s="207" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H23" s="97"/>
       <c r="I23" s="97"/>
@@ -7401,13 +7450,13 @@
     <row r="24" spans="1:59">
       <c r="B24" s="20"/>
       <c r="C24" s="205" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D24" s="172"/>
       <c r="E24" s="172"/>
       <c r="F24" s="173"/>
       <c r="G24" s="207" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H24" s="97"/>
       <c r="I24" s="97"/>
@@ -7450,7 +7499,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O26" s="203"/>
       <c r="P26" s="21"/>
@@ -7474,7 +7523,7 @@
     </row>
     <row r="28" spans="1:59">
       <c r="C28" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:59" ht="17.25" thickBot="1">
@@ -7546,24 +7595,24 @@
     <row r="33" spans="2:59">
       <c r="B33" s="20"/>
       <c r="C33" s="101" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D33" s="103"/>
       <c r="E33" s="28"/>
       <c r="F33" s="101" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="G33" s="102"/>
       <c r="H33" s="103"/>
       <c r="I33" s="28"/>
       <c r="J33" s="101" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K33" s="102"/>
       <c r="L33" s="103"/>
       <c r="M33" s="28"/>
       <c r="N33" s="101" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O33" s="102"/>
       <c r="P33" s="103"/>
@@ -7690,7 +7739,7 @@
       <c r="K35" s="136"/>
       <c r="L35" s="136"/>
       <c r="M35" s="136" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="N35" s="209"/>
       <c r="O35" s="209"/>
@@ -7708,7 +7757,7 @@
       <c r="W35" s="136"/>
       <c r="X35" s="136"/>
       <c r="Y35" s="139" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Z35" s="140"/>
       <c r="AA35" s="140"/>
@@ -7719,7 +7768,7 @@
       <c r="AF35" s="140"/>
       <c r="AG35" s="141"/>
       <c r="AH35" s="136" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AI35" s="136"/>
       <c r="AJ35" s="136"/>
@@ -7730,7 +7779,7 @@
       <c r="AO35" s="136"/>
       <c r="AP35" s="136"/>
       <c r="AQ35" s="139" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="AR35" s="140"/>
       <c r="AS35" s="140"/>
@@ -7774,32 +7823,32 @@
       <c r="W36" s="136"/>
       <c r="X36" s="136"/>
       <c r="Y36" s="139" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Z36" s="140"/>
       <c r="AA36" s="141"/>
       <c r="AB36" s="139" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AC36" s="140"/>
       <c r="AD36" s="141"/>
       <c r="AE36" s="139" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF36" s="140"/>
       <c r="AG36" s="141"/>
       <c r="AH36" s="139" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AI36" s="140"/>
       <c r="AJ36" s="141"/>
       <c r="AK36" s="139" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AL36" s="140"/>
       <c r="AM36" s="141"/>
       <c r="AN36" s="139" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AO36" s="140"/>
       <c r="AP36" s="141"/>
@@ -7832,11 +7881,11 @@
     <row r="37" spans="2:59" ht="20.25" customHeight="1">
       <c r="B37" s="20"/>
       <c r="C37" s="217" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D37" s="218"/>
       <c r="E37" s="159" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F37" s="160"/>
       <c r="G37" s="160"/>
@@ -7848,7 +7897,7 @@
       <c r="K37" s="143"/>
       <c r="L37" s="144"/>
       <c r="M37" s="171" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N37" s="171"/>
       <c r="O37" s="171"/>
@@ -7860,13 +7909,13 @@
       <c r="S37" s="166"/>
       <c r="T37" s="167"/>
       <c r="U37" s="142" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="V37" s="143"/>
       <c r="W37" s="143"/>
       <c r="X37" s="144"/>
       <c r="Y37" s="96" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z37" s="172"/>
       <c r="AA37" s="173"/>
@@ -7876,12 +7925,12 @@
       <c r="AC37" s="151"/>
       <c r="AD37" s="152"/>
       <c r="AE37" s="73" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AF37" s="151"/>
       <c r="AG37" s="152"/>
       <c r="AH37" s="96" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AI37" s="172"/>
       <c r="AJ37" s="173"/>
@@ -7891,7 +7940,7 @@
       <c r="AL37" s="151"/>
       <c r="AM37" s="152"/>
       <c r="AN37" s="73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AO37" s="151"/>
       <c r="AP37" s="152"/>
@@ -7946,7 +7995,7 @@
       <c r="W38" s="146"/>
       <c r="X38" s="147"/>
       <c r="Y38" s="96" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Z38" s="172"/>
       <c r="AA38" s="173"/>
@@ -7956,12 +8005,12 @@
       <c r="AC38" s="151"/>
       <c r="AD38" s="152"/>
       <c r="AE38" s="73" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AF38" s="151"/>
       <c r="AG38" s="152"/>
       <c r="AH38" s="96" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AI38" s="172"/>
       <c r="AJ38" s="173"/>
@@ -7971,7 +8020,7 @@
       <c r="AL38" s="151"/>
       <c r="AM38" s="152"/>
       <c r="AN38" s="73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AO38" s="151"/>
       <c r="AP38" s="152"/>
@@ -7996,7 +8045,7 @@
     <row r="39" spans="2:59" ht="20.25">
       <c r="B39" s="20"/>
       <c r="C39" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D39" s="216"/>
       <c r="E39" s="133" t="s">
@@ -8012,7 +8061,7 @@
       <c r="K39" s="121"/>
       <c r="L39" s="121"/>
       <c r="M39" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N39" s="121"/>
       <c r="O39" s="121"/>
@@ -8030,32 +8079,32 @@
       <c r="W39" s="121"/>
       <c r="X39" s="121"/>
       <c r="Y39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z39" s="140"/>
       <c r="AA39" s="141"/>
       <c r="AB39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC39" s="140"/>
       <c r="AD39" s="141"/>
       <c r="AE39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF39" s="140"/>
       <c r="AG39" s="141"/>
       <c r="AH39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AI39" s="140"/>
       <c r="AJ39" s="141"/>
       <c r="AK39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL39" s="140"/>
       <c r="AM39" s="141"/>
       <c r="AN39" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AO39" s="140"/>
       <c r="AP39" s="141"/>
@@ -8078,7 +8127,7 @@
       <c r="BA39" s="121"/>
       <c r="BB39" s="121"/>
       <c r="BC39" s="174" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="BD39" s="175"/>
       <c r="BE39" s="175"/>
@@ -8088,7 +8137,7 @@
     <row r="40" spans="2:59" ht="20.25">
       <c r="B40" s="20"/>
       <c r="C40" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D40" s="216"/>
       <c r="E40" s="133" t="s">
@@ -8104,7 +8153,7 @@
       <c r="K40" s="121"/>
       <c r="L40" s="121"/>
       <c r="M40" s="121" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N40" s="121"/>
       <c r="O40" s="121"/>
@@ -8122,32 +8171,32 @@
       <c r="W40" s="121"/>
       <c r="X40" s="121"/>
       <c r="Y40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z40" s="140"/>
       <c r="AA40" s="141"/>
       <c r="AB40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC40" s="140"/>
       <c r="AD40" s="141"/>
       <c r="AE40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF40" s="140"/>
       <c r="AG40" s="141"/>
       <c r="AH40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AI40" s="140"/>
       <c r="AJ40" s="141"/>
       <c r="AK40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL40" s="140"/>
       <c r="AM40" s="141"/>
       <c r="AN40" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AO40" s="140"/>
       <c r="AP40" s="141"/>
@@ -8180,7 +8229,7 @@
     <row r="41" spans="2:59" ht="20.25">
       <c r="B41" s="20"/>
       <c r="C41" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D41" s="216"/>
       <c r="E41" s="133" t="s">
@@ -8196,7 +8245,7 @@
       <c r="K41" s="121"/>
       <c r="L41" s="121"/>
       <c r="M41" s="121" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="N41" s="121"/>
       <c r="O41" s="121"/>
@@ -8214,32 +8263,32 @@
       <c r="W41" s="121"/>
       <c r="X41" s="121"/>
       <c r="Y41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z41" s="140"/>
       <c r="AA41" s="141"/>
       <c r="AB41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC41" s="140"/>
       <c r="AD41" s="141"/>
       <c r="AE41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF41" s="140"/>
       <c r="AG41" s="141"/>
       <c r="AH41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AI41" s="140"/>
       <c r="AJ41" s="141"/>
       <c r="AK41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL41" s="140"/>
       <c r="AM41" s="141"/>
       <c r="AN41" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AO41" s="140"/>
       <c r="AP41" s="141"/>
@@ -8272,7 +8321,7 @@
     <row r="42" spans="2:59" ht="20.25">
       <c r="B42" s="20"/>
       <c r="C42" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D42" s="216"/>
       <c r="E42" s="133" t="s">
@@ -8288,7 +8337,7 @@
       <c r="K42" s="121"/>
       <c r="L42" s="121"/>
       <c r="M42" s="121" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="N42" s="121"/>
       <c r="O42" s="121"/>
@@ -8306,32 +8355,32 @@
       <c r="W42" s="121"/>
       <c r="X42" s="121"/>
       <c r="Y42" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Z42" s="140"/>
       <c r="AA42" s="141"/>
       <c r="AB42" s="139" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AC42" s="140"/>
       <c r="AD42" s="141"/>
       <c r="AE42" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AF42" s="140"/>
       <c r="AG42" s="141"/>
       <c r="AH42" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AI42" s="140"/>
       <c r="AJ42" s="141"/>
       <c r="AK42" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AL42" s="140"/>
       <c r="AM42" s="141"/>
       <c r="AN42" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AO42" s="140"/>
       <c r="AP42" s="141"/>
@@ -8423,33 +8472,33 @@
     </row>
     <row r="45" spans="2:59">
       <c r="C45" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="2:59">
       <c r="C46" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47" spans="2:59">
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="2:59">
       <c r="C48" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:36" ht="17.25" thickBot="1">
       <c r="A50" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:36">
       <c r="B51" s="16"/>
       <c r="C51" s="17" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -8468,13 +8517,13 @@
     <row r="52" spans="1:36">
       <c r="B52" s="20"/>
       <c r="C52" s="205" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D52" s="172"/>
       <c r="E52" s="172"/>
       <c r="F52" s="173"/>
       <c r="G52" s="96" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H52" s="97"/>
       <c r="I52" s="97"/>
@@ -8484,23 +8533,23 @@
       <c r="M52" s="97"/>
       <c r="N52" s="98"/>
       <c r="O52" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P52" s="21"/>
       <c r="R52" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:36">
       <c r="B53" s="20"/>
       <c r="C53" s="205" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D53" s="172"/>
       <c r="E53" s="172"/>
       <c r="F53" s="173"/>
       <c r="G53" s="96" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H53" s="97"/>
       <c r="I53" s="97"/>
@@ -8510,23 +8559,23 @@
       <c r="M53" s="97"/>
       <c r="N53" s="98"/>
       <c r="O53" s="14" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P53" s="21"/>
       <c r="R53" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="1:36">
       <c r="B54" s="20"/>
       <c r="C54" s="205" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D54" s="172"/>
       <c r="E54" s="172"/>
       <c r="F54" s="173"/>
       <c r="G54" s="206" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H54" s="97"/>
       <c r="I54" s="97"/>
@@ -8538,19 +8587,19 @@
       <c r="O54" s="98"/>
       <c r="P54" s="21"/>
       <c r="R54" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="1:36">
       <c r="B55" s="20"/>
       <c r="C55" s="205" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D55" s="172"/>
       <c r="E55" s="172"/>
       <c r="F55" s="173"/>
       <c r="G55" s="207" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H55" s="97"/>
       <c r="I55" s="97"/>
@@ -8562,7 +8611,7 @@
       <c r="O55" s="98"/>
       <c r="P55" s="21"/>
       <c r="R55" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="56" spans="1:36">
@@ -8596,7 +8645,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="22"/>
       <c r="N57" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O57" s="203"/>
       <c r="P57" s="21"/>
@@ -8620,12 +8669,12 @@
     </row>
     <row r="59" spans="1:36">
       <c r="C59" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="2" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:36">
@@ -8635,33 +8684,33 @@
     </row>
     <row r="63" spans="1:36">
       <c r="C63" s="153" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D63" s="154"/>
       <c r="E63" s="155"/>
       <c r="F63" s="153" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G63" s="154"/>
       <c r="H63" s="154"/>
       <c r="I63" s="155"/>
       <c r="J63" s="153" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K63" s="154"/>
       <c r="L63" s="155"/>
       <c r="M63" s="153" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N63" s="154"/>
       <c r="O63" s="155"/>
       <c r="P63" s="153" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q63" s="154"/>
       <c r="R63" s="155"/>
       <c r="S63" s="148" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="T63" s="148"/>
       <c r="U63" s="148"/>
@@ -8675,7 +8724,7 @@
       <c r="AC63" s="148"/>
       <c r="AD63" s="148"/>
       <c r="AE63" s="209" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AF63" s="209"/>
       <c r="AG63" s="209"/>
@@ -8701,44 +8750,44 @@
       <c r="Q64" s="157"/>
       <c r="R64" s="158"/>
       <c r="S64" s="148" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T64" s="148"/>
       <c r="U64" s="148"/>
       <c r="V64" s="148" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="W64" s="148"/>
       <c r="X64" s="148"/>
       <c r="Y64" s="148" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Z64" s="211"/>
       <c r="AA64" s="211"/>
       <c r="AB64" s="148" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AC64" s="211"/>
       <c r="AD64" s="211"/>
       <c r="AE64" s="209" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AF64" s="209"/>
       <c r="AG64" s="209"/>
       <c r="AH64" s="148" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AI64" s="148"/>
       <c r="AJ64" s="148"/>
     </row>
     <row r="65" spans="1:36">
       <c r="C65" s="77" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D65" s="78"/>
       <c r="E65" s="79"/>
       <c r="F65" s="72" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G65" s="72"/>
       <c r="H65" s="72"/>
@@ -8749,7 +8798,7 @@
       <c r="K65" s="121"/>
       <c r="L65" s="121"/>
       <c r="M65" s="121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N65" s="198"/>
       <c r="O65" s="198"/>
@@ -8764,7 +8813,7 @@
       <c r="T65" s="121"/>
       <c r="U65" s="121"/>
       <c r="V65" s="121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W65" s="198"/>
       <c r="X65" s="198"/>
@@ -8774,7 +8823,7 @@
       <c r="Z65" s="204"/>
       <c r="AA65" s="204"/>
       <c r="AB65" s="212" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="AC65" s="213"/>
       <c r="AD65" s="213"/>
@@ -8794,7 +8843,7 @@
       <c r="D66" s="84"/>
       <c r="E66" s="85"/>
       <c r="F66" s="72" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G66" s="72"/>
       <c r="H66" s="72"/>
@@ -8805,7 +8854,7 @@
       <c r="K66" s="121"/>
       <c r="L66" s="121"/>
       <c r="M66" s="121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N66" s="198"/>
       <c r="O66" s="198"/>
@@ -8820,7 +8869,7 @@
       <c r="T66" s="121"/>
       <c r="U66" s="121"/>
       <c r="V66" s="121" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="W66" s="198"/>
       <c r="X66" s="198"/>
@@ -8830,7 +8879,7 @@
       <c r="Z66" s="204"/>
       <c r="AA66" s="204"/>
       <c r="AB66" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC66" s="140"/>
       <c r="AD66" s="141"/>
@@ -8845,12 +8894,12 @@
     </row>
     <row r="67" spans="1:36">
       <c r="C67" s="77" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D67" s="78"/>
       <c r="E67" s="79"/>
       <c r="F67" s="72" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G67" s="72"/>
       <c r="H67" s="72"/>
@@ -8861,7 +8910,7 @@
       <c r="K67" s="198"/>
       <c r="L67" s="198"/>
       <c r="M67" s="121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="N67" s="198"/>
       <c r="O67" s="198"/>
@@ -8876,7 +8925,7 @@
       <c r="T67" s="121"/>
       <c r="U67" s="121"/>
       <c r="V67" s="121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="W67" s="198"/>
       <c r="X67" s="198"/>
@@ -8886,7 +8935,7 @@
       <c r="Z67" s="204"/>
       <c r="AA67" s="204"/>
       <c r="AB67" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC67" s="140"/>
       <c r="AD67" s="141"/>
@@ -8906,7 +8955,7 @@
       <c r="D68" s="84"/>
       <c r="E68" s="85"/>
       <c r="F68" s="72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G68" s="72"/>
       <c r="H68" s="72"/>
@@ -8917,7 +8966,7 @@
       <c r="K68" s="121"/>
       <c r="L68" s="121"/>
       <c r="M68" s="121" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="N68" s="198"/>
       <c r="O68" s="198"/>
@@ -8932,7 +8981,7 @@
       <c r="T68" s="121"/>
       <c r="U68" s="121"/>
       <c r="V68" s="121" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="W68" s="198"/>
       <c r="X68" s="198"/>
@@ -8942,7 +8991,7 @@
       <c r="Z68" s="204"/>
       <c r="AA68" s="204"/>
       <c r="AB68" s="139" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AC68" s="140"/>
       <c r="AD68" s="141"/>
@@ -8957,7 +9006,7 @@
     </row>
     <row r="69" spans="1:36">
       <c r="C69" s="214" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D69" s="214"/>
       <c r="E69" s="214"/>
@@ -9025,7 +9074,7 @@
     </row>
     <row r="71" spans="1:36">
       <c r="C71" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
@@ -9040,13 +9089,13 @@
     </row>
     <row r="74" spans="1:36" ht="17.25" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:36">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -9065,13 +9114,13 @@
     <row r="76" spans="1:36">
       <c r="B76" s="20"/>
       <c r="C76" s="208" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="151"/>
       <c r="E76" s="151"/>
       <c r="F76" s="152"/>
       <c r="G76" s="96" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H76" s="97"/>
       <c r="I76" s="97"/>
@@ -9092,7 +9141,7 @@
       <c r="E77" s="151"/>
       <c r="F77" s="152"/>
       <c r="G77" s="96" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H77" s="97"/>
       <c r="I77" s="97"/>
@@ -9113,7 +9162,7 @@
       <c r="E78" s="151"/>
       <c r="F78" s="152"/>
       <c r="G78" s="96" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H78" s="97"/>
       <c r="I78" s="97"/>
@@ -9156,7 +9205,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O80" s="203"/>
       <c r="P80" s="21"/>
@@ -9452,7 +9501,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="17.25" thickBot="1">
@@ -9486,17 +9535,17 @@
       <c r="B3" s="20"/>
       <c r="C3" s="22"/>
       <c r="D3" s="229" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E3" s="230"/>
       <c r="F3" s="231"/>
       <c r="G3" s="225" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H3" s="226"/>
       <c r="I3" s="227"/>
       <c r="J3" s="228" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K3" s="226"/>
       <c r="L3" s="226"/>
@@ -9574,7 +9623,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="40"/>
       <c r="E6" s="246" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F6" s="246"/>
       <c r="G6" s="246"/>
@@ -9897,7 +9946,7 @@
     </row>
     <row r="18" spans="1:38" ht="17.25" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:38">
@@ -9944,14 +9993,14 @@
       <c r="A20" s="2"/>
       <c r="B20" s="20"/>
       <c r="C20" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D20" s="28"/>
       <c r="E20" s="101"/>
       <c r="F20" s="103"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
@@ -9961,7 +10010,7 @@
       <c r="N20" s="103"/>
       <c r="O20" s="28"/>
       <c r="P20" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="103"/>
       <c r="R20" s="28"/>
@@ -10035,7 +10084,7 @@
       <c r="E22" s="136"/>
       <c r="F22" s="136"/>
       <c r="G22" s="136" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="H22" s="136"/>
       <c r="I22" s="136"/>
@@ -10046,7 +10095,7 @@
       <c r="L22" s="136"/>
       <c r="M22" s="136"/>
       <c r="N22" s="136" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="O22" s="136"/>
       <c r="P22" s="136"/>
@@ -10058,19 +10107,19 @@
       <c r="T22" s="136"/>
       <c r="U22" s="136"/>
       <c r="V22" s="153" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="W22" s="154"/>
       <c r="X22" s="154"/>
       <c r="Y22" s="155"/>
       <c r="Z22" s="153" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AA22" s="154"/>
       <c r="AB22" s="154"/>
       <c r="AC22" s="155"/>
       <c r="AD22" s="235" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AE22" s="235"/>
       <c r="AF22" s="22"/>
@@ -10129,7 +10178,7 @@
       <c r="E24" s="121"/>
       <c r="F24" s="121"/>
       <c r="G24" s="121" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H24" s="121"/>
       <c r="I24" s="121"/>
@@ -10152,19 +10201,19 @@
       <c r="T24" s="121"/>
       <c r="U24" s="121"/>
       <c r="V24" s="194" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="W24" s="121"/>
       <c r="X24" s="121"/>
       <c r="Y24" s="121"/>
       <c r="Z24" s="194" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AA24" s="121"/>
       <c r="AB24" s="121"/>
       <c r="AC24" s="121"/>
       <c r="AD24" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AE24" s="47"/>
       <c r="AF24" s="22"/>
@@ -10184,7 +10233,7 @@
       <c r="E25" s="121"/>
       <c r="F25" s="121"/>
       <c r="G25" s="121" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H25" s="121"/>
       <c r="I25" s="121"/>
@@ -10207,19 +10256,19 @@
       <c r="T25" s="121"/>
       <c r="U25" s="121"/>
       <c r="V25" s="194" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="W25" s="121"/>
       <c r="X25" s="121"/>
       <c r="Y25" s="121"/>
       <c r="Z25" s="194" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AA25" s="121"/>
       <c r="AB25" s="121"/>
       <c r="AC25" s="121"/>
       <c r="AD25" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AE25" s="47"/>
       <c r="AF25" s="22"/>
@@ -10239,7 +10288,7 @@
       <c r="E26" s="121"/>
       <c r="F26" s="121"/>
       <c r="G26" s="121" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H26" s="121"/>
       <c r="I26" s="121"/>
@@ -10262,19 +10311,19 @@
       <c r="T26" s="121"/>
       <c r="U26" s="121"/>
       <c r="V26" s="194" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="W26" s="121"/>
       <c r="X26" s="121"/>
       <c r="Y26" s="121"/>
       <c r="Z26" s="194" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AA26" s="121"/>
       <c r="AB26" s="121"/>
       <c r="AC26" s="121"/>
       <c r="AD26" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AE26" s="47"/>
       <c r="AF26" s="22"/>
@@ -10294,7 +10343,7 @@
       <c r="E27" s="121"/>
       <c r="F27" s="121"/>
       <c r="G27" s="121" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H27" s="121"/>
       <c r="I27" s="121"/>
@@ -10317,19 +10366,19 @@
       <c r="T27" s="121"/>
       <c r="U27" s="121"/>
       <c r="V27" s="194" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="W27" s="121"/>
       <c r="X27" s="121"/>
       <c r="Y27" s="121"/>
       <c r="Z27" s="194" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="AA27" s="121"/>
       <c r="AB27" s="121"/>
       <c r="AC27" s="121"/>
       <c r="AD27" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AE27" s="47"/>
       <c r="AF27" s="22"/>
@@ -10409,7 +10458,7 @@
     </row>
     <row r="30" spans="1:38">
       <c r="B30" s="22" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -10439,7 +10488,7 @@
     </row>
     <row r="31" spans="1:38">
       <c r="B31" s="22" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -10497,7 +10546,7 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="2" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="17.25" thickBot="1"/>
@@ -10538,7 +10587,7 @@
       <c r="A36" s="2"/>
       <c r="B36" s="20"/>
       <c r="C36" s="28" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="26"/>
@@ -10547,7 +10596,7 @@
       <c r="H36" s="28"/>
       <c r="I36" s="28"/>
       <c r="J36" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K36" s="103"/>
       <c r="L36" s="28"/>
@@ -10607,25 +10656,25 @@
     <row r="38" spans="1:34">
       <c r="B38" s="20"/>
       <c r="C38" s="136" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D38" s="136"/>
       <c r="E38" s="136"/>
       <c r="F38" s="136"/>
       <c r="G38" s="136" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H38" s="136"/>
       <c r="I38" s="136"/>
       <c r="J38" s="136"/>
       <c r="K38" s="153" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="L38" s="154"/>
       <c r="M38" s="154"/>
       <c r="N38" s="155"/>
       <c r="O38" s="153" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P38" s="154"/>
       <c r="Q38" s="154"/>
@@ -10637,14 +10686,14 @@
       <c r="U38" s="154"/>
       <c r="V38" s="155"/>
       <c r="W38" s="136" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="X38" s="136"/>
       <c r="Y38" s="136"/>
       <c r="Z38" s="136"/>
       <c r="AA38" s="136"/>
       <c r="AB38" s="235" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AC38" s="235"/>
       <c r="AE38" s="21"/>
@@ -10689,13 +10738,13 @@
       <c r="E40" s="198"/>
       <c r="F40" s="198"/>
       <c r="G40" s="121" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H40" s="121"/>
       <c r="I40" s="121"/>
       <c r="J40" s="121"/>
       <c r="K40" s="194" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L40" s="121"/>
       <c r="M40" s="121"/>
@@ -10713,14 +10762,14 @@
       <c r="U40" s="121"/>
       <c r="V40" s="121"/>
       <c r="W40" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X40" s="234"/>
       <c r="Y40" s="234"/>
       <c r="Z40" s="234"/>
       <c r="AA40" s="234"/>
       <c r="AB40" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC40" s="47"/>
       <c r="AE40" s="21"/>
@@ -10734,13 +10783,13 @@
       <c r="E41" s="198"/>
       <c r="F41" s="198"/>
       <c r="G41" s="121" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H41" s="121"/>
       <c r="I41" s="121"/>
       <c r="J41" s="121"/>
       <c r="K41" s="194" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L41" s="121"/>
       <c r="M41" s="121"/>
@@ -10758,14 +10807,14 @@
       <c r="U41" s="121"/>
       <c r="V41" s="121"/>
       <c r="W41" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X41" s="234"/>
       <c r="Y41" s="234"/>
       <c r="Z41" s="234"/>
       <c r="AA41" s="234"/>
       <c r="AB41" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC41" s="47"/>
       <c r="AE41" s="21"/>
@@ -10779,13 +10828,13 @@
       <c r="E42" s="198"/>
       <c r="F42" s="198"/>
       <c r="G42" s="121" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
       <c r="J42" s="121"/>
       <c r="K42" s="194" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L42" s="121"/>
       <c r="M42" s="121"/>
@@ -10803,14 +10852,14 @@
       <c r="U42" s="121"/>
       <c r="V42" s="121"/>
       <c r="W42" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X42" s="234"/>
       <c r="Y42" s="234"/>
       <c r="Z42" s="234"/>
       <c r="AA42" s="234"/>
       <c r="AB42" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC42" s="47"/>
       <c r="AE42" s="21"/>
@@ -10824,13 +10873,13 @@
       <c r="E43" s="198"/>
       <c r="F43" s="198"/>
       <c r="G43" s="121" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
       <c r="J43" s="121"/>
       <c r="K43" s="194" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L43" s="121"/>
       <c r="M43" s="121"/>
@@ -10848,14 +10897,14 @@
       <c r="U43" s="121"/>
       <c r="V43" s="121"/>
       <c r="W43" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X43" s="234"/>
       <c r="Y43" s="234"/>
       <c r="Z43" s="234"/>
       <c r="AA43" s="234"/>
       <c r="AB43" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC43" s="47"/>
       <c r="AE43" s="21"/>
@@ -10926,7 +10975,7 @@
     </row>
     <row r="46" spans="1:34">
       <c r="B46" s="22" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -10988,7 +11037,7 @@
     </row>
     <row r="48" spans="1:34">
       <c r="A48" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="17.25" thickBot="1"/>
@@ -11029,7 +11078,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="20"/>
       <c r="C51" s="28" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="26"/>
@@ -11038,7 +11087,7 @@
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
       <c r="J51" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K51" s="103"/>
       <c r="L51" s="28"/>
@@ -11098,25 +11147,25 @@
     <row r="53" spans="1:34">
       <c r="B53" s="20"/>
       <c r="C53" s="136" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D53" s="136"/>
       <c r="E53" s="136"/>
       <c r="F53" s="136"/>
       <c r="G53" s="136" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H53" s="136"/>
       <c r="I53" s="136"/>
       <c r="J53" s="136"/>
       <c r="K53" s="153" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="L53" s="154"/>
       <c r="M53" s="154"/>
       <c r="N53" s="155"/>
       <c r="O53" s="153" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="P53" s="154"/>
       <c r="Q53" s="154"/>
@@ -11128,14 +11177,14 @@
       <c r="U53" s="154"/>
       <c r="V53" s="155"/>
       <c r="W53" s="136" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="X53" s="136"/>
       <c r="Y53" s="136"/>
       <c r="Z53" s="136"/>
       <c r="AA53" s="136"/>
       <c r="AB53" s="235" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="AC53" s="235"/>
       <c r="AE53" s="21"/>
@@ -11180,13 +11229,13 @@
       <c r="E55" s="198"/>
       <c r="F55" s="198"/>
       <c r="G55" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H55" s="121"/>
       <c r="I55" s="121"/>
       <c r="J55" s="121"/>
       <c r="K55" s="194" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L55" s="121"/>
       <c r="M55" s="121"/>
@@ -11204,14 +11253,14 @@
       <c r="U55" s="121"/>
       <c r="V55" s="121"/>
       <c r="W55" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X55" s="234"/>
       <c r="Y55" s="234"/>
       <c r="Z55" s="234"/>
       <c r="AA55" s="234"/>
       <c r="AB55" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC55" s="47"/>
       <c r="AE55" s="21"/>
@@ -11225,13 +11274,13 @@
       <c r="E56" s="198"/>
       <c r="F56" s="198"/>
       <c r="G56" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H56" s="121"/>
       <c r="I56" s="121"/>
       <c r="J56" s="121"/>
       <c r="K56" s="194" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L56" s="121"/>
       <c r="M56" s="121"/>
@@ -11249,14 +11298,14 @@
       <c r="U56" s="121"/>
       <c r="V56" s="121"/>
       <c r="W56" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X56" s="234"/>
       <c r="Y56" s="234"/>
       <c r="Z56" s="234"/>
       <c r="AA56" s="234"/>
       <c r="AB56" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC56" s="47"/>
       <c r="AE56" s="21"/>
@@ -11270,13 +11319,13 @@
       <c r="E57" s="198"/>
       <c r="F57" s="198"/>
       <c r="G57" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H57" s="121"/>
       <c r="I57" s="121"/>
       <c r="J57" s="121"/>
       <c r="K57" s="194" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L57" s="121"/>
       <c r="M57" s="121"/>
@@ -11294,14 +11343,14 @@
       <c r="U57" s="121"/>
       <c r="V57" s="121"/>
       <c r="W57" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X57" s="234"/>
       <c r="Y57" s="234"/>
       <c r="Z57" s="234"/>
       <c r="AA57" s="234"/>
       <c r="AB57" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC57" s="47"/>
       <c r="AE57" s="21"/>
@@ -11315,13 +11364,13 @@
       <c r="E58" s="198"/>
       <c r="F58" s="198"/>
       <c r="G58" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H58" s="121"/>
       <c r="I58" s="121"/>
       <c r="J58" s="121"/>
       <c r="K58" s="194" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L58" s="121"/>
       <c r="M58" s="121"/>
@@ -11339,14 +11388,14 @@
       <c r="U58" s="121"/>
       <c r="V58" s="121"/>
       <c r="W58" s="234" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="X58" s="234"/>
       <c r="Y58" s="234"/>
       <c r="Z58" s="234"/>
       <c r="AA58" s="234"/>
       <c r="AB58" s="47" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC58" s="47"/>
       <c r="AE58" s="21"/>
@@ -11385,7 +11434,7 @@
     </row>
     <row r="60" spans="1:34">
       <c r="B60" s="22" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C60" s="30"/>
       <c r="D60" s="30"/>
@@ -11447,7 +11496,7 @@
     </row>
     <row r="62" spans="1:34">
       <c r="A62" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="17.25" thickBot="1"/>
@@ -11488,7 +11537,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="20"/>
       <c r="C65" s="22" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
@@ -11522,19 +11571,19 @@
     <row r="66" spans="1:31" ht="16.5" customHeight="1">
       <c r="B66" s="20"/>
       <c r="C66" s="153" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D66" s="154"/>
       <c r="E66" s="154"/>
       <c r="F66" s="155"/>
       <c r="G66" s="136" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H66" s="136"/>
       <c r="I66" s="136"/>
       <c r="J66" s="136"/>
       <c r="K66" s="153" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L66" s="154"/>
       <c r="M66" s="154"/>
@@ -11546,7 +11595,7 @@
       <c r="Q66" s="154"/>
       <c r="R66" s="155"/>
       <c r="S66" s="153" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="T66" s="154"/>
       <c r="U66" s="154"/>
@@ -11580,7 +11629,7 @@
     <row r="68" spans="1:31">
       <c r="B68" s="20"/>
       <c r="C68" s="194" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D68" s="121"/>
       <c r="E68" s="121"/>
@@ -11604,7 +11653,7 @@
       <c r="Q68" s="121"/>
       <c r="R68" s="121"/>
       <c r="S68" s="194" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T68" s="121"/>
       <c r="U68" s="121"/>
@@ -11614,7 +11663,7 @@
     <row r="69" spans="1:31">
       <c r="B69" s="20"/>
       <c r="C69" s="194" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D69" s="121"/>
       <c r="E69" s="121"/>
@@ -11638,7 +11687,7 @@
       <c r="Q69" s="121"/>
       <c r="R69" s="121"/>
       <c r="S69" s="194" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T69" s="121"/>
       <c r="U69" s="121"/>
@@ -11648,7 +11697,7 @@
     <row r="70" spans="1:31">
       <c r="B70" s="20"/>
       <c r="C70" s="194" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D70" s="121"/>
       <c r="E70" s="121"/>
@@ -11672,7 +11721,7 @@
       <c r="Q70" s="121"/>
       <c r="R70" s="121"/>
       <c r="S70" s="194" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T70" s="121"/>
       <c r="U70" s="121"/>
@@ -11682,7 +11731,7 @@
     <row r="71" spans="1:31">
       <c r="B71" s="20"/>
       <c r="C71" s="194" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D71" s="121"/>
       <c r="E71" s="121"/>
@@ -11706,7 +11755,7 @@
       <c r="Q71" s="121"/>
       <c r="R71" s="121"/>
       <c r="S71" s="194" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="T71" s="121"/>
       <c r="U71" s="121"/>
@@ -11779,13 +11828,13 @@
     </row>
     <row r="74" spans="1:31" ht="17.25" thickBot="1">
       <c r="A74" s="2" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -11804,13 +11853,13 @@
     <row r="76" spans="1:31">
       <c r="B76" s="20"/>
       <c r="C76" s="205" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D76" s="172"/>
       <c r="E76" s="172"/>
       <c r="F76" s="173"/>
       <c r="G76" s="96" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H76" s="97"/>
       <c r="I76" s="97"/>
@@ -11825,13 +11874,13 @@
     <row r="77" spans="1:31">
       <c r="B77" s="20"/>
       <c r="C77" s="205" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D77" s="172"/>
       <c r="E77" s="172"/>
       <c r="F77" s="173"/>
       <c r="G77" s="96" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H77" s="97"/>
       <c r="I77" s="97"/>
@@ -11846,13 +11895,13 @@
     <row r="78" spans="1:31">
       <c r="B78" s="20"/>
       <c r="C78" s="205" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D78" s="172"/>
       <c r="E78" s="172"/>
       <c r="F78" s="173"/>
       <c r="G78" s="207" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="H78" s="97"/>
       <c r="I78" s="97"/>
@@ -11867,13 +11916,13 @@
     <row r="79" spans="1:31">
       <c r="B79" s="20"/>
       <c r="C79" s="205" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D79" s="172"/>
       <c r="E79" s="172"/>
       <c r="F79" s="173"/>
       <c r="G79" s="207" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H79" s="97"/>
       <c r="I79" s="97"/>
@@ -11916,7 +11965,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="22"/>
       <c r="N81" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O81" s="203"/>
       <c r="P81" s="21"/>
@@ -11957,7 +12006,7 @@
     </row>
     <row r="84" spans="1:26" ht="17.25" thickBot="1">
       <c r="A84" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="17.25" thickBot="1">
@@ -11991,17 +12040,17 @@
       <c r="B86" s="20"/>
       <c r="C86" s="22"/>
       <c r="D86" s="236" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E86" s="237"/>
       <c r="F86" s="238"/>
       <c r="G86" s="239" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H86" s="240"/>
       <c r="I86" s="241"/>
       <c r="J86" s="242" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K86" s="240"/>
       <c r="L86" s="240"/>
@@ -12024,22 +12073,22 @@
       <c r="B87" s="20"/>
       <c r="C87" s="22"/>
       <c r="D87" s="243" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E87" s="243"/>
       <c r="F87" s="243"/>
       <c r="G87" s="243" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H87" s="243"/>
       <c r="I87" s="243"/>
       <c r="J87" s="243" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K87" s="243"/>
       <c r="L87" s="243"/>
       <c r="M87" s="243" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="N87" s="121"/>
       <c r="O87" s="121"/>
@@ -12393,7 +12442,7 @@
     </row>
     <row r="101" spans="1:31" ht="17.25" thickBot="1">
       <c r="A101" s="2" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -12413,7 +12462,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="20"/>
       <c r="C103" s="232" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D103" s="232"/>
       <c r="E103" s="232"/>
@@ -12440,66 +12489,66 @@
     <row r="105" spans="1:31">
       <c r="B105" s="20"/>
       <c r="C105" s="121" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D105" s="121"/>
       <c r="E105" s="121"/>
       <c r="F105" s="96" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G105" s="97"/>
       <c r="H105" s="97"/>
       <c r="I105" s="97"/>
       <c r="J105" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K105" s="21"/>
     </row>
     <row r="106" spans="1:31">
       <c r="B106" s="20"/>
       <c r="C106" s="121" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D106" s="121"/>
       <c r="E106" s="121"/>
       <c r="F106" s="96" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G106" s="97"/>
       <c r="H106" s="97"/>
       <c r="I106" s="97"/>
       <c r="J106" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K106" s="21"/>
     </row>
     <row r="107" spans="1:31">
       <c r="B107" s="20"/>
       <c r="C107" s="121" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D107" s="121"/>
       <c r="E107" s="121"/>
       <c r="F107" s="96" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G107" s="97"/>
       <c r="H107" s="97"/>
       <c r="I107" s="97"/>
       <c r="J107" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K107" s="21"/>
     </row>
     <row r="108" spans="1:31">
       <c r="B108" s="20"/>
       <c r="C108" s="121" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D108" s="121"/>
       <c r="E108" s="121"/>
       <c r="F108" s="96" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G108" s="97"/>
       <c r="H108" s="97"/>
@@ -12515,11 +12564,11 @@
       <c r="D109" s="121"/>
       <c r="E109" s="121"/>
       <c r="F109" s="96" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G109" s="97"/>
       <c r="H109" s="97" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I109" s="97"/>
       <c r="J109" s="98"/>
@@ -12528,12 +12577,12 @@
     <row r="110" spans="1:31">
       <c r="B110" s="20"/>
       <c r="C110" s="121" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D110" s="121"/>
       <c r="E110" s="121"/>
       <c r="F110" s="96" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G110" s="97"/>
       <c r="H110" s="97"/>
@@ -12562,7 +12611,7 @@
       <c r="G112" s="22"/>
       <c r="H112" s="22"/>
       <c r="I112" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J112" s="203"/>
       <c r="K112" s="21"/>
@@ -12581,7 +12630,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="B115" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -12589,7 +12638,7 @@
     </row>
     <row r="118" spans="1:11" ht="17.25" thickBot="1">
       <c r="A118" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -12609,7 +12658,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="20"/>
       <c r="C120" s="232" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D120" s="232"/>
       <c r="E120" s="232"/>
@@ -12636,30 +12685,30 @@
     <row r="122" spans="1:11">
       <c r="B122" s="20"/>
       <c r="C122" s="121" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D122" s="121"/>
       <c r="E122" s="121"/>
       <c r="F122" s="96" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G122" s="97"/>
       <c r="H122" s="97"/>
       <c r="I122" s="97"/>
       <c r="J122" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K122" s="21"/>
     </row>
     <row r="123" spans="1:11">
       <c r="B123" s="20"/>
       <c r="C123" s="121" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D123" s="121"/>
       <c r="E123" s="121"/>
       <c r="F123" s="96" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G123" s="97"/>
       <c r="H123" s="97"/>
@@ -12675,11 +12724,11 @@
       <c r="D124" s="121"/>
       <c r="E124" s="121"/>
       <c r="F124" s="96" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G124" s="97"/>
       <c r="H124" s="97" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I124" s="97"/>
       <c r="J124" s="98"/>
@@ -12688,12 +12737,12 @@
     <row r="125" spans="1:11">
       <c r="B125" s="20"/>
       <c r="C125" s="121" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D125" s="121"/>
       <c r="E125" s="121"/>
       <c r="F125" s="96" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G125" s="97"/>
       <c r="H125" s="97"/>
@@ -12722,7 +12771,7 @@
       <c r="G127" s="22"/>
       <c r="H127" s="22"/>
       <c r="I127" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J127" s="203"/>
       <c r="K127" s="21"/>
@@ -12741,12 +12790,12 @@
     </row>
     <row r="130" spans="1:11">
       <c r="B130" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:11" ht="17.25" thickBot="1">
       <c r="A132" s="2" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -12766,7 +12815,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="20"/>
       <c r="C134" s="232" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D134" s="232"/>
       <c r="E134" s="232"/>
@@ -12793,18 +12842,18 @@
     <row r="136" spans="1:11">
       <c r="B136" s="20"/>
       <c r="C136" s="121" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D136" s="121"/>
       <c r="E136" s="121"/>
       <c r="F136" s="96" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G136" s="97"/>
       <c r="H136" s="97"/>
       <c r="I136" s="97"/>
       <c r="J136" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K136" s="21"/>
     </row>
@@ -12816,11 +12865,11 @@
       <c r="D137" s="121"/>
       <c r="E137" s="121"/>
       <c r="F137" s="96" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G137" s="97"/>
       <c r="H137" s="97" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I137" s="97"/>
       <c r="J137" s="98"/>
@@ -12829,12 +12878,12 @@
     <row r="138" spans="1:11">
       <c r="B138" s="20"/>
       <c r="C138" s="121" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D138" s="121"/>
       <c r="E138" s="121"/>
       <c r="F138" s="96" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="G138" s="97"/>
       <c r="H138" s="97"/>
@@ -12863,7 +12912,7 @@
       <c r="G140" s="22"/>
       <c r="H140" s="22"/>
       <c r="I140" s="203" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J140" s="203"/>
       <c r="K140" s="21"/>
@@ -12882,12 +12931,12 @@
     </row>
     <row r="143" spans="1:11">
       <c r="B143" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="146" spans="1:21" ht="17.25" thickBot="1">
       <c r="A146" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -12915,28 +12964,28 @@
     <row r="148" spans="1:21">
       <c r="B148" s="20"/>
       <c r="C148" s="22" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="96" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G148" s="97"/>
       <c r="H148" s="97"/>
       <c r="I148" s="97"/>
       <c r="J148" s="14" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K148" s="22"/>
       <c r="L148" s="22"/>
       <c r="M148" s="203" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="N148" s="203"/>
       <c r="O148" s="22"/>
       <c r="P148" s="203" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q148" s="203"/>
       <c r="R148" s="22"/>
@@ -12969,7 +13018,7 @@
     <row r="150" spans="1:21" ht="20.25" customHeight="1">
       <c r="B150" s="20"/>
       <c r="C150" s="22" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D150" s="22"/>
       <c r="E150" s="22"/>
@@ -12993,7 +13042,7 @@
     <row r="151" spans="1:21" ht="20.25" customHeight="1">
       <c r="B151" s="20"/>
       <c r="C151" s="22" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D151" s="22"/>
       <c r="E151" s="22"/>
@@ -13017,7 +13066,7 @@
     <row r="152" spans="1:21">
       <c r="B152" s="20"/>
       <c r="C152" s="217" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D152" s="218"/>
       <c r="E152" s="136" t="s">
@@ -13027,13 +13076,13 @@
       <c r="G152" s="136"/>
       <c r="H152" s="136"/>
       <c r="I152" s="136" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J152" s="136"/>
       <c r="K152" s="136"/>
       <c r="L152" s="136"/>
       <c r="M152" s="136" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N152" s="136"/>
       <c r="O152" s="136"/>
@@ -13071,7 +13120,7 @@
     <row r="154" spans="1:21" ht="20.25">
       <c r="B154" s="20"/>
       <c r="C154" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D154" s="216"/>
       <c r="E154" s="121" t="s">
@@ -13081,7 +13130,7 @@
       <c r="G154" s="121"/>
       <c r="H154" s="121"/>
       <c r="I154" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J154" s="121"/>
       <c r="K154" s="121"/>
@@ -13103,7 +13152,7 @@
     <row r="155" spans="1:21" ht="20.25">
       <c r="B155" s="20"/>
       <c r="C155" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D155" s="216"/>
       <c r="E155" s="121" t="s">
@@ -13113,7 +13162,7 @@
       <c r="G155" s="121"/>
       <c r="H155" s="121"/>
       <c r="I155" s="121" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="J155" s="121"/>
       <c r="K155" s="121"/>
@@ -13135,7 +13184,7 @@
     <row r="156" spans="1:21" ht="20.25">
       <c r="B156" s="20"/>
       <c r="C156" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D156" s="216"/>
       <c r="E156" s="121" t="s">
@@ -13145,7 +13194,7 @@
       <c r="G156" s="121"/>
       <c r="H156" s="121"/>
       <c r="I156" s="121" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J156" s="121"/>
       <c r="K156" s="121"/>
@@ -13157,7 +13206,7 @@
       <c r="O156" s="224"/>
       <c r="P156" s="224"/>
       <c r="Q156" s="121" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R156" s="121"/>
       <c r="S156" s="121"/>
@@ -13167,7 +13216,7 @@
     <row r="157" spans="1:21" ht="20.25">
       <c r="B157" s="20"/>
       <c r="C157" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D157" s="216"/>
       <c r="E157" s="121" t="s">
@@ -13177,7 +13226,7 @@
       <c r="G157" s="121"/>
       <c r="H157" s="121"/>
       <c r="I157" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J157" s="121"/>
       <c r="K157" s="121"/>
@@ -13199,7 +13248,7 @@
     <row r="158" spans="1:21" ht="20.25" customHeight="1">
       <c r="B158" s="20"/>
       <c r="C158" s="22" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D158" s="22"/>
       <c r="E158" s="22"/>
@@ -13223,7 +13272,7 @@
     <row r="159" spans="1:21">
       <c r="B159" s="20"/>
       <c r="C159" s="217" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D159" s="218"/>
       <c r="E159" s="136" t="s">
@@ -13233,13 +13282,13 @@
       <c r="G159" s="136"/>
       <c r="H159" s="136"/>
       <c r="I159" s="136" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J159" s="136"/>
       <c r="K159" s="136"/>
       <c r="L159" s="136"/>
       <c r="M159" s="136" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="N159" s="136"/>
       <c r="O159" s="136"/>
@@ -13277,7 +13326,7 @@
     <row r="161" spans="2:21" ht="20.25">
       <c r="B161" s="20"/>
       <c r="C161" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D161" s="216"/>
       <c r="E161" s="121" t="s">
@@ -13287,7 +13336,7 @@
       <c r="G161" s="121"/>
       <c r="H161" s="121"/>
       <c r="I161" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J161" s="121"/>
       <c r="K161" s="121"/>
@@ -13309,7 +13358,7 @@
     <row r="162" spans="2:21" ht="20.25">
       <c r="B162" s="20"/>
       <c r="C162" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D162" s="216"/>
       <c r="E162" s="121" t="s">
@@ -13319,7 +13368,7 @@
       <c r="G162" s="121"/>
       <c r="H162" s="121"/>
       <c r="I162" s="121" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="J162" s="121"/>
       <c r="K162" s="121"/>
@@ -13341,7 +13390,7 @@
     <row r="163" spans="2:21" ht="20.25">
       <c r="B163" s="20"/>
       <c r="C163" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D163" s="216"/>
       <c r="E163" s="121" t="s">
@@ -13351,7 +13400,7 @@
       <c r="G163" s="121"/>
       <c r="H163" s="121"/>
       <c r="I163" s="121" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="J163" s="121"/>
       <c r="K163" s="121"/>
@@ -13363,7 +13412,7 @@
       <c r="O163" s="224"/>
       <c r="P163" s="224"/>
       <c r="Q163" s="121" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="R163" s="121"/>
       <c r="S163" s="121"/>
@@ -13373,7 +13422,7 @@
     <row r="164" spans="2:21" ht="20.25">
       <c r="B164" s="20"/>
       <c r="C164" s="215" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D164" s="216"/>
       <c r="E164" s="121" t="s">
@@ -13383,7 +13432,7 @@
       <c r="G164" s="121"/>
       <c r="H164" s="121"/>
       <c r="I164" s="121" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J164" s="121"/>
       <c r="K164" s="121"/>
@@ -13443,7 +13492,7 @@
       <c r="Q166" s="22"/>
       <c r="R166" s="22"/>
       <c r="S166" s="203" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="T166" s="203"/>
       <c r="U166" s="21"/>
@@ -13472,12 +13521,12 @@
     </row>
     <row r="169" spans="2:21">
       <c r="B169" s="1" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="170" spans="2:21">
       <c r="B170" s="1" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -13729,7 +13778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:M5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5"/>
   <cols>
@@ -13740,7 +13791,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="17.25" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -13781,44 +13832,44 @@
     <row r="3" spans="1:33">
       <c r="B3" s="20"/>
       <c r="C3" s="139" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D3" s="252"/>
       <c r="E3" s="252"/>
       <c r="F3" s="252"/>
       <c r="G3" s="253"/>
       <c r="H3" s="7" t="s">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="148" t="s">
-        <v>263</v>
+        <v>539</v>
       </c>
       <c r="K3" s="148"/>
       <c r="L3" s="148"/>
       <c r="M3" s="148"/>
       <c r="N3" s="148" t="s">
-        <v>264</v>
+        <v>540</v>
       </c>
       <c r="O3" s="148"/>
       <c r="P3" s="148"/>
       <c r="Q3" s="148"/>
       <c r="R3" s="148" t="s">
-        <v>265</v>
+        <v>541</v>
       </c>
       <c r="S3" s="148"/>
       <c r="T3" s="148"/>
       <c r="U3" s="148"/>
       <c r="V3" s="148"/>
       <c r="W3" s="148" t="s">
-        <v>267</v>
+        <v>542</v>
       </c>
       <c r="X3" s="148"/>
       <c r="Y3" s="148"/>
       <c r="Z3" s="148"/>
       <c r="AA3" s="148"/>
       <c r="AB3" s="148" t="s">
-        <v>209</v>
+        <v>543</v>
       </c>
       <c r="AC3" s="148"/>
       <c r="AD3" s="148"/>
@@ -13829,24 +13880,24 @@
     <row r="4" spans="1:33">
       <c r="B4" s="20"/>
       <c r="C4" s="254" t="s">
-        <v>259</v>
+        <v>554</v>
       </c>
       <c r="D4" s="255"/>
       <c r="E4" s="255"/>
       <c r="F4" s="255"/>
       <c r="G4" s="256"/>
       <c r="H4" s="263" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I4" s="248"/>
       <c r="J4" s="138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K4" s="121"/>
       <c r="L4" s="121"/>
       <c r="M4" s="121"/>
       <c r="N4" s="138" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O4" s="121"/>
       <c r="P4" s="121"/>
@@ -13866,7 +13917,7 @@
       <c r="Z4" s="121"/>
       <c r="AA4" s="121"/>
       <c r="AB4" s="138" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AC4" s="121"/>
       <c r="AD4" s="121"/>
@@ -13882,17 +13933,17 @@
       <c r="F5" s="258"/>
       <c r="G5" s="259"/>
       <c r="H5" s="247" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="I5" s="248"/>
       <c r="J5" s="138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K5" s="121"/>
       <c r="L5" s="121"/>
       <c r="M5" s="121"/>
       <c r="N5" s="138" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O5" s="121"/>
       <c r="P5" s="121"/>
@@ -13912,7 +13963,7 @@
       <c r="Z5" s="121"/>
       <c r="AA5" s="121"/>
       <c r="AB5" s="138" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AC5" s="121"/>
       <c r="AD5" s="121"/>
@@ -13928,17 +13979,17 @@
       <c r="F6" s="261"/>
       <c r="G6" s="262"/>
       <c r="H6" s="247" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="I6" s="248"/>
       <c r="J6" s="138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="138" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O6" s="121"/>
       <c r="P6" s="121"/>
@@ -13958,7 +14009,7 @@
       <c r="Z6" s="121"/>
       <c r="AA6" s="121"/>
       <c r="AB6" s="138" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="AC6" s="121"/>
       <c r="AD6" s="121"/>
@@ -13969,24 +14020,24 @@
     <row r="7" spans="1:33">
       <c r="B7" s="20"/>
       <c r="C7" s="249" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D7" s="250"/>
       <c r="E7" s="250"/>
       <c r="F7" s="250"/>
       <c r="G7" s="251"/>
       <c r="H7" s="247" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I7" s="248"/>
       <c r="J7" s="138" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K7" s="121"/>
       <c r="L7" s="121"/>
       <c r="M7" s="121"/>
       <c r="N7" s="138" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O7" s="121"/>
       <c r="P7" s="121"/>
@@ -14006,7 +14057,7 @@
       <c r="Z7" s="121"/>
       <c r="AA7" s="121"/>
       <c r="AB7" s="138" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="AC7" s="121"/>
       <c r="AD7" s="121"/>
@@ -14084,17 +14135,17 @@
     </row>
     <row r="11" spans="1:33">
       <c r="C11" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="C12" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:33" ht="17.25" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -14128,12 +14179,12 @@
     <row r="16" spans="1:33">
       <c r="B16" s="20"/>
       <c r="C16" s="29" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
@@ -14160,12 +14211,12 @@
     <row r="17" spans="1:27">
       <c r="B17" s="20"/>
       <c r="C17" s="29" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
@@ -14192,12 +14243,12 @@
     <row r="18" spans="1:27">
       <c r="B18" s="20"/>
       <c r="C18" s="29" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
@@ -14224,7 +14275,7 @@
     <row r="19" spans="1:27">
       <c r="B19" s="20"/>
       <c r="C19" s="29" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -14254,19 +14305,19 @@
     <row r="20" spans="1:27">
       <c r="B20" s="20"/>
       <c r="C20" s="136" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D20" s="136"/>
       <c r="E20" s="136"/>
       <c r="F20" s="136"/>
       <c r="G20" s="136" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H20" s="136"/>
       <c r="I20" s="136"/>
       <c r="J20" s="136"/>
       <c r="K20" s="153" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L20" s="266"/>
       <c r="M20" s="266"/>
@@ -14284,7 +14335,7 @@
       <c r="U20" s="154"/>
       <c r="V20" s="155"/>
       <c r="W20" s="153" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="X20" s="154"/>
       <c r="Y20" s="154"/>
@@ -14328,13 +14379,13 @@
       <c r="E22" s="121"/>
       <c r="F22" s="121"/>
       <c r="G22" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H22" s="121"/>
       <c r="I22" s="121"/>
       <c r="J22" s="121"/>
       <c r="K22" s="73" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L22" s="74"/>
       <c r="M22" s="74"/>
@@ -14362,19 +14413,19 @@
     <row r="23" spans="1:27">
       <c r="B23" s="20"/>
       <c r="C23" s="121" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D23" s="121"/>
       <c r="E23" s="121"/>
       <c r="F23" s="121"/>
       <c r="G23" s="121" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H23" s="121"/>
       <c r="I23" s="121"/>
       <c r="J23" s="121"/>
       <c r="K23" s="73" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L23" s="74"/>
       <c r="M23" s="74"/>
@@ -14452,7 +14503,7 @@
       <c r="W25" s="22"/>
       <c r="X25" s="22"/>
       <c r="Y25" s="101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="Z25" s="103"/>
       <c r="AA25" s="21"/>
@@ -14512,7 +14563,7 @@
     <row r="28" spans="1:27">
       <c r="B28" s="22"/>
       <c r="C28" s="22" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -14537,7 +14588,7 @@
     </row>
     <row r="30" spans="1:27" ht="17.25" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -14567,12 +14618,12 @@
     <row r="32" spans="1:27">
       <c r="B32" s="20"/>
       <c r="C32" s="29" t="s">
-        <v>278</v>
+        <v>545</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -14595,12 +14646,12 @@
     <row r="33" spans="2:23">
       <c r="B33" s="20"/>
       <c r="C33" s="29" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -14623,12 +14674,12 @@
     <row r="34" spans="2:23">
       <c r="B34" s="20"/>
       <c r="C34" s="29" t="s">
-        <v>279</v>
+        <v>544</v>
       </c>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -14651,7 +14702,7 @@
     <row r="35" spans="2:23">
       <c r="B35" s="20"/>
       <c r="C35" s="29" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -14677,7 +14728,7 @@
     <row r="36" spans="2:23">
       <c r="B36" s="20"/>
       <c r="C36" s="29" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -14703,12 +14754,12 @@
     <row r="37" spans="2:23">
       <c r="B37" s="20"/>
       <c r="C37" s="29" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -14731,12 +14782,12 @@
     <row r="38" spans="2:23">
       <c r="B38" s="20"/>
       <c r="C38" s="29" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -14759,7 +14810,7 @@
     <row r="39" spans="2:23">
       <c r="B39" s="20"/>
       <c r="C39" s="29" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -14785,13 +14836,13 @@
     <row r="40" spans="2:23">
       <c r="B40" s="20"/>
       <c r="C40" s="136" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D40" s="136"/>
       <c r="E40" s="136"/>
       <c r="F40" s="136"/>
       <c r="G40" s="136" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="H40" s="136"/>
       <c r="I40" s="136"/>
@@ -14809,7 +14860,7 @@
       <c r="Q40" s="136"/>
       <c r="R40" s="136"/>
       <c r="S40" s="153" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="T40" s="154"/>
       <c r="U40" s="154"/>
@@ -14849,7 +14900,7 @@
       <c r="E42" s="121"/>
       <c r="F42" s="121"/>
       <c r="G42" s="121" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H42" s="121"/>
       <c r="I42" s="121"/>
@@ -14877,13 +14928,13 @@
     <row r="43" spans="2:23">
       <c r="B43" s="20"/>
       <c r="C43" s="121" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D43" s="121"/>
       <c r="E43" s="121"/>
       <c r="F43" s="121"/>
       <c r="G43" s="121" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="H43" s="121"/>
       <c r="I43" s="121"/>
@@ -14947,7 +14998,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="101" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="P45" s="102"/>
       <c r="Q45" s="102"/>
@@ -14955,7 +15006,7 @@
       <c r="S45" s="103"/>
       <c r="T45" s="22"/>
       <c r="U45" s="101" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="V45" s="103"/>
       <c r="W45" s="21"/>
@@ -14986,12 +15037,12 @@
     </row>
     <row r="48" spans="2:23">
       <c r="C48" s="22" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -15088,7 +15139,7 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="17.25" thickBot="1"/>
@@ -15132,7 +15183,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="20"/>
       <c r="C4" s="101" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="28"/>
@@ -15205,13 +15256,13 @@
     <row r="6" spans="1:34" ht="16.5" customHeight="1">
       <c r="B6" s="20"/>
       <c r="C6" s="136" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="D6" s="136"/>
       <c r="E6" s="136"/>
       <c r="F6" s="136"/>
       <c r="G6" s="153" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="H6" s="154"/>
       <c r="I6" s="154"/>
@@ -15221,19 +15272,19 @@
       <c r="M6" s="154"/>
       <c r="N6" s="155"/>
       <c r="O6" s="153" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="P6" s="154"/>
       <c r="Q6" s="154"/>
       <c r="R6" s="155"/>
       <c r="S6" s="153" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="T6" s="154"/>
       <c r="U6" s="154"/>
       <c r="V6" s="155"/>
       <c r="W6" s="153" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="X6" s="154"/>
       <c r="Y6" s="154"/>
@@ -15283,7 +15334,7 @@
     <row r="8" spans="1:34">
       <c r="B8" s="20"/>
       <c r="C8" s="301" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D8" s="302"/>
       <c r="E8" s="302"/>
@@ -15299,19 +15350,19 @@
       <c r="M8" s="299"/>
       <c r="N8" s="300"/>
       <c r="O8" s="294" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P8" s="295"/>
       <c r="Q8" s="295"/>
       <c r="R8" s="295"/>
       <c r="S8" s="296" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="T8" s="297"/>
       <c r="U8" s="297"/>
       <c r="V8" s="297"/>
       <c r="W8" s="286" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="X8" s="287"/>
       <c r="Y8" s="287"/>
@@ -15327,7 +15378,7 @@
     <row r="9" spans="1:34">
       <c r="B9" s="20"/>
       <c r="C9" s="277" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D9" s="277"/>
       <c r="E9" s="277"/>
@@ -15343,19 +15394,19 @@
       <c r="M9" s="284"/>
       <c r="N9" s="285"/>
       <c r="O9" s="292" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="P9" s="293"/>
       <c r="Q9" s="293"/>
       <c r="R9" s="293"/>
       <c r="S9" s="281" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="T9" s="282"/>
       <c r="U9" s="282"/>
       <c r="V9" s="282"/>
       <c r="W9" s="289" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="X9" s="290"/>
       <c r="Y9" s="290"/>
@@ -15365,7 +15416,7 @@
       <c r="AC9" s="290"/>
       <c r="AD9" s="290"/>
       <c r="AE9" s="290" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF9" s="291"/>
       <c r="AH9" s="21"/>
@@ -15373,7 +15424,7 @@
     <row r="10" spans="1:34">
       <c r="B10" s="20"/>
       <c r="C10" s="277" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D10" s="277"/>
       <c r="E10" s="277"/>
@@ -15389,19 +15440,19 @@
       <c r="M10" s="284"/>
       <c r="N10" s="285"/>
       <c r="O10" s="278" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P10" s="279"/>
       <c r="Q10" s="279"/>
       <c r="R10" s="280"/>
       <c r="S10" s="281" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="T10" s="282"/>
       <c r="U10" s="282"/>
       <c r="V10" s="282"/>
       <c r="W10" s="289" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="X10" s="290"/>
       <c r="Y10" s="290"/>
@@ -15411,7 +15462,7 @@
       <c r="AC10" s="290"/>
       <c r="AD10" s="290"/>
       <c r="AE10" s="290" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF10" s="291"/>
       <c r="AH10" s="21"/>
@@ -15419,7 +15470,7 @@
     <row r="11" spans="1:34">
       <c r="B11" s="20"/>
       <c r="C11" s="277" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D11" s="277"/>
       <c r="E11" s="277"/>
@@ -15435,19 +15486,19 @@
       <c r="M11" s="284"/>
       <c r="N11" s="285"/>
       <c r="O11" s="278" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="P11" s="279"/>
       <c r="Q11" s="279"/>
       <c r="R11" s="280"/>
       <c r="S11" s="281" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="T11" s="282"/>
       <c r="U11" s="282"/>
       <c r="V11" s="282"/>
       <c r="W11" s="289" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="X11" s="290"/>
       <c r="Y11" s="290"/>
@@ -15457,7 +15508,7 @@
       <c r="AC11" s="290"/>
       <c r="AD11" s="290"/>
       <c r="AE11" s="290" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AF11" s="291"/>
       <c r="AH11" s="21"/>
@@ -15499,22 +15550,22 @@
     </row>
     <row r="14" spans="1:34">
       <c r="B14" s="1" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="2" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="1" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -15557,7 +15608,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AW19" sqref="AW19"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="16.5"/>
@@ -15576,10 +15627,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="16.5"/>
@@ -15587,7 +15638,7 @@
     <col min="1" max="1" width="23.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="20" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="9" customWidth="1"/>
     <col min="5" max="5" width="5.125" style="9" customWidth="1"/>
     <col min="6" max="6" width="23.5" style="9" customWidth="1"/>
     <col min="7" max="7" width="9.875" style="9" customWidth="1"/>
@@ -15608,19 +15659,19 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="303" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B2" s="304"/>
       <c r="C2" s="304"/>
       <c r="D2" s="305"/>
       <c r="F2" s="303" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G2" s="304"/>
       <c r="H2" s="304"/>
       <c r="I2" s="305"/>
       <c r="K2" s="303" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L2" s="304"/>
       <c r="M2" s="304"/>
@@ -15637,7 +15688,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>54</v>
@@ -15649,7 +15700,7 @@
         <v>55</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>54</v>
@@ -15661,7 +15712,7 @@
         <v>55</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -15672,7 +15723,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7"/>
       <c r="F4" s="7" t="s">
@@ -15682,7 +15733,7 @@
         <v>61</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="I4" s="7"/>
       <c r="K4" s="7" t="s">
@@ -15704,7 +15755,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7"/>
       <c r="F5" s="7" t="s">
@@ -15739,7 +15790,7 @@
         <v>57</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>76</v>
@@ -15784,7 +15835,7 @@
       </c>
       <c r="I7" s="7"/>
       <c r="K7" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>101</v>
@@ -15828,7 +15879,7 @@
       </c>
       <c r="D9" s="7"/>
       <c r="F9" s="303" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G9" s="304"/>
       <c r="H9" s="304"/>
@@ -15845,7 +15896,7 @@
         <v>64</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>54</v>
@@ -15857,10 +15908,10 @@
         <v>55</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K10" s="303" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="L10" s="304"/>
       <c r="M10" s="304"/>
@@ -15897,7 +15948,7 @@
         <v>55</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -15912,7 +15963,7 @@
       </c>
       <c r="D12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>74</v>
@@ -15938,13 +15989,13 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="F13" s="7" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="I13" s="7"/>
       <c r="K13" s="7" t="s">
@@ -15954,7 +16005,7 @@
         <v>74</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="N13" s="7"/>
     </row>
@@ -15964,7 +16015,7 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="F14" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>60</v>
@@ -15973,10 +16024,10 @@
         <v>94</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>74</v>
@@ -15988,7 +16039,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="303" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="B15" s="304"/>
       <c r="C15" s="304"/>
@@ -16003,7 +16054,7 @@
         <v>94</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -16017,25 +16068,25 @@
         <v>55</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F16" s="303" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G16" s="304"/>
       <c r="H16" s="304"/>
       <c r="I16" s="305"/>
       <c r="K16" s="7" t="s">
-        <v>126</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>60</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -16046,7 +16097,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D17" s="7"/>
       <c r="F17" s="11" t="s">
@@ -16059,22 +16110,22 @@
         <v>55</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="N17" s="7"/>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>60</v>
@@ -16083,10 +16134,10 @@
         <v>79</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>61</v>
@@ -16098,7 +16149,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>60</v>
@@ -16107,20 +16158,20 @@
         <v>84</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>74</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="303" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="L19" s="304"/>
       <c r="M19" s="304"/>
@@ -16128,16 +16179,16 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="K20" s="11" t="s">
         <v>54</v>
@@ -16149,28 +16200,28 @@
         <v>55</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21" s="303" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="G21" s="304"/>
       <c r="H21" s="304"/>
       <c r="I21" s="305"/>
       <c r="K21" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>60</v>
@@ -16179,7 +16230,7 @@
         <v>84</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -16203,10 +16254,10 @@
         <v>55</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>60</v>
@@ -16215,24 +16266,24 @@
         <v>109</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="F23" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>90</v>
@@ -16244,22 +16295,22 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="303" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B24" s="304"/>
       <c r="C24" s="304"/>
       <c r="D24" s="305"/>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -16273,7 +16324,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -16284,17 +16335,17 @@
         <v>61</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D26" s="7"/>
       <c r="F26" s="51" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="53"/>
       <c r="K26" s="8" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -16302,7 +16353,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>60</v>
@@ -16311,7 +16362,7 @@
         <v>105</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>54</v>
@@ -16323,7 +16374,7 @@
         <v>55</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K27" s="11" t="s">
         <v>54</v>
@@ -16335,22 +16386,22 @@
         <v>55</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D28" s="7"/>
       <c r="F28" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>61</v>
@@ -16372,17 +16423,17 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D29" s="7"/>
       <c r="F29" s="7" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>74</v>
@@ -16398,7 +16449,7 @@
         <v>74</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N29" s="7"/>
     </row>
@@ -16413,7 +16464,7 @@
         <v>92</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>73</v>
@@ -16422,7 +16473,7 @@
         <v>74</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="N30" s="7"/>
     </row>
@@ -16438,16 +16489,16 @@
       </c>
       <c r="I31" s="7"/>
       <c r="K31" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>60</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -16467,7 +16518,7 @@
         <v>94</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -16481,10 +16532,10 @@
         <v>55</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F33" s="303" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G33" s="304"/>
       <c r="H33" s="304"/>
@@ -16511,10 +16562,10 @@
         <v>55</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>128</v>
+        <v>547</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -16531,7 +16582,7 @@
         <v>109</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>58</v>
@@ -16553,7 +16604,7 @@
         <v>55</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -16564,7 +16615,7 @@
         <v>90</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D36" s="7"/>
       <c r="F36" s="7" t="s">
@@ -16574,7 +16625,7 @@
         <v>74</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" s="7"/>
       <c r="K36" s="7" t="s">
@@ -16596,17 +16647,17 @@
         <v>74</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I37" s="7"/>
       <c r="K37" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>74</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N37" s="7"/>
     </row>
@@ -16621,7 +16672,7 @@
         <v>94</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>76</v>
@@ -16630,29 +16681,29 @@
         <v>74</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="N38" s="7"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="303" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="B39" s="304"/>
       <c r="C39" s="304"/>
       <c r="D39" s="305"/>
       <c r="F39" s="7" t="s">
-        <v>133</v>
+        <v>537</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I39" s="7"/>
       <c r="K39" s="7" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>74</v>
@@ -16673,16 +16724,16 @@
         <v>55</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I40" s="7"/>
     </row>
@@ -16700,16 +16751,16 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -16724,7 +16775,7 @@
       </c>
       <c r="D43" s="7"/>
       <c r="F43" s="303" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G43" s="304"/>
       <c r="H43" s="304"/>
@@ -16741,12 +16792,12 @@
         <v>55</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -16773,19 +16824,19 @@
         <v>55</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -16800,16 +16851,16 @@
       </c>
       <c r="D47" s="7"/>
       <c r="F47" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="82.5">
@@ -16823,16 +16874,16 @@
         <v>121</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I48" s="7"/>
     </row>
@@ -16859,7 +16910,7 @@
         <v>118</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -16874,7 +16925,7 @@
       </c>
       <c r="D51" s="7"/>
       <c r="F51" s="303" t="s">
-        <v>269</v>
+        <v>549</v>
       </c>
       <c r="G51" s="304"/>
       <c r="H51" s="304"/>
@@ -16901,7 +16952,7 @@
         <v>55</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -16924,13 +16975,13 @@
         <v>74</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
@@ -16947,18 +16998,18 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D57" s="7"/>
     </row>
@@ -16970,63 +17021,63 @@
         <v>60</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D62" s="7"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
@@ -17043,12 +17094,12 @@
         <v>55</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>60</v>
@@ -17060,16 +17111,16 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -17077,13 +17128,13 @@
         <v>117</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -17091,10 +17142,10 @@
         <v>85</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D69" s="7"/>
     </row>
@@ -17106,7 +17157,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="55" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="57"/>
@@ -17123,7 +17174,7 @@
         <v>55</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -17140,16 +17191,16 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -17160,10 +17211,10 @@
         <v>60</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -17186,7 +17237,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="58" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B78" s="59"/>
       <c r="C78" s="60"/>
@@ -17203,7 +17254,7 @@
         <v>55</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -17220,16 +17271,16 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="33">
@@ -17240,10 +17291,10 @@
         <v>60</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -17266,7 +17317,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="58" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="B85" s="59"/>
       <c r="C85" s="60"/>
@@ -17283,7 +17334,7 @@
         <v>55</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -17306,63 +17357,63 @@
         <v>60</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D89" s="7"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D90" s="7"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D91" s="7"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="D92" s="7"/>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="58" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B94" s="59"/>
       <c r="C94" s="60"/>
@@ -17379,7 +17430,7 @@
         <v>55</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -17396,16 +17447,16 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -17416,10 +17467,10 @@
         <v>60</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -17442,7 +17493,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="58" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B101" s="59"/>
       <c r="C101" s="60"/>
@@ -17459,7 +17510,7 @@
         <v>55</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -17476,16 +17527,16 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -17496,15 +17547,15 @@
         <v>60</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="7" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="B106" s="7" t="s">
         <v>60</v>
@@ -17522,7 +17573,7 @@
         <v>60</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D107" s="7"/>
     </row>
@@ -17534,7 +17585,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="58" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B109" s="59"/>
       <c r="C109" s="60"/>
@@ -17551,7 +17602,7 @@
         <v>55</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -17565,21 +17616,21 @@
         <v>82</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="33">
       <c r="A112" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B112" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -17590,7 +17641,7 @@
         <v>60</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D113" s="7"/>
     </row>
@@ -17613,7 +17664,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="8" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="6"/>
@@ -17630,74 +17681,100 @@
         <v>55</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="D118" s="306"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="7" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>273</v>
+        <v>74</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="7" t="s">
-        <v>271</v>
+        <v>546</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>263</v>
+        <v>60</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>556</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="7" t="s">
-        <v>113</v>
+        <v>550</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D121" s="7"/>
+        <v>259</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="7" t="s">
-        <v>138</v>
+        <v>551</v>
       </c>
       <c r="B122" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D122" s="7"/>
+      <c r="C123" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>553</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
